--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,17 +5,19 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\E 177\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\E 177\GitStuff\ToolCheckGUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="3"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
     <sheet name="Mentor" sheetId="2" r:id="rId2"/>
     <sheet name="Student" sheetId="3" r:id="rId3"/>
     <sheet name="School" sheetId="4" r:id="rId4"/>
+    <sheet name="Purchase" sheetId="5" r:id="rId5"/>
+    <sheet name="Tools" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Alice Chow</t>
   </si>
@@ -54,6 +56,30 @@
   </si>
   <si>
     <t>America</t>
+  </si>
+  <si>
+    <t>Sprocket</t>
+  </si>
+  <si>
+    <t>VEX Motor</t>
+  </si>
+  <si>
+    <t>VEX Brain</t>
+  </si>
+  <si>
+    <t>Angle Gusset</t>
+  </si>
+  <si>
+    <t>Clamp</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Phillips Screwdriver</t>
+  </si>
+  <si>
+    <t>Punch</t>
   </si>
 </sst>
 </file>
@@ -89,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -518,4 +547,119 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="4"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Student" sheetId="3" r:id="rId3"/>
     <sheet name="School" sheetId="4" r:id="rId4"/>
     <sheet name="Purchase" sheetId="5" r:id="rId5"/>
-    <sheet name="Tools" sheetId="6" r:id="rId6"/>
+    <sheet name="Tool" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="5"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Alice Chow</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Punch</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>Bishop</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -497,6 +503,22 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -618,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="2"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Alice Chow</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Bishop</t>
+  </si>
+  <si>
+    <t>Jackie Ko</t>
+  </si>
+  <si>
+    <t>SFSU</t>
+  </si>
+  <si>
+    <t>Dewalt Drill</t>
+  </si>
+  <si>
+    <t>Plus Gusset</t>
   </si>
 </sst>
 </file>
@@ -406,9 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -425,6 +439,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -437,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -465,6 +484,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -477,10 +504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -519,6 +546,14 @@
       </c>
       <c r="B4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -575,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -629,7 +664,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,10 +681,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -681,6 +724,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="4"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Alice Chow</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Plus Gusset</t>
+  </si>
+  <si>
+    <t>Exacto Knife</t>
   </si>
 </sst>
 </file>
@@ -570,13 +573,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.734375" customWidth="1"/>
+    <col min="1" max="1" width="11.47265625" customWidth="1"/>
     <col min="2" max="2" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -585,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>97.45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -593,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -627,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -638,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -681,10 +684,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -732,6 +735,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="3"/>
+    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -614,7 +614,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -641,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -700,7 +700,7 @@
         <v>12</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -732,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -2845,11 +2845,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3174,10 +3171,10 @@
         <f>CONCATENATE(B1," ",C1)</f>
         <v>Aditya Chopra</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3186,10 +3183,10 @@
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2," ",C2)</f>
         <v>Albert Chandra</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3198,10 +3195,10 @@
         <f t="shared" si="0"/>
         <v>Alexander Osborne</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3210,10 +3207,10 @@
         <f t="shared" si="0"/>
         <v>Alexander Zhang</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3222,10 +3219,10 @@
         <f t="shared" si="0"/>
         <v>Alice Chow</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3234,10 +3231,10 @@
         <f t="shared" si="0"/>
         <v>Allan Zhou</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3246,10 +3243,10 @@
         <f t="shared" si="0"/>
         <v>Allen Li</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3258,10 +3255,10 @@
         <f t="shared" si="0"/>
         <v>Allen Wang</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3270,10 +3267,10 @@
         <f t="shared" si="0"/>
         <v>Andrew Chen</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3282,10 +3279,10 @@
         <f t="shared" si="0"/>
         <v>Andrew Wang</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3294,10 +3291,10 @@
         <f t="shared" si="0"/>
         <v>Andy Wong</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3306,10 +3303,10 @@
         <f t="shared" si="0"/>
         <v>Anisha Kumar</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3318,10 +3315,10 @@
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3330,10 +3327,10 @@
         <f t="shared" si="0"/>
         <v>Anthony Joseph Sy Tan</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3342,10 +3339,10 @@
         <f t="shared" si="0"/>
         <v>Anthony Tan</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3354,10 +3351,10 @@
         <f t="shared" si="0"/>
         <v>Anuj Gandhi</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3366,10 +3363,10 @@
         <f t="shared" si="0"/>
         <v>Aravind Kumaraguru</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3378,10 +3375,10 @@
         <f t="shared" si="0"/>
         <v>Arnab Mukherji</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3390,10 +3387,10 @@
         <f t="shared" si="0"/>
         <v>Arnav Gautam</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3402,10 +3399,10 @@
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3414,10 +3411,10 @@
         <f t="shared" si="0"/>
         <v>Ashley Chen</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3426,10 +3423,10 @@
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3438,10 +3435,10 @@
         <f t="shared" si="0"/>
         <v>Brandon Cortright</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3450,10 +3447,10 @@
         <f t="shared" si="0"/>
         <v>Briana Niu</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3462,10 +3459,10 @@
         <f t="shared" si="0"/>
         <v>Candy Chang</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3474,10 +3471,10 @@
         <f t="shared" si="0"/>
         <v>Casey Duckering</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3486,10 +3483,10 @@
         <f t="shared" si="0"/>
         <v>Charles Friesen</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3498,10 +3495,10 @@
         <f t="shared" si="0"/>
         <v>Christie Wong</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3510,10 +3507,10 @@
         <f t="shared" si="0"/>
         <v>Christine Wang</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3522,10 +3519,10 @@
         <f t="shared" si="0"/>
         <v>Christopher Dinh</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3534,10 +3531,10 @@
         <f t="shared" si="0"/>
         <v>Christopher Sumnicht</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3546,10 +3543,10 @@
         <f t="shared" si="0"/>
         <v>Connie Yu</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3558,10 +3555,10 @@
         <f t="shared" si="0"/>
         <v>Daniel Lee</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3570,10 +3567,10 @@
         <f t="shared" si="0"/>
         <v>Daniel Xu</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3582,10 +3579,10 @@
         <f t="shared" si="0"/>
         <v>David Hua</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3594,10 +3591,10 @@
         <f t="shared" si="0"/>
         <v>Dennis Wai</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3606,10 +3603,10 @@
         <f t="shared" si="0"/>
         <v>Devin He</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3618,10 +3615,10 @@
         <f t="shared" si="0"/>
         <v>Doowon Yang</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3630,10 +3627,10 @@
         <f t="shared" si="0"/>
         <v>Douglas Hutchings</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3642,10 +3639,10 @@
         <f t="shared" si="0"/>
         <v>Elizaveta Tremsina</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3654,10 +3651,10 @@
         <f t="shared" si="0"/>
         <v>Emily Stednitz</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3666,10 +3663,10 @@
         <f t="shared" si="0"/>
         <v>Eric Hui</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3678,10 +3675,10 @@
         <f t="shared" si="0"/>
         <v>Eric Nguyen</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3690,10 +3687,10 @@
         <f t="shared" si="0"/>
         <v>Erin Hancock</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3702,10 +3699,10 @@
         <f t="shared" si="0"/>
         <v>Felix Li</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3714,10 +3711,10 @@
         <f t="shared" si="0"/>
         <v>Felix Yoon</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3726,10 +3723,10 @@
         <f t="shared" si="0"/>
         <v>Grant Emmendorfer</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3738,10 +3735,10 @@
         <f t="shared" si="0"/>
         <v>Griffin Potrock</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3750,10 +3747,10 @@
         <f t="shared" si="0"/>
         <v>Guangru He</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3762,10 +3759,10 @@
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3774,10 +3771,10 @@
         <f t="shared" si="0"/>
         <v>Hammad Bashir</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3786,10 +3783,10 @@
         <f t="shared" si="0"/>
         <v>Hannah Ling</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3798,10 +3795,10 @@
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3810,10 +3807,10 @@
         <f t="shared" si="0"/>
         <v>Hoi Leung</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3822,10 +3819,10 @@
         <f t="shared" si="0"/>
         <v>Huda Khayrallah</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3834,10 +3831,10 @@
         <f t="shared" si="0"/>
         <v>Humphrey Hu</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3846,10 +3843,10 @@
         <f t="shared" si="0"/>
         <v>Ian Krase</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3858,10 +3855,10 @@
         <f t="shared" si="0"/>
         <v>Jackie Ko</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3870,10 +3867,10 @@
         <f t="shared" si="0"/>
         <v>Jared Porter</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3882,10 +3879,10 @@
         <f t="shared" si="0"/>
         <v>Jayss Marshall</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3894,10 +3891,10 @@
         <f t="shared" si="0"/>
         <v>Jeffrey Jacinto</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3906,10 +3903,10 @@
         <f t="shared" si="0"/>
         <v>Jerry Chen</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3918,10 +3915,10 @@
         <f t="shared" si="0"/>
         <v>Jerry Cheng</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3930,10 +3927,10 @@
         <f t="shared" si="0"/>
         <v>Jessica Nunez</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3942,10 +3939,10 @@
         <f t="shared" si="0"/>
         <v>Jessica Wong</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3954,10 +3951,10 @@
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(B66," ",C66)</f>
         <v>John Wang</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3966,10 +3963,10 @@
         <f t="shared" si="1"/>
         <v>Jonathan Tu</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3978,10 +3975,10 @@
         <f t="shared" si="1"/>
         <v>Jordan Covert</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3990,10 +3987,10 @@
         <f t="shared" si="1"/>
         <v>Jose Santos</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4002,10 +3999,10 @@
         <f t="shared" si="1"/>
         <v>Joshua Price</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4014,10 +4011,10 @@
         <f t="shared" si="1"/>
         <v>Justin Jorge</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4026,10 +4023,10 @@
         <f t="shared" si="1"/>
         <v>Karthik Shanmugam</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4038,10 +4035,10 @@
         <f t="shared" si="1"/>
         <v>Katrina Jiang</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4050,10 +4047,10 @@
         <f t="shared" si="1"/>
         <v>Krystyn Neisess</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4062,10 +4059,10 @@
         <f t="shared" si="1"/>
         <v>Kyle Zentner</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4074,10 +4071,10 @@
         <f t="shared" si="1"/>
         <v>Laura Taylor</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4086,10 +4083,10 @@
         <f t="shared" si="1"/>
         <v>Lucine Oganesian</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4098,10 +4095,10 @@
         <f t="shared" si="1"/>
         <v>Manda Au</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4110,10 +4107,10 @@
         <f t="shared" si="1"/>
         <v>Mandy Chen</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4122,10 +4119,10 @@
         <f t="shared" si="1"/>
         <v>Mandy Li</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4134,10 +4131,10 @@
         <f t="shared" si="1"/>
         <v>Mathew Pang</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4146,10 +4143,10 @@
         <f t="shared" si="1"/>
         <v>Mats Dreyer</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4158,10 +4155,10 @@
         <f t="shared" si="1"/>
         <v>Matthew Chang</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4170,10 +4167,10 @@
         <f t="shared" si="1"/>
         <v>Matthew Zhao</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4182,10 +4179,10 @@
         <f t="shared" si="1"/>
         <v>Max Barreto</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4194,10 +4191,10 @@
         <f t="shared" si="1"/>
         <v>Maxwell Nuyens</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4206,10 +4203,10 @@
         <f t="shared" si="1"/>
         <v>Michael Chuang</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4218,10 +4215,10 @@
         <f t="shared" si="1"/>
         <v>Mitch Thompson</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4230,10 +4227,10 @@
         <f t="shared" si="1"/>
         <v>Nathaniel Aceron</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4242,10 +4239,10 @@
         <f t="shared" si="1"/>
         <v>Natsumi Otaguro</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4254,10 +4251,10 @@
         <f t="shared" si="1"/>
         <v>Nikhil Mishra</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4266,10 +4263,10 @@
         <f t="shared" si="1"/>
         <v>Nikita Kitaev</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4278,10 +4275,10 @@
         <f t="shared" si="1"/>
         <v>Nona Penner</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4290,10 +4287,10 @@
         <f t="shared" si="1"/>
         <v>Paola Didone</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4302,10 +4299,10 @@
         <f t="shared" si="1"/>
         <v>Paul Moulton</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4314,10 +4311,10 @@
         <f t="shared" si="1"/>
         <v>Pengcheng Liu</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4326,10 +4323,10 @@
         <f t="shared" si="1"/>
         <v>Phoebe Lin</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4338,10 +4335,10 @@
         <f t="shared" si="1"/>
         <v>Qian Mu</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4350,10 +4347,10 @@
         <f t="shared" si="1"/>
         <v>Ray Pang</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4362,10 +4359,10 @@
         <f t="shared" si="1"/>
         <v>Rei Rachel Ieda</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4374,10 +4371,10 @@
         <f t="shared" si="1"/>
         <v>Rhett Gentile</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4386,10 +4383,10 @@
         <f t="shared" si="1"/>
         <v>Robert Luan</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4398,10 +4395,10 @@
         <f t="shared" si="1"/>
         <v>Robert Ou</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4410,10 +4407,10 @@
         <f t="shared" si="1"/>
         <v>Ryan Julian</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4422,10 +4419,10 @@
         <f t="shared" si="1"/>
         <v>Sagar Patel</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4434,10 +4431,10 @@
         <f t="shared" si="1"/>
         <v>Saloni Shah</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4446,10 +4443,10 @@
         <f t="shared" si="1"/>
         <v>Samuel Fung</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="2" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4458,10 +4455,10 @@
         <f t="shared" si="1"/>
         <v>Samuel Harris</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4470,10 +4467,10 @@
         <f t="shared" si="1"/>
         <v>Sarina Chen</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4482,10 +4479,10 @@
         <f t="shared" si="1"/>
         <v>Scout Heid</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4494,10 +4491,10 @@
         <f t="shared" si="1"/>
         <v>Sherdil Niyaz</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="2" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4506,10 +4503,10 @@
         <f t="shared" si="1"/>
         <v>Shivani Sharma</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4518,10 +4515,10 @@
         <f t="shared" si="1"/>
         <v>Stanley Kwong</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4530,10 +4527,10 @@
         <f t="shared" si="1"/>
         <v>Steven Chen</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4542,10 +4539,10 @@
         <f t="shared" si="1"/>
         <v>Sudip Guha</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4554,10 +4551,10 @@
         <f t="shared" si="1"/>
         <v>Sumita Ghosh</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4566,10 +4563,10 @@
         <f t="shared" si="1"/>
         <v>Tanya Krishnakumar</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="2" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4578,10 +4575,10 @@
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4590,10 +4587,10 @@
         <f t="shared" si="1"/>
         <v>Tobin Holcomb</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4602,10 +4599,10 @@
         <f t="shared" si="1"/>
         <v>Tomoya Ogura</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4614,10 +4611,10 @@
         <f t="shared" si="1"/>
         <v>Tony Abdo</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4626,10 +4623,10 @@
         <f t="shared" si="1"/>
         <v>Tony Dear</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="2" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4638,10 +4635,10 @@
         <f t="shared" si="1"/>
         <v>Utkarsh Singhal</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4650,10 +4647,10 @@
         <f t="shared" si="1"/>
         <v>Vanathi Ganesh</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4662,10 +4659,10 @@
         <f t="shared" si="1"/>
         <v>Vincent Donato</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="2" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4674,10 +4671,10 @@
         <f t="shared" si="1"/>
         <v>Wendy Liu</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4686,10 +4683,10 @@
         <f t="shared" si="1"/>
         <v>William Li</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4698,10 +4695,10 @@
         <f t="shared" si="1"/>
         <v>William Wheeler</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4710,10 +4707,10 @@
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4722,10 +4719,10 @@
         <f t="shared" ref="A130:A133" si="2">CONCATENATE(B130," ",C130)</f>
         <v>Winston Long</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4734,10 +4731,10 @@
         <f t="shared" si="2"/>
         <v>Xiao-Yu Fu</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4746,10 +4743,10 @@
         <f t="shared" si="2"/>
         <v>YiDing Jiang</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4758,10 +4755,10 @@
         <f t="shared" si="2"/>
         <v>Yizhe Liu</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4770,10 +4767,10 @@
         <f>CONCATENATE(B134," ",C134)</f>
         <v>Zhiliang He</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4807,13 +4804,13 @@
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Akira Bai</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4822,13 +4819,13 @@
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Alejandro Zuniga</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4837,13 +4834,13 @@
         <f t="shared" si="0"/>
         <v>Alex Liu</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4852,13 +4849,13 @@
         <f t="shared" si="0"/>
         <v>Alexander Yu</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4867,13 +4864,13 @@
         <f t="shared" si="0"/>
         <v>Andy Chu</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4882,13 +4879,13 @@
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4897,13 +4894,13 @@
         <f t="shared" si="0"/>
         <v>Arismel Tena</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4912,13 +4909,13 @@
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4927,13 +4924,13 @@
         <f t="shared" si="0"/>
         <v>Aurelia Guy</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4942,13 +4939,13 @@
         <f t="shared" si="0"/>
         <v>Baladitya Yellapragada</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4957,13 +4954,13 @@
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4972,13 +4969,13 @@
         <f t="shared" si="0"/>
         <v>Brian Cheng</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4987,13 +4984,13 @@
         <f t="shared" si="0"/>
         <v>Brian Kim</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5002,13 +4999,13 @@
         <f t="shared" si="0"/>
         <v>Carlos Sanchez</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5017,13 +5014,13 @@
         <f t="shared" si="0"/>
         <v>Charelston Chua</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5032,13 +5029,13 @@
         <f t="shared" si="0"/>
         <v>Chase Giannini</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5047,13 +5044,13 @@
         <f t="shared" si="0"/>
         <v>Christopher Wong</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5062,13 +5059,13 @@
         <f t="shared" si="0"/>
         <v>Clancy Lee</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5077,13 +5074,13 @@
         <f t="shared" si="0"/>
         <v>Cristian Rodriguez</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5092,13 +5089,13 @@
         <f t="shared" si="0"/>
         <v>Crystal Rubalcava</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5107,13 +5104,13 @@
         <f t="shared" si="0"/>
         <v>Debleena Sengupta</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5122,13 +5119,13 @@
         <f t="shared" si="0"/>
         <v>Dylan Dove</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5137,13 +5134,13 @@
         <f t="shared" si="0"/>
         <v>Eduardo Garibay</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -5152,13 +5149,13 @@
         <f t="shared" si="0"/>
         <v>Emily Jensen</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5167,13 +5164,13 @@
         <f t="shared" si="0"/>
         <v>Greta` Huang</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5182,13 +5179,13 @@
         <f t="shared" si="0"/>
         <v>Guangzhao (Philip) Yang</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5197,13 +5194,13 @@
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5212,13 +5209,13 @@
         <f t="shared" si="0"/>
         <v>Harshali Wadge</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5227,13 +5224,13 @@
         <f t="shared" si="0"/>
         <v>Hermilo Ibarra-Andrade</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5242,13 +5239,13 @@
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -5257,13 +5254,13 @@
         <f t="shared" si="0"/>
         <v>Hurui Kifle</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5272,13 +5269,13 @@
         <f t="shared" si="0"/>
         <v>Huu Pham</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5287,13 +5284,13 @@
         <f t="shared" si="0"/>
         <v>Ian McLaughlin</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5302,13 +5299,13 @@
         <f t="shared" si="0"/>
         <v>Ian Eigl</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5317,13 +5314,13 @@
         <f t="shared" si="0"/>
         <v>Jaime Pimentel</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5332,13 +5329,13 @@
         <f t="shared" si="0"/>
         <v>James Freret</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5347,13 +5344,13 @@
         <f t="shared" si="0"/>
         <v>Jennifer Garcia</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5362,13 +5359,13 @@
         <f t="shared" si="0"/>
         <v>Jesse Paterson</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5377,13 +5374,13 @@
         <f t="shared" si="0"/>
         <v>John Brkich</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5392,13 +5389,13 @@
         <f t="shared" si="0"/>
         <v>Juan Castillo</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5407,13 +5404,13 @@
         <f t="shared" si="0"/>
         <v>Kavya Madhavan</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5422,13 +5419,13 @@
         <f t="shared" si="0"/>
         <v>Kenny Zhen</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5437,13 +5434,13 @@
         <f t="shared" si="0"/>
         <v>Kevin Durand</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5452,13 +5449,13 @@
         <f t="shared" si="0"/>
         <v>Kevin Lee</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5467,13 +5464,13 @@
         <f t="shared" si="0"/>
         <v>Kyle Archer</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5482,13 +5479,13 @@
         <f t="shared" si="0"/>
         <v>Kyungna Kim</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5497,13 +5494,13 @@
         <f t="shared" si="0"/>
         <v>Lindsey Hernandez</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5512,13 +5509,13 @@
         <f t="shared" si="0"/>
         <v>Lucas Medino</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5527,13 +5524,13 @@
         <f t="shared" si="0"/>
         <v>Maliena Guy</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5542,13 +5539,13 @@
         <f t="shared" si="0"/>
         <v>Mandy Li</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5557,13 +5554,13 @@
         <f t="shared" si="0"/>
         <v>Mark Tegio</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5572,13 +5569,13 @@
         <f t="shared" si="0"/>
         <v>Matthew Naranjo</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5587,13 +5584,13 @@
         <f t="shared" si="0"/>
         <v>Matthew Cline</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5602,13 +5599,13 @@
         <f t="shared" si="0"/>
         <v>Micah Lyle</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5617,13 +5614,13 @@
         <f t="shared" si="0"/>
         <v>Mimi Parker</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5632,13 +5629,13 @@
         <f t="shared" si="0"/>
         <v>Nicholas Entress</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5647,13 +5644,13 @@
         <f t="shared" si="0"/>
         <v>Peter Nguyen</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5662,13 +5659,13 @@
         <f t="shared" si="0"/>
         <v>Phillip Downey</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>314</v>
       </c>
     </row>
@@ -5677,13 +5674,13 @@
         <f t="shared" si="0"/>
         <v>Pinxiu Gong</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5692,13 +5689,13 @@
         <f t="shared" si="0"/>
         <v>Rachel Ieda</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5707,13 +5704,13 @@
         <f t="shared" si="0"/>
         <v>Rafayel Mkrtchyan</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5722,13 +5719,13 @@
         <f t="shared" si="0"/>
         <v>Ravneet Madaan</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5737,13 +5734,13 @@
         <f t="shared" si="0"/>
         <v>Rosalba Rodriguez</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5752,13 +5749,13 @@
         <f t="shared" si="0"/>
         <v>Sam Harris</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5767,13 +5764,13 @@
         <f t="shared" si="0"/>
         <v>Sam Patrick</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5782,13 +5779,13 @@
         <f t="shared" ref="A66:A75" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Saman Sabeti</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5797,13 +5794,13 @@
         <f t="shared" si="1"/>
         <v>Samuel Heinz</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5812,13 +5809,13 @@
         <f t="shared" si="1"/>
         <v>Stephen Pereira-Schork</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5827,13 +5824,13 @@
         <f t="shared" si="1"/>
         <v>Sydney McMuldroch</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5842,13 +5839,13 @@
         <f t="shared" si="1"/>
         <v>Tatevik Stepanyan</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5857,13 +5854,13 @@
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5872,13 +5869,13 @@
         <f t="shared" si="1"/>
         <v>Urvashi Betarbet</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5887,13 +5884,13 @@
         <f t="shared" si="1"/>
         <v>Vineet Jagadeesan Nair</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5902,13 +5899,13 @@
         <f t="shared" si="1"/>
         <v>William Luong</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5917,13 +5914,13 @@
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5948,7 +5945,7 @@
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.3671875" customWidth="1"/>
-    <col min="2" max="2" width="28" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.5234375" customWidth="1"/>
     <col min="4" max="4" width="14.578125" customWidth="1"/>
   </cols>
@@ -5958,13 +5955,13 @@
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Gene Zlatev</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>658</v>
       </c>
     </row>
@@ -5973,13 +5970,13 @@
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Bobbi Zinoman</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>795</v>
       </c>
     </row>
@@ -5988,13 +5985,13 @@
         <f t="shared" si="0"/>
         <v>Griffen Zhu</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>720</v>
       </c>
     </row>
@@ -6003,13 +6000,13 @@
         <f t="shared" si="0"/>
         <v>Connie Zhou</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6018,13 +6015,13 @@
         <f t="shared" si="0"/>
         <v>Joshua Zhou</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6033,13 +6030,13 @@
         <f t="shared" si="0"/>
         <v>Carissa Zhou</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6048,13 +6045,13 @@
         <f t="shared" si="0"/>
         <v>Cieara Zhou</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6063,13 +6060,13 @@
         <f t="shared" si="0"/>
         <v>Aron Zhang</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6078,13 +6075,13 @@
         <f t="shared" si="0"/>
         <v>Lennox Zhang</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6093,13 +6090,13 @@
         <f t="shared" si="0"/>
         <v>William Zhang</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6108,13 +6105,13 @@
         <f t="shared" si="0"/>
         <v>Frank Zhang</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6123,13 +6120,13 @@
         <f t="shared" si="0"/>
         <v>Robert Zevallos</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>668</v>
       </c>
     </row>
@@ -6138,13 +6135,13 @@
         <f t="shared" si="0"/>
         <v>Fritzgerald Zenner</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>593</v>
       </c>
     </row>
@@ -6153,13 +6150,13 @@
         <f t="shared" si="0"/>
         <v>Nate Zeng</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>619</v>
       </c>
     </row>
@@ -6168,13 +6165,13 @@
         <f t="shared" si="0"/>
         <v>Abel Zarza</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>703</v>
       </c>
     </row>
@@ -6183,13 +6180,13 @@
         <f t="shared" si="0"/>
         <v>Juan Yu</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6198,13 +6195,13 @@
         <f t="shared" si="0"/>
         <v>Emily Yu</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6213,13 +6210,13 @@
         <f t="shared" si="0"/>
         <v>Kenny Yu</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6228,13 +6225,13 @@
         <f t="shared" si="0"/>
         <v>Mimi Yip</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>690</v>
       </c>
     </row>
@@ -6243,13 +6240,13 @@
         <f t="shared" si="0"/>
         <v>Emanuel Yi</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>669</v>
       </c>
     </row>
@@ -6258,13 +6255,13 @@
         <f t="shared" si="0"/>
         <v>John Carlos Yang</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6273,13 +6270,13 @@
         <f t="shared" si="0"/>
         <v>Bryan Yang</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6288,13 +6285,13 @@
         <f t="shared" si="0"/>
         <v>Vytautas Xu</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6303,13 +6300,13 @@
         <f t="shared" si="0"/>
         <v>Luka Xie</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>657</v>
       </c>
     </row>
@@ -6318,13 +6315,13 @@
         <f t="shared" si="0"/>
         <v>Maite Wu</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6333,13 +6330,13 @@
         <f t="shared" si="0"/>
         <v>Lena Wu</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6348,13 +6345,13 @@
         <f t="shared" si="0"/>
         <v>Henry Wu</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>584</v>
       </c>
     </row>
@@ -6363,13 +6360,13 @@
         <f t="shared" si="0"/>
         <v>Sara Woods</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>674</v>
       </c>
     </row>
@@ -6378,13 +6375,13 @@
         <f t="shared" si="0"/>
         <v>Michaelangelo Wood</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6393,13 +6390,13 @@
         <f t="shared" si="0"/>
         <v>Andrea Wong</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6408,13 +6405,13 @@
         <f t="shared" si="0"/>
         <v>Elias Wong</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6423,13 +6420,13 @@
         <f t="shared" si="0"/>
         <v>Michael Wong</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6438,13 +6435,13 @@
         <f t="shared" si="0"/>
         <v>Elson Wong</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6453,13 +6450,13 @@
         <f t="shared" si="0"/>
         <v>Jake Wisherop</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>726</v>
       </c>
     </row>
@@ -6468,13 +6465,13 @@
         <f t="shared" si="0"/>
         <v>Michaelangelo Wilson</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>704</v>
       </c>
     </row>
@@ -6483,13 +6480,13 @@
         <f t="shared" si="0"/>
         <v>Camilia Williams</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>594</v>
       </c>
     </row>
@@ -6498,13 +6495,13 @@
         <f t="shared" si="0"/>
         <v>Philip White</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>778</v>
       </c>
     </row>
@@ -6513,13 +6510,13 @@
         <f t="shared" si="0"/>
         <v>Andrew Wenzler</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>725</v>
       </c>
     </row>
@@ -6528,13 +6525,13 @@
         <f t="shared" si="0"/>
         <v>Conor Wang</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6543,13 +6540,13 @@
         <f t="shared" si="0"/>
         <v>Jesse Wang</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6558,13 +6555,13 @@
         <f t="shared" si="0"/>
         <v>Maggie Wan</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>633</v>
       </c>
     </row>
@@ -6573,13 +6570,13 @@
         <f t="shared" si="0"/>
         <v>Charles Walston</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>617</v>
       </c>
     </row>
@@ -6588,13 +6585,13 @@
         <f t="shared" si="0"/>
         <v>Roisin Wai</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6603,13 +6600,13 @@
         <f t="shared" si="0"/>
         <v>Marisa Vojvoda</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>716</v>
       </c>
     </row>
@@ -6618,13 +6615,13 @@
         <f t="shared" si="0"/>
         <v>Nicholas VanHeuit</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>697</v>
       </c>
     </row>
@@ -6633,13 +6630,13 @@
         <f t="shared" si="0"/>
         <v>Aubrey-rose Valva</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>765</v>
       </c>
     </row>
@@ -6648,13 +6645,13 @@
         <f t="shared" si="0"/>
         <v>William Valdivia</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>665</v>
       </c>
     </row>
@@ -6663,13 +6660,13 @@
         <f t="shared" si="0"/>
         <v>Ethan Unurbaatar</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>585</v>
       </c>
     </row>
@@ -6678,13 +6675,13 @@
         <f t="shared" si="0"/>
         <v>Jenny Tse</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>806</v>
       </c>
     </row>
@@ -6693,13 +6690,13 @@
         <f t="shared" si="0"/>
         <v>Elana Truong</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>691</v>
       </c>
     </row>
@@ -6708,13 +6705,13 @@
         <f t="shared" si="0"/>
         <v>Jeff Triadi</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6723,13 +6720,13 @@
         <f t="shared" si="0"/>
         <v>Shuxin Tran</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>621</v>
       </c>
     </row>
@@ -6738,13 +6735,13 @@
         <f t="shared" si="0"/>
         <v>Tony Tran</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>621</v>
       </c>
     </row>
@@ -6753,13 +6750,13 @@
         <f t="shared" si="0"/>
         <v>Angelina Tostenson</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>671</v>
       </c>
     </row>
@@ -6768,13 +6765,13 @@
         <f t="shared" si="0"/>
         <v>Osualdo Tom</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6783,13 +6780,13 @@
         <f t="shared" si="0"/>
         <v>Alycia Teuscher</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>794</v>
       </c>
     </row>
@@ -6798,13 +6795,13 @@
         <f t="shared" si="0"/>
         <v>Ricardo Tang</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6813,13 +6810,13 @@
         <f t="shared" si="0"/>
         <v>Harrison Tan</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6828,13 +6825,13 @@
         <f t="shared" si="0"/>
         <v>Gabrielle Tan</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6843,13 +6840,13 @@
         <f t="shared" si="0"/>
         <v>Tiffany Tan</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6858,13 +6855,13 @@
         <f t="shared" si="0"/>
         <v>Georgina Tan</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6873,13 +6870,13 @@
         <f t="shared" si="0"/>
         <v>Jesus Tamayo</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6888,13 +6885,13 @@
         <f t="shared" si="0"/>
         <v>William Sun</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>749</v>
       </c>
     </row>
@@ -6903,13 +6900,13 @@
         <f t="shared" si="0"/>
         <v>Spencer Subrayan</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>705</v>
       </c>
     </row>
@@ -6918,13 +6915,13 @@
         <f t="shared" si="0"/>
         <v>Ash Storrs</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>768</v>
       </c>
     </row>
@@ -6933,13 +6930,13 @@
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Amy Stanfield</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>588</v>
       </c>
     </row>
@@ -6948,13 +6945,13 @@
         <f t="shared" si="1"/>
         <v>Rigoberto Stacy</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>762</v>
       </c>
     </row>
@@ -6963,13 +6960,13 @@
         <f t="shared" si="1"/>
         <v>Samuel Soephan</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>786</v>
       </c>
     </row>
@@ -6978,13 +6975,13 @@
         <f t="shared" si="1"/>
         <v>Tom Smith</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>681</v>
       </c>
     </row>
@@ -6993,13 +6990,13 @@
         <f t="shared" si="1"/>
         <v>Jake Smith</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>681</v>
       </c>
     </row>
@@ -7008,13 +7005,13 @@
         <f t="shared" si="1"/>
         <v>Joseph Situ</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>632</v>
       </c>
     </row>
@@ -7023,13 +7020,13 @@
         <f t="shared" si="1"/>
         <v>Jayshaun Singleton</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7038,13 +7035,13 @@
         <f t="shared" si="1"/>
         <v>Branden Singh</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>761</v>
       </c>
     </row>
@@ -7053,13 +7050,13 @@
         <f t="shared" si="1"/>
         <v>Elizabeth Singh</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>761</v>
       </c>
     </row>
@@ -7068,13 +7065,13 @@
         <f t="shared" si="1"/>
         <v>Lamont Simmons</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7083,13 +7080,13 @@
         <f t="shared" si="1"/>
         <v>Irvin Silverman</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>612</v>
       </c>
     </row>
@@ -7098,13 +7095,13 @@
         <f t="shared" si="1"/>
         <v>Billy Shutt</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>713</v>
       </c>
     </row>
@@ -7113,13 +7110,13 @@
         <f t="shared" si="1"/>
         <v>Lewis Shirozi</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>769</v>
       </c>
     </row>
@@ -7128,13 +7125,13 @@
         <f t="shared" si="1"/>
         <v>Gilberto Shi</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>611</v>
       </c>
     </row>
@@ -7143,13 +7140,13 @@
         <f t="shared" si="1"/>
         <v>Leila Shalf</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7158,13 +7155,13 @@
         <f t="shared" si="1"/>
         <v>Andrea Servin</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7173,13 +7170,13 @@
         <f t="shared" si="1"/>
         <v>Raymond Schooling</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>680</v>
       </c>
     </row>
@@ -7188,13 +7185,13 @@
         <f t="shared" si="1"/>
         <v>Tony Schniedergers</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>692</v>
       </c>
     </row>
@@ -7203,13 +7200,13 @@
         <f t="shared" si="1"/>
         <v>Macie Schneidinger</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>673</v>
       </c>
     </row>
@@ -7218,13 +7215,13 @@
         <f t="shared" si="1"/>
         <v>Jair Saucedo</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>607</v>
       </c>
     </row>
@@ -7233,13 +7230,13 @@
         <f t="shared" si="1"/>
         <v>Tristan Santana</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>625</v>
       </c>
     </row>
@@ -7248,13 +7245,13 @@
         <f t="shared" si="1"/>
         <v>Giovanni Sanchez</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7263,13 +7260,13 @@
         <f t="shared" si="1"/>
         <v>Adan Sanchez</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7278,13 +7275,13 @@
         <f t="shared" si="1"/>
         <v>Brissa Ruiz</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>606</v>
       </c>
     </row>
@@ -7293,13 +7290,13 @@
         <f t="shared" si="1"/>
         <v>Reginae Rue</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7308,13 +7305,13 @@
         <f t="shared" si="1"/>
         <v>Brandon Rubi</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>698</v>
       </c>
     </row>
@@ -7323,13 +7320,13 @@
         <f t="shared" si="1"/>
         <v>Stephanie Rose</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>687</v>
       </c>
     </row>
@@ -7338,13 +7335,13 @@
         <f t="shared" si="1"/>
         <v>Robert Rosales</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>700</v>
       </c>
     </row>
@@ -7353,13 +7350,13 @@
         <f t="shared" si="1"/>
         <v>Maria Rodriguez Silva</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>605</v>
       </c>
     </row>
@@ -7368,13 +7365,13 @@
         <f t="shared" si="1"/>
         <v>Julia Robertson</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>677</v>
       </c>
     </row>
@@ -7383,13 +7380,13 @@
         <f t="shared" si="1"/>
         <v>Paul Robbins</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>644</v>
       </c>
     </row>
@@ -7398,13 +7395,13 @@
         <f t="shared" si="1"/>
         <v>Manuel Riley</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="6" t="s">
         <v>651</v>
       </c>
     </row>
@@ -7413,13 +7410,13 @@
         <f t="shared" si="1"/>
         <v>Austin Reed</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>734</v>
       </c>
     </row>
@@ -7428,13 +7425,13 @@
         <f t="shared" si="1"/>
         <v>Reginald Ranman</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>693</v>
       </c>
     </row>
@@ -7443,13 +7440,13 @@
         <f t="shared" si="1"/>
         <v>Jose Ramos</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>573</v>
       </c>
     </row>
@@ -7458,13 +7455,13 @@
         <f t="shared" si="1"/>
         <v>Kai Quale</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>695</v>
       </c>
     </row>
@@ -7473,13 +7470,13 @@
         <f t="shared" si="1"/>
         <v>Maya Qiu</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>751</v>
       </c>
     </row>
@@ -7488,13 +7485,13 @@
         <f t="shared" si="1"/>
         <v>Alex Priesto</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>799</v>
       </c>
     </row>
@@ -7503,13 +7500,13 @@
         <f t="shared" si="1"/>
         <v>Cole Prendergast</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="6" t="s">
         <v>793</v>
       </c>
     </row>
@@ -7518,13 +7515,13 @@
         <f t="shared" si="1"/>
         <v>Junior Pratt</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="6" t="s">
         <v>796</v>
       </c>
     </row>
@@ -7533,13 +7530,13 @@
         <f t="shared" si="1"/>
         <v>Simranjit Poveda</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>764</v>
       </c>
     </row>
@@ -7548,13 +7545,13 @@
         <f t="shared" si="1"/>
         <v>Daniela Portillo</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="6" t="s">
         <v>576</v>
       </c>
     </row>
@@ -7563,13 +7560,13 @@
         <f t="shared" si="1"/>
         <v>Athorva Pietropooli</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>767</v>
       </c>
     </row>
@@ -7578,13 +7575,13 @@
         <f t="shared" si="1"/>
         <v>Kelsey Pierce</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>675</v>
       </c>
     </row>
@@ -7593,13 +7590,13 @@
         <f t="shared" si="1"/>
         <v>William Piccillo</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>737</v>
       </c>
     </row>
@@ -7608,13 +7605,13 @@
         <f t="shared" si="1"/>
         <v>Sara Phung</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>620</v>
       </c>
     </row>
@@ -7623,13 +7620,13 @@
         <f t="shared" si="1"/>
         <v>Angelina Phoumivong</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>694</v>
       </c>
     </row>
@@ -7638,13 +7635,13 @@
         <f t="shared" si="1"/>
         <v>Christian Pereda</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="6" t="s">
         <v>645</v>
       </c>
     </row>
@@ -7653,13 +7650,13 @@
         <f t="shared" si="1"/>
         <v>Gabriel Peng</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>711</v>
       </c>
     </row>
@@ -7668,13 +7665,13 @@
         <f t="shared" si="1"/>
         <v>Sarbjot Pedersen</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="6" t="s">
         <v>771</v>
       </c>
     </row>
@@ -7683,13 +7680,13 @@
         <f t="shared" si="1"/>
         <v>Tiffany Pareja</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7698,13 +7695,13 @@
         <f t="shared" si="1"/>
         <v>Gavin Orla-Bukowski</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="6" t="s">
         <v>714</v>
       </c>
     </row>
@@ -7713,13 +7710,13 @@
         <f t="shared" si="1"/>
         <v>Minnie Ong</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="6" t="s">
         <v>616</v>
       </c>
     </row>
@@ -7728,13 +7725,13 @@
         <f t="shared" si="1"/>
         <v>Andy Olson</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="6" t="s">
         <v>689</v>
       </c>
     </row>
@@ -7743,13 +7740,13 @@
         <f t="shared" si="1"/>
         <v>Quiante Olosiman</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="6" t="s">
         <v>759</v>
       </c>
     </row>
@@ -7758,13 +7755,13 @@
         <f t="shared" si="1"/>
         <v>Raymond Oddone</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="6" t="s">
         <v>682</v>
       </c>
     </row>
@@ -7773,13 +7770,13 @@
         <f t="shared" si="1"/>
         <v>Alex Norbu</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="6" t="s">
         <v>780</v>
       </c>
     </row>
@@ -7788,13 +7785,13 @@
         <f t="shared" si="1"/>
         <v>Carlos Nieves</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="6" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7803,13 +7800,13 @@
         <f t="shared" si="1"/>
         <v>David Nguyen</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7818,13 +7815,13 @@
         <f t="shared" si="1"/>
         <v>JingJun Nguyen</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7833,13 +7830,13 @@
         <f t="shared" si="1"/>
         <v>Joshua Nguyen</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7848,13 +7845,13 @@
         <f t="shared" si="1"/>
         <v>Kai Nguyen</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7863,13 +7860,13 @@
         <f t="shared" si="1"/>
         <v>Sydney Nguyen</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7878,13 +7875,13 @@
         <f t="shared" si="1"/>
         <v>Jasmine Nguyen</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7893,13 +7890,13 @@
         <f t="shared" ref="A130:A192" si="2">CONCATENATE(C130," ",D130)</f>
         <v>Jaylin Ngo</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>655</v>
       </c>
     </row>
@@ -7908,13 +7905,13 @@
         <f t="shared" si="2"/>
         <v>Fernando Ng</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>710</v>
       </c>
     </row>
@@ -7923,13 +7920,13 @@
         <f t="shared" si="2"/>
         <v>Darwin Navarro</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>604</v>
       </c>
     </row>
@@ -7938,13 +7935,13 @@
         <f t="shared" si="2"/>
         <v>Kyle Nations</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>722</v>
       </c>
     </row>
@@ -7953,13 +7950,13 @@
         <f t="shared" si="2"/>
         <v>Glen Thomas Nagdev</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>731</v>
       </c>
     </row>
@@ -7968,13 +7965,13 @@
         <f t="shared" si="2"/>
         <v>Oscar Munoz</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>580</v>
       </c>
     </row>
@@ -7983,13 +7980,13 @@
         <f t="shared" si="2"/>
         <v>Jennifer Mueller</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C136" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>672</v>
       </c>
     </row>
@@ -7998,13 +7995,13 @@
         <f t="shared" si="2"/>
         <v>Lauren Mubachir</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C137" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>756</v>
       </c>
     </row>
@@ -8013,13 +8010,13 @@
         <f t="shared" si="2"/>
         <v>Gustavo Moya</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8028,13 +8025,13 @@
         <f t="shared" si="2"/>
         <v>Henry Morton</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>724</v>
       </c>
     </row>
@@ -8043,13 +8040,13 @@
         <f t="shared" si="2"/>
         <v>Karoline Morgan</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>740</v>
       </c>
     </row>
@@ -8058,13 +8055,13 @@
         <f t="shared" si="2"/>
         <v>Ketzia Moreno</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>663</v>
       </c>
     </row>
@@ -8073,13 +8070,13 @@
         <f t="shared" si="2"/>
         <v>Aelafe Moore</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>757</v>
       </c>
     </row>
@@ -8088,13 +8085,13 @@
         <f t="shared" si="2"/>
         <v>Janet Montevirgin</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>763</v>
       </c>
     </row>
@@ -8103,13 +8100,13 @@
         <f t="shared" si="2"/>
         <v>Kenyon Mogilewski</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="6" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8118,13 +8115,13 @@
         <f t="shared" si="2"/>
         <v>Wangsen (Stanley) Mitchell</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="6" t="s">
         <v>661</v>
       </c>
     </row>
@@ -8133,13 +8130,13 @@
         <f t="shared" si="2"/>
         <v>Patrick Minsky</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="6" t="s">
         <v>779</v>
       </c>
     </row>
@@ -8148,13 +8145,13 @@
         <f t="shared" si="2"/>
         <v>Thane Mills</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="6" t="s">
         <v>730</v>
       </c>
     </row>
@@ -8163,13 +8160,13 @@
         <f t="shared" si="2"/>
         <v>Ryan Micael</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="6" t="s">
         <v>754</v>
       </c>
     </row>
@@ -8178,13 +8175,13 @@
         <f t="shared" si="2"/>
         <v>Ethan Merzenich</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="6" t="s">
         <v>685</v>
       </c>
     </row>
@@ -8193,13 +8190,13 @@
         <f t="shared" si="2"/>
         <v>Hana Merino</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>782</v>
       </c>
     </row>
@@ -8208,13 +8205,13 @@
         <f t="shared" si="2"/>
         <v>Michelle Mendes</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="6" t="s">
         <v>770</v>
       </c>
     </row>
@@ -8223,13 +8220,13 @@
         <f t="shared" si="2"/>
         <v>Christian Mejia</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="6" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8238,13 +8235,13 @@
         <f t="shared" si="2"/>
         <v>Jonathan Mei</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="6" t="s">
         <v>643</v>
       </c>
     </row>
@@ -8253,13 +8250,13 @@
         <f t="shared" si="2"/>
         <v>Cristiana McNary</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="6" t="s">
         <v>785</v>
       </c>
     </row>
@@ -8268,13 +8265,13 @@
         <f t="shared" si="2"/>
         <v>Tammy McLoughlin</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="6" t="s">
         <v>805</v>
       </c>
     </row>
@@ -8283,13 +8280,13 @@
         <f t="shared" si="2"/>
         <v>Amit McDonald</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="6" t="s">
         <v>735</v>
       </c>
     </row>
@@ -8298,13 +8295,13 @@
         <f t="shared" si="2"/>
         <v>Kailash McCaulley</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="6" t="s">
         <v>745</v>
       </c>
     </row>
@@ -8313,13 +8310,13 @@
         <f t="shared" si="2"/>
         <v>Winnie Maxwell</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8328,13 +8325,13 @@
         <f t="shared" si="2"/>
         <v>Gaby Martinez</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8343,13 +8340,13 @@
         <f t="shared" si="2"/>
         <v>Samuel Martinez</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8358,13 +8355,13 @@
         <f t="shared" si="2"/>
         <v>Jorge Martinez</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8373,13 +8370,13 @@
         <f t="shared" si="2"/>
         <v>Admiral Martinee</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="6" t="s">
         <v>635</v>
       </c>
     </row>
@@ -8388,13 +8385,13 @@
         <f t="shared" si="2"/>
         <v>Adam Martin</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="6" t="s">
         <v>798</v>
       </c>
     </row>
@@ -8403,13 +8400,13 @@
         <f t="shared" si="2"/>
         <v>Rilhiyah Mart</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="6" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8418,13 +8415,13 @@
         <f t="shared" si="2"/>
         <v>Skylar Marrama</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="6" t="s">
         <v>723</v>
       </c>
     </row>
@@ -8433,13 +8430,13 @@
         <f t="shared" si="2"/>
         <v>Charlie Manalo</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="6" t="s">
         <v>648</v>
       </c>
     </row>
@@ -8448,13 +8445,13 @@
         <f t="shared" si="2"/>
         <v>Daniel Maddison</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="6" t="s">
         <v>781</v>
       </c>
     </row>
@@ -8463,13 +8460,13 @@
         <f t="shared" si="2"/>
         <v>Kayley Luu</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="6" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8478,13 +8475,13 @@
         <f t="shared" si="2"/>
         <v>Laura Luna</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="6" t="s">
         <v>792</v>
       </c>
     </row>
@@ -8493,13 +8490,13 @@
         <f t="shared" si="2"/>
         <v>Kandace Lui</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B170" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="6" t="s">
         <v>804</v>
       </c>
     </row>
@@ -8508,13 +8505,13 @@
         <f t="shared" si="2"/>
         <v>Nuo Lou</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B171" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="6" t="s">
         <v>776</v>
       </c>
     </row>
@@ -8523,13 +8520,13 @@
         <f t="shared" si="2"/>
         <v>Walter Lopez</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="6" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8538,13 +8535,13 @@
         <f t="shared" si="2"/>
         <v>Agustin Lopez</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B173" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="6" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8553,13 +8550,13 @@
         <f t="shared" si="2"/>
         <v>Luis Lopez</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="6" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8568,13 +8565,13 @@
         <f t="shared" si="2"/>
         <v>Huabin Lodoe</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D175" s="6" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8583,13 +8580,13 @@
         <f t="shared" si="2"/>
         <v>Hien Liu</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B176" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8598,13 +8595,13 @@
         <f t="shared" si="2"/>
         <v>Donovan Lira</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="6" t="s">
         <v>760</v>
       </c>
     </row>
@@ -8613,13 +8610,13 @@
         <f t="shared" si="2"/>
         <v>Alex Lintao</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>718</v>
       </c>
     </row>
@@ -8628,13 +8625,13 @@
         <f t="shared" si="2"/>
         <v>Jiani Ligutan</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>624</v>
       </c>
     </row>
@@ -8643,13 +8640,13 @@
         <f t="shared" si="2"/>
         <v>Michael Liang</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="6" t="s">
         <v>676</v>
       </c>
     </row>
@@ -8658,13 +8655,13 @@
         <f t="shared" si="2"/>
         <v>Jeanie Li</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8673,13 +8670,13 @@
         <f t="shared" si="2"/>
         <v>Carvell Levi</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="6" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8688,13 +8685,13 @@
         <f t="shared" si="2"/>
         <v>Calvin Leung</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8703,13 +8700,13 @@
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8718,13 +8715,13 @@
         <f t="shared" si="2"/>
         <v>Brian Lee</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8733,13 +8730,13 @@
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8748,13 +8745,13 @@
         <f t="shared" si="2"/>
         <v>Andrew Lee</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8763,13 +8760,13 @@
         <f t="shared" si="2"/>
         <v>Benjamin Lee</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8778,13 +8775,13 @@
         <f t="shared" si="2"/>
         <v>Simon Lee</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D189" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -8793,13 +8790,13 @@
         <f t="shared" si="2"/>
         <v>Adriana Lazano</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="6" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8808,13 +8805,13 @@
         <f t="shared" si="2"/>
         <v>Kevin Law</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="6" t="s">
         <v>802</v>
       </c>
     </row>
@@ -8823,13 +8820,13 @@
         <f t="shared" si="2"/>
         <v>Robert Lavryonova</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="6" t="s">
         <v>744</v>
       </c>
     </row>
@@ -8838,13 +8835,13 @@
         <f t="shared" ref="A193:A256" si="3">CONCATENATE(C193," ",D193)</f>
         <v>HaoYang Latt</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="6" t="s">
         <v>634</v>
       </c>
     </row>
@@ -8853,13 +8850,13 @@
         <f t="shared" si="3"/>
         <v>Levi Lara</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="6" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8868,13 +8865,13 @@
         <f t="shared" si="3"/>
         <v>Johnny Lander</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="6" t="s">
         <v>649</v>
       </c>
     </row>
@@ -8883,13 +8880,13 @@
         <f t="shared" si="3"/>
         <v>Hae Landaverde</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="8" t="s">
         <v>637</v>
       </c>
     </row>
@@ -8898,13 +8895,13 @@
         <f t="shared" si="3"/>
         <v>Dylan Lam</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8913,13 +8910,13 @@
         <f t="shared" si="3"/>
         <v>Kai Lakireddy</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D198" s="6" t="s">
         <v>742</v>
       </c>
     </row>
@@ -8928,13 +8925,13 @@
         <f t="shared" si="3"/>
         <v>Trayvonda Kwasriza</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="6" t="s">
         <v>656</v>
       </c>
     </row>
@@ -8943,13 +8940,13 @@
         <f t="shared" si="3"/>
         <v>Griffin Kwan</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="6" t="s">
         <v>679</v>
       </c>
     </row>
@@ -8958,13 +8955,13 @@
         <f t="shared" si="3"/>
         <v>James Kudsk</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="6" t="s">
         <v>746</v>
       </c>
     </row>
@@ -8973,13 +8970,13 @@
         <f t="shared" si="3"/>
         <v>Zoe Kidder</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="6" t="s">
         <v>739</v>
       </c>
     </row>
@@ -8988,13 +8985,13 @@
         <f t="shared" si="3"/>
         <v>Julian Khadka</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="6" t="s">
         <v>590</v>
       </c>
     </row>
@@ -9003,13 +9000,13 @@
         <f t="shared" si="3"/>
         <v>Evan Keohan</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="6" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9018,13 +9015,13 @@
         <f t="shared" si="3"/>
         <v>Michelle Kelly</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="6" t="s">
         <v>622</v>
       </c>
     </row>
@@ -9033,13 +9030,13 @@
         <f t="shared" si="3"/>
         <v>Jasper Kebade</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="6" t="s">
         <v>753</v>
       </c>
     </row>
@@ -9048,13 +9045,13 @@
         <f t="shared" si="3"/>
         <v>Emilio Karnik</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D207" s="6" t="s">
         <v>766</v>
       </c>
     </row>
@@ -9063,13 +9060,13 @@
         <f t="shared" si="3"/>
         <v>Cody Jue</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="6" t="s">
         <v>803</v>
       </c>
     </row>
@@ -9078,13 +9075,13 @@
         <f t="shared" si="3"/>
         <v>Vivian Johnstone</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="6" t="s">
         <v>808</v>
       </c>
     </row>
@@ -9093,13 +9090,13 @@
         <f t="shared" si="3"/>
         <v>Kevin Johnson</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="6" t="s">
         <v>618</v>
       </c>
     </row>
@@ -9108,13 +9105,13 @@
         <f t="shared" si="3"/>
         <v>Galmandahk Jimenez</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="6" t="s">
         <v>589</v>
       </c>
     </row>
@@ -9123,13 +9120,13 @@
         <f t="shared" si="3"/>
         <v>Nick Jimenez</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B212" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="6" t="s">
         <v>589</v>
       </c>
     </row>
@@ -9138,13 +9135,13 @@
         <f t="shared" si="3"/>
         <v>Anson Jiang</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9153,13 +9150,13 @@
         <f t="shared" si="3"/>
         <v>Claudia Jian</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="6" t="s">
         <v>807</v>
       </c>
     </row>
@@ -9168,13 +9165,13 @@
         <f t="shared" si="3"/>
         <v>Justice Jackson</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="6" t="s">
         <v>654</v>
       </c>
     </row>
@@ -9183,13 +9180,13 @@
         <f t="shared" si="3"/>
         <v>Simon Iliralium</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="6" t="s">
         <v>775</v>
       </c>
     </row>
@@ -9198,13 +9195,13 @@
         <f t="shared" si="3"/>
         <v>Jackie Ibarra</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="6" t="s">
         <v>570</v>
       </c>
     </row>
@@ -9213,13 +9210,13 @@
         <f t="shared" si="3"/>
         <v>Jaime Hurt</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="6" t="s">
         <v>582</v>
       </c>
     </row>
@@ -9228,13 +9225,13 @@
         <f t="shared" si="3"/>
         <v>Joshua Hurley</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="6" t="s">
         <v>733</v>
       </c>
     </row>
@@ -9243,13 +9240,13 @@
         <f t="shared" si="3"/>
         <v>Adrian Hunter</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="6" t="s">
         <v>650</v>
       </c>
     </row>
@@ -9258,13 +9255,13 @@
         <f t="shared" si="3"/>
         <v>Deon Hunt</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="6" t="s">
         <v>686</v>
       </c>
     </row>
@@ -9273,13 +9270,13 @@
         <f t="shared" si="3"/>
         <v>Ayanna Hubahib</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="6" t="s">
         <v>728</v>
       </c>
     </row>
@@ -9288,13 +9285,13 @@
         <f t="shared" si="3"/>
         <v>Gabriel Huang</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="6" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9303,13 +9300,13 @@
         <f t="shared" si="3"/>
         <v>Hector Hu</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9318,13 +9315,13 @@
         <f t="shared" si="3"/>
         <v>Victor Hsu</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="6" t="s">
         <v>610</v>
       </c>
     </row>
@@ -9333,13 +9330,13 @@
         <f t="shared" si="3"/>
         <v>Opal Hilario</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="6" t="s">
         <v>591</v>
       </c>
     </row>
@@ -9348,13 +9345,13 @@
         <f t="shared" si="3"/>
         <v>Erika Herrera-Ross</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="6" t="s">
         <v>719</v>
       </c>
     </row>
@@ -9363,13 +9360,13 @@
         <f t="shared" si="3"/>
         <v>Johnny Hernandez</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9378,13 +9375,13 @@
         <f t="shared" si="3"/>
         <v>Abby Hernandez</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9393,13 +9390,13 @@
         <f t="shared" si="3"/>
         <v>Thomas Hernandez</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -9408,13 +9405,13 @@
         <f t="shared" si="3"/>
         <v>Anna Henthorn-Iwane</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="6" t="s">
         <v>738</v>
       </c>
     </row>
@@ -9423,13 +9420,13 @@
         <f t="shared" si="3"/>
         <v>Billy Henderson</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B232" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="6" t="s">
         <v>702</v>
       </c>
     </row>
@@ -9438,13 +9435,13 @@
         <f t="shared" si="3"/>
         <v>Nicholas Heard</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="6" t="s">
         <v>652</v>
       </c>
     </row>
@@ -9453,13 +9450,13 @@
         <f t="shared" si="3"/>
         <v>Andy (Jian Ting) He</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9468,13 +9465,13 @@
         <f t="shared" si="3"/>
         <v>Justin He</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9483,13 +9480,13 @@
         <f t="shared" si="3"/>
         <v>Irina Haruyama</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B236" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="D236" s="6" t="s">
         <v>748</v>
       </c>
     </row>
@@ -9498,13 +9495,13 @@
         <f t="shared" si="3"/>
         <v>Madelynn Harper</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D237" s="6" t="s">
         <v>797</v>
       </c>
     </row>
@@ -9513,13 +9510,13 @@
         <f t="shared" si="3"/>
         <v>Cheryll Guitvan</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B238" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="6" t="s">
         <v>758</v>
       </c>
     </row>
@@ -9528,13 +9525,13 @@
         <f t="shared" si="3"/>
         <v>Oscar Gonzalez-Perez</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B239" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="6" t="s">
         <v>572</v>
       </c>
     </row>
@@ -9543,13 +9540,13 @@
         <f t="shared" si="3"/>
         <v>Angelina Gonzalez</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="6" t="s">
         <v>646</v>
       </c>
     </row>
@@ -9558,13 +9555,13 @@
         <f t="shared" si="3"/>
         <v>Mohammad Gonzalez</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="6" t="s">
         <v>646</v>
       </c>
     </row>
@@ -9573,13 +9570,13 @@
         <f t="shared" si="3"/>
         <v>Alexander Gomez</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B242" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="6" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9588,13 +9585,13 @@
         <f t="shared" si="3"/>
         <v>Jeremy Gomez</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D243" s="6" t="s">
         <v>587</v>
       </c>
     </row>
@@ -9603,13 +9600,13 @@
         <f t="shared" si="3"/>
         <v>Seif Goess</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D244" s="6" t="s">
         <v>777</v>
       </c>
     </row>
@@ -9618,13 +9615,13 @@
         <f t="shared" si="3"/>
         <v>Giovanni Ghiglieri</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B245" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="6" t="s">
         <v>729</v>
       </c>
     </row>
@@ -9633,13 +9630,13 @@
         <f t="shared" si="3"/>
         <v>Enzo Gellman</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D246" s="6" t="s">
         <v>727</v>
       </c>
     </row>
@@ -9648,13 +9645,13 @@
         <f t="shared" si="3"/>
         <v>Jason Gardner</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D247" s="7" t="s">
+      <c r="D247" s="6" t="s">
         <v>732</v>
       </c>
     </row>
@@ -9663,13 +9660,13 @@
         <f t="shared" si="3"/>
         <v>Jorge Galeana</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B248" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="D248" s="6" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9678,13 +9675,13 @@
         <f t="shared" si="3"/>
         <v>Griffin Gaim</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B249" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D249" s="6" t="s">
         <v>699</v>
       </c>
     </row>
@@ -9693,13 +9690,13 @@
         <f t="shared" si="3"/>
         <v>Carter Fong</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D250" s="7" t="s">
+      <c r="D250" s="6" t="s">
         <v>772</v>
       </c>
     </row>
@@ -9708,13 +9705,13 @@
         <f t="shared" si="3"/>
         <v>Simon Finkelstein</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B251" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D251" s="7" t="s">
+      <c r="D251" s="6" t="s">
         <v>791</v>
       </c>
     </row>
@@ -9723,13 +9720,13 @@
         <f t="shared" si="3"/>
         <v>James Filoteo</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="6" t="s">
         <v>790</v>
       </c>
     </row>
@@ -9738,13 +9735,13 @@
         <f t="shared" si="3"/>
         <v>Antonio Fernandez</v>
       </c>
-      <c r="B253" s="7" t="s">
+      <c r="B253" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="6" t="s">
         <v>642</v>
       </c>
     </row>
@@ -9753,13 +9750,13 @@
         <f t="shared" si="3"/>
         <v>James Fernandez</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D254" s="7" t="s">
+      <c r="D254" s="6" t="s">
         <v>642</v>
       </c>
     </row>
@@ -9768,13 +9765,13 @@
         <f t="shared" si="3"/>
         <v>Jun Feng</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D255" s="6" t="s">
         <v>629</v>
       </c>
     </row>
@@ -9783,13 +9780,13 @@
         <f t="shared" si="3"/>
         <v>Boris Feinberg</v>
       </c>
-      <c r="B256" s="7" t="s">
+      <c r="B256" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D256" s="7" t="s">
+      <c r="D256" s="6" t="s">
         <v>750</v>
       </c>
     </row>
@@ -9798,13 +9795,13 @@
         <f t="shared" ref="A257:A315" si="4">CONCATENATE(C257," ",D257)</f>
         <v>Jose Fedorov</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B257" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D257" s="6" t="s">
         <v>747</v>
       </c>
     </row>
@@ -9813,13 +9810,13 @@
         <f t="shared" si="4"/>
         <v>Jesus Espinoza</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D258" s="7" t="s">
+      <c r="D258" s="6" t="s">
         <v>600</v>
       </c>
     </row>
@@ -9828,13 +9825,13 @@
         <f t="shared" si="4"/>
         <v>Wendy Espeleta</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D259" s="7" t="s">
+      <c r="D259" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -9843,13 +9840,13 @@
         <f t="shared" si="4"/>
         <v>Chenyi Escudero</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D260" s="7" t="s">
+      <c r="D260" s="6" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9858,13 +9855,13 @@
         <f t="shared" si="4"/>
         <v>Alysha Escobar</v>
       </c>
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D261" s="7" t="s">
+      <c r="D261" s="6" t="s">
         <v>647</v>
       </c>
     </row>
@@ -9873,13 +9870,13 @@
         <f t="shared" si="4"/>
         <v>Carter Erdickoff</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="D262" s="6" t="s">
         <v>741</v>
       </c>
     </row>
@@ -9888,13 +9885,13 @@
         <f t="shared" si="4"/>
         <v>Jarelly Embry Louden</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="D263" s="6" t="s">
         <v>800</v>
       </c>
     </row>
@@ -9903,13 +9900,13 @@
         <f t="shared" si="4"/>
         <v>Austin-Jilles Eguilos</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D264" s="6" t="s">
         <v>755</v>
       </c>
     </row>
@@ -9918,13 +9915,13 @@
         <f t="shared" si="4"/>
         <v>Corye Duman</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="6" t="s">
         <v>789</v>
       </c>
     </row>
@@ -9933,13 +9930,13 @@
         <f t="shared" si="4"/>
         <v>Michael Driscoll</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D266" s="6" t="s">
         <v>773</v>
       </c>
     </row>
@@ -9948,13 +9945,13 @@
         <f t="shared" si="4"/>
         <v>James Drayton-Yee</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="6" t="s">
         <v>683</v>
       </c>
     </row>
@@ -9963,13 +9960,13 @@
         <f t="shared" si="4"/>
         <v>Tenzin Dong</v>
       </c>
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="6" t="s">
         <v>640</v>
       </c>
     </row>
@@ -9978,13 +9975,13 @@
         <f t="shared" si="4"/>
         <v>Christian Doi</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="6" t="s">
         <v>628</v>
       </c>
     </row>
@@ -9993,13 +9990,13 @@
         <f t="shared" si="4"/>
         <v>Alan Diaz</v>
       </c>
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D270" s="6" t="s">
         <v>707</v>
       </c>
     </row>
@@ -10008,13 +10005,13 @@
         <f t="shared" si="4"/>
         <v>Tenzin Del Toro</v>
       </c>
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" s="6" t="s">
         <v>784</v>
       </c>
     </row>
@@ -10023,13 +10020,13 @@
         <f t="shared" si="4"/>
         <v>Peter DaMoade</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D272" s="6" t="s">
         <v>627</v>
       </c>
     </row>
@@ -10038,13 +10035,13 @@
         <f t="shared" si="4"/>
         <v>Tazeen Cooper</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D273" s="7" t="s">
+      <c r="D273" s="6" t="s">
         <v>670</v>
       </c>
     </row>
@@ -10053,13 +10050,13 @@
         <f t="shared" si="4"/>
         <v>Allison Cooper</v>
       </c>
-      <c r="B274" s="7" t="s">
+      <c r="B274" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D274" s="7" t="s">
+      <c r="D274" s="6" t="s">
         <v>670</v>
       </c>
     </row>
@@ -10068,13 +10065,13 @@
         <f t="shared" si="4"/>
         <v>Juan Cook</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D275" s="7" t="s">
+      <c r="D275" s="6" t="s">
         <v>788</v>
       </c>
     </row>
@@ -10083,13 +10080,13 @@
         <f t="shared" si="4"/>
         <v>Sandra Contreras</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D276" s="7" t="s">
+      <c r="D276" s="6" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10098,13 +10095,13 @@
         <f t="shared" si="4"/>
         <v>Alejandro Condori</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="D277" s="6" t="s">
         <v>579</v>
       </c>
     </row>
@@ -10113,13 +10110,13 @@
         <f t="shared" si="4"/>
         <v>Ehab Cisek</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" s="6" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10128,13 +10125,13 @@
         <f t="shared" si="4"/>
         <v>Dimitri Chuck</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="6" t="s">
         <v>662</v>
       </c>
     </row>
@@ -10143,13 +10140,13 @@
         <f t="shared" si="4"/>
         <v>Tanesha Christman</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D280" s="7" t="s">
+      <c r="D280" s="6" t="s">
         <v>709</v>
       </c>
     </row>
@@ -10158,13 +10155,13 @@
         <f t="shared" si="4"/>
         <v>Branden Chow</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D281" s="7" t="s">
+      <c r="D281" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10173,13 +10170,13 @@
         <f t="shared" si="4"/>
         <v>Charlie Cherry</v>
       </c>
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D282" s="7" t="s">
+      <c r="D282" s="6" t="s">
         <v>701</v>
       </c>
     </row>
@@ -10188,13 +10185,13 @@
         <f t="shared" si="4"/>
         <v>Wilbur Cherg</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D283" s="7" t="s">
+      <c r="D283" s="6" t="s">
         <v>613</v>
       </c>
     </row>
@@ -10203,13 +10200,13 @@
         <f t="shared" si="4"/>
         <v>Peter Chen</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="D284" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10218,13 +10215,13 @@
         <f t="shared" si="4"/>
         <v>Scott Chen</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="D285" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10233,13 +10230,13 @@
         <f t="shared" si="4"/>
         <v>Ana Caton</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="C286" s="10" t="s">
+      <c r="C286" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="D286" s="6" t="s">
         <v>641</v>
       </c>
     </row>
@@ -10248,13 +10245,13 @@
         <f t="shared" si="4"/>
         <v>Emily Castellanos</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D287" s="7" t="s">
+      <c r="D287" s="6" t="s">
         <v>599</v>
       </c>
     </row>
@@ -10263,13 +10260,13 @@
         <f t="shared" si="4"/>
         <v>Joshu Carrillo</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D288" s="7" t="s">
+      <c r="D288" s="6" t="s">
         <v>614</v>
       </c>
     </row>
@@ -10278,13 +10275,13 @@
         <f t="shared" si="4"/>
         <v>Jasmine Calva</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D289" s="6" t="s">
         <v>569</v>
       </c>
     </row>
@@ -10293,13 +10290,13 @@
         <f t="shared" si="4"/>
         <v>Allen Cacho</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D290" s="6" t="s">
         <v>664</v>
       </c>
     </row>
@@ -10308,13 +10305,13 @@
         <f t="shared" si="4"/>
         <v>Taylor Burns</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D291" s="7" t="s">
+      <c r="D291" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -10323,13 +10320,13 @@
         <f t="shared" si="4"/>
         <v>Pedro Budker</v>
       </c>
-      <c r="B292" s="7" t="s">
+      <c r="B292" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D292" s="7" t="s">
+      <c r="D292" s="6" t="s">
         <v>787</v>
       </c>
     </row>
@@ -10338,13 +10335,13 @@
         <f t="shared" si="4"/>
         <v>James Bruce</v>
       </c>
-      <c r="B293" s="7" t="s">
+      <c r="B293" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D293" s="6" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10353,13 +10350,13 @@
         <f t="shared" si="4"/>
         <v>Bryce Brown</v>
       </c>
-      <c r="B294" s="7" t="s">
+      <c r="B294" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D294" s="7" t="s">
+      <c r="D294" s="6" t="s">
         <v>684</v>
       </c>
     </row>
@@ -10368,13 +10365,13 @@
         <f t="shared" si="4"/>
         <v>Jennifer Bonilla</v>
       </c>
-      <c r="B295" s="7" t="s">
+      <c r="B295" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D295" s="7" t="s">
+      <c r="D295" s="6" t="s">
         <v>574</v>
       </c>
     </row>
@@ -10383,13 +10380,13 @@
         <f t="shared" si="4"/>
         <v>Kobe Bolanos</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D296" s="7" t="s">
+      <c r="D296" s="6" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10398,13 +10395,13 @@
         <f t="shared" si="4"/>
         <v>Chris Blendstrup</v>
       </c>
-      <c r="B297" s="7" t="s">
+      <c r="B297" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D297" s="6" t="s">
         <v>736</v>
       </c>
     </row>
@@ -10413,13 +10410,13 @@
         <f t="shared" si="4"/>
         <v>Karina Bishop</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D298" s="7" t="s">
+      <c r="D298" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10428,13 +10425,13 @@
         <f t="shared" si="4"/>
         <v>Reejan Beverly</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D299" s="7" t="s">
+      <c r="D299" s="6" t="s">
         <v>592</v>
       </c>
     </row>
@@ -10443,13 +10440,13 @@
         <f t="shared" si="4"/>
         <v>Alan Becerra</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D300" s="7" t="s">
+      <c r="D300" s="6" t="s">
         <v>783</v>
       </c>
     </row>
@@ -10458,13 +10455,13 @@
         <f t="shared" si="4"/>
         <v>Huiyun Battas</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D301" s="7" t="s">
+      <c r="D301" s="6" t="s">
         <v>752</v>
       </c>
     </row>
@@ -10473,13 +10470,13 @@
         <f t="shared" si="4"/>
         <v>Noah Bassak</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D302" s="7" t="s">
+      <c r="D302" s="6" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10488,13 +10485,13 @@
         <f t="shared" si="4"/>
         <v>Ian Bartlett</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D303" s="6" t="s">
         <v>743</v>
       </c>
     </row>
@@ -10503,13 +10500,13 @@
         <f t="shared" si="4"/>
         <v>Jocelyn Bao</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D304" s="6" t="s">
         <v>801</v>
       </c>
     </row>
@@ -10518,13 +10515,13 @@
         <f t="shared" si="4"/>
         <v>Hannalei Banevicius</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="6" t="s">
         <v>774</v>
       </c>
     </row>
@@ -10533,13 +10530,13 @@
         <f t="shared" si="4"/>
         <v>Eduardo Balonos</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="D306" s="6" t="s">
         <v>608</v>
       </c>
     </row>
@@ -10548,13 +10545,13 @@
         <f t="shared" si="4"/>
         <v>Hank Badalyan</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="D307" s="6" t="s">
         <v>715</v>
       </c>
     </row>
@@ -10563,13 +10560,13 @@
         <f t="shared" si="4"/>
         <v>Weicheng Baba</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="D308" s="6" t="s">
         <v>630</v>
       </c>
     </row>
@@ -10578,13 +10575,13 @@
         <f t="shared" si="4"/>
         <v>Thomas Avelar-Lopez</v>
       </c>
-      <c r="B309" s="7" t="s">
+      <c r="B309" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D309" s="6" t="s">
         <v>597</v>
       </c>
     </row>
@@ -10593,13 +10590,13 @@
         <f t="shared" si="4"/>
         <v>Jonathan Ashraf</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D310" s="6" t="s">
         <v>666</v>
       </c>
     </row>
@@ -10608,13 +10605,13 @@
         <f t="shared" si="4"/>
         <v>Jessica Arciga</v>
       </c>
-      <c r="B311" s="7" t="s">
+      <c r="B311" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="D311" s="6" t="s">
         <v>575</v>
       </c>
     </row>
@@ -10623,13 +10620,13 @@
         <f t="shared" si="4"/>
         <v>Deliliah Alonso</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D312" s="7" t="s">
+      <c r="D312" s="6" t="s">
         <v>596</v>
       </c>
     </row>
@@ -10638,13 +10635,13 @@
         <f t="shared" si="4"/>
         <v>Cesar Alcala</v>
       </c>
-      <c r="B313" s="7" t="s">
+      <c r="B313" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D313" s="7" t="s">
+      <c r="D313" s="6" t="s">
         <v>609</v>
       </c>
     </row>
@@ -10653,13 +10650,13 @@
         <f t="shared" si="4"/>
         <v>Vera Aguilar</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D314" s="7" t="s">
+      <c r="D314" s="6" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10668,34 +10665,34 @@
         <f t="shared" si="4"/>
         <v>Carlos Aguayo</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D315" s="7" t="s">
+      <c r="D315" s="6" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B316" s="7"/>
-      <c r="C316" s="7"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B317" s="7"/>
-      <c r="C317" s="7"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B318" s="7"/>
-      <c r="C318" s="7"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B319" s="7"/>
-      <c r="C319" s="7"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C321" s="2"/>
+      <c r="C321" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B1:D320">
@@ -10715,7 +10712,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10725,7 +10722,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>819</v>
       </c>
       <c r="B1">
@@ -10733,7 +10730,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>820</v>
       </c>
       <c r="B2">
@@ -10741,7 +10738,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>340</v>
       </c>
       <c r="B3">
@@ -10749,7 +10746,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>814</v>
       </c>
       <c r="B4">
@@ -10757,7 +10754,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>353</v>
       </c>
       <c r="B5">
@@ -10765,7 +10762,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6">
@@ -10773,7 +10770,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>343</v>
       </c>
       <c r="B7">
@@ -10781,7 +10778,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>821</v>
       </c>
       <c r="B8">
@@ -10789,7 +10786,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>342</v>
       </c>
       <c r="B9">
@@ -10797,7 +10794,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>811</v>
       </c>
       <c r="B10">
@@ -10805,7 +10802,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>824</v>
       </c>
       <c r="B11">
@@ -10813,7 +10810,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>822</v>
       </c>
       <c r="B12">
@@ -10821,7 +10818,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>823</v>
       </c>
       <c r="B13">
@@ -10829,15 +10826,15 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>359</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>361</v>
       </c>
       <c r="B15">
@@ -10845,7 +10842,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>360</v>
       </c>
       <c r="B16">
@@ -10853,7 +10850,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>817</v>
       </c>
       <c r="B17">
@@ -10861,7 +10858,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>815</v>
       </c>
       <c r="B18">
@@ -10869,7 +10866,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>816</v>
       </c>
       <c r="B19">
@@ -10877,7 +10874,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>810</v>
       </c>
       <c r="B20">
@@ -10885,7 +10882,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>825</v>
       </c>
       <c r="B21">
@@ -10893,7 +10890,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>813</v>
       </c>
       <c r="B22">
@@ -10901,7 +10898,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>818</v>
       </c>
       <c r="B23">
@@ -10909,7 +10906,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>812</v>
       </c>
       <c r="B24">
@@ -10933,8 +10930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10949,6 +10946,10 @@
       <c r="B1">
         <v>0.1</v>
       </c>
+      <c r="C1">
+        <f t="shared" ref="C1:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>84</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
@@ -10957,6 +10958,10 @@
       <c r="B2">
         <v>0.2</v>
       </c>
+      <c r="C2">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -10965,6 +10970,10 @@
       <c r="B3">
         <v>0.05</v>
       </c>
+      <c r="C3">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -10973,6 +10982,10 @@
       <c r="B4">
         <v>0.05</v>
       </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -10981,7 +10994,10 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -10990,6 +11006,10 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -10998,6 +11018,10 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -11006,6 +11030,10 @@
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -11014,6 +11042,10 @@
       <c r="B9">
         <v>4</v>
       </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -11022,6 +11054,10 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -11030,6 +11066,10 @@
       <c r="B11">
         <v>4</v>
       </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -11038,6 +11078,10 @@
       <c r="B12">
         <v>4</v>
       </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -11046,6 +11090,10 @@
       <c r="B13">
         <v>4</v>
       </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -11054,6 +11102,9 @@
       <c r="B14">
         <v>2</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -11062,6 +11113,10 @@
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -11070,325 +11125,487 @@
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>876</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>877</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>878</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>879</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>880</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>882</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>881</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>883</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>884</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>885</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>886</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>887</v>
       </c>
       <c r="B28">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>888</v>
       </c>
       <c r="B29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>889</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>890</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>891</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>892</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>893</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>894</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>895</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>896</v>
       </c>
       <c r="B37">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>897</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38">
+        <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>898</v>
       </c>
       <c r="B39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>899</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>900</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>901</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>902</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>903</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>904</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>905</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>906</v>
       </c>
       <c r="B47">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>907</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>908</v>
       </c>
       <c r="B49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>909</v>
       </c>
       <c r="B50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>910</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>911</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>912</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>913</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>914</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>915</v>
       </c>
       <c r="B56">
         <v>4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -11400,7 +11617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2838" yWindow="222" windowWidth="23778" windowHeight="11082" activeTab="4"/>
+    <workbookView minimized="1" xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -3158,15 +3158,15 @@
       <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.15625" customWidth="1"/>
-    <col min="2" max="2" width="20.47265625" customWidth="1"/>
-    <col min="3" max="3" width="16.62890625" customWidth="1"/>
-    <col min="4" max="4" width="21.15625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>CONCATENATE(B1," ",C1)</f>
         <v>Aditya Chopra</v>
@@ -3178,7 +3178,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2," ",C2)</f>
         <v>Albert Chandra</v>
@@ -3190,7 +3190,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Osborne</v>
@@ -3202,7 +3202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Zhang</v>
@@ -3214,7 +3214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Alice Chow</v>
@@ -3226,7 +3226,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Allan Zhou</v>
@@ -3238,7 +3238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Allen Li</v>
@@ -3250,7 +3250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Allen Wang</v>
@@ -3262,7 +3262,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Chen</v>
@@ -3274,7 +3274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Wang</v>
@@ -3286,7 +3286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Andy Wong</v>
@@ -3298,7 +3298,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Anisha Kumar</v>
@@ -3310,7 +3310,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
@@ -3322,7 +3322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Joseph Sy Tan</v>
@@ -3334,7 +3334,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Tan</v>
@@ -3346,7 +3346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Anuj Gandhi</v>
@@ -3358,7 +3358,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Aravind Kumaraguru</v>
@@ -3370,7 +3370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Arnab Mukherji</v>
@@ -3382,7 +3382,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Arnav Gautam</v>
@@ -3394,7 +3394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
@@ -3406,7 +3406,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Ashley Chen</v>
@@ -3418,7 +3418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
@@ -3430,7 +3430,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Cortright</v>
@@ -3442,7 +3442,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Briana Niu</v>
@@ -3454,7 +3454,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Candy Chang</v>
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Casey Duckering</v>
@@ -3478,7 +3478,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Charles Friesen</v>
@@ -3490,7 +3490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Christie Wong</v>
@@ -3502,7 +3502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Christine Wang</v>
@@ -3514,7 +3514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Dinh</v>
@@ -3526,7 +3526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Sumnicht</v>
@@ -3538,7 +3538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Connie Yu</v>
@@ -3550,7 +3550,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Lee</v>
@@ -3562,7 +3562,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Xu</v>
@@ -3574,7 +3574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>David Hua</v>
@@ -3586,7 +3586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Dennis Wai</v>
@@ -3598,7 +3598,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Devin He</v>
@@ -3610,7 +3610,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Doowon Yang</v>
@@ -3622,7 +3622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Douglas Hutchings</v>
@@ -3634,7 +3634,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Elizaveta Tremsina</v>
@@ -3646,7 +3646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Emily Stednitz</v>
@@ -3658,7 +3658,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Eric Hui</v>
@@ -3670,7 +3670,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Eric Nguyen</v>
@@ -3682,7 +3682,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Erin Hancock</v>
@@ -3694,7 +3694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Felix Li</v>
@@ -3706,7 +3706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Felix Yoon</v>
@@ -3718,7 +3718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Grant Emmendorfer</v>
@@ -3730,7 +3730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Griffin Potrock</v>
@@ -3742,7 +3742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Guangru He</v>
@@ -3754,7 +3754,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
@@ -3766,7 +3766,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Hammad Bashir</v>
@@ -3778,7 +3778,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Hannah Ling</v>
@@ -3790,7 +3790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
@@ -3802,7 +3802,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Hoi Leung</v>
@@ -3814,7 +3814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Huda Khayrallah</v>
@@ -3826,7 +3826,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Humphrey Hu</v>
@@ -3838,7 +3838,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Ian Krase</v>
@@ -3850,7 +3850,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Jackie Ko</v>
@@ -3862,7 +3862,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Jared Porter</v>
@@ -3874,7 +3874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Jayss Marshall</v>
@@ -3886,7 +3886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Jeffrey Jacinto</v>
@@ -3898,7 +3898,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Jerry Chen</v>
@@ -3910,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Jerry Cheng</v>
@@ -3922,7 +3922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Jessica Nunez</v>
@@ -3934,7 +3934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Jessica Wong</v>
@@ -3946,7 +3946,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(B66," ",C66)</f>
         <v>John Wang</v>
@@ -3958,7 +3958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Jonathan Tu</v>
@@ -3970,7 +3970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Jordan Covert</v>
@@ -3982,7 +3982,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Jose Santos</v>
@@ -3994,7 +3994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Price</v>
@@ -4006,7 +4006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Justin Jorge</v>
@@ -4018,7 +4018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Karthik Shanmugam</v>
@@ -4030,7 +4030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Katrina Jiang</v>
@@ -4042,7 +4042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Krystyn Neisess</v>
@@ -4054,7 +4054,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Zentner</v>
@@ -4066,7 +4066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Laura Taylor</v>
@@ -4078,7 +4078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Lucine Oganesian</v>
@@ -4090,7 +4090,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Manda Au</v>
@@ -4102,7 +4102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Mandy Chen</v>
@@ -4114,7 +4114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Mandy Li</v>
@@ -4126,7 +4126,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Mathew Pang</v>
@@ -4138,7 +4138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Mats Dreyer</v>
@@ -4150,7 +4150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Matthew Chang</v>
@@ -4162,7 +4162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Matthew Zhao</v>
@@ -4174,7 +4174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Max Barreto</v>
@@ -4186,7 +4186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Maxwell Nuyens</v>
@@ -4198,7 +4198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Michael Chuang</v>
@@ -4210,7 +4210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Mitch Thompson</v>
@@ -4222,7 +4222,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Nathaniel Aceron</v>
@@ -4234,7 +4234,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Natsumi Otaguro</v>
@@ -4246,7 +4246,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Nikhil Mishra</v>
@@ -4258,7 +4258,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Nikita Kitaev</v>
@@ -4270,7 +4270,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Nona Penner</v>
@@ -4282,7 +4282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Paola Didone</v>
@@ -4294,7 +4294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Paul Moulton</v>
@@ -4306,7 +4306,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Pengcheng Liu</v>
@@ -4318,7 +4318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Phoebe Lin</v>
@@ -4330,7 +4330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Qian Mu</v>
@@ -4342,7 +4342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Ray Pang</v>
@@ -4354,7 +4354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Rei Rachel Ieda</v>
@@ -4366,7 +4366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Rhett Gentile</v>
@@ -4378,7 +4378,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Robert Luan</v>
@@ -4390,7 +4390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Robert Ou</v>
@@ -4402,7 +4402,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Ryan Julian</v>
@@ -4414,7 +4414,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Sagar Patel</v>
@@ -4426,7 +4426,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Saloni Shah</v>
@@ -4438,7 +4438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Fung</v>
@@ -4450,7 +4450,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Harris</v>
@@ -4462,7 +4462,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Sarina Chen</v>
@@ -4474,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Scout Heid</v>
@@ -4486,7 +4486,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Sherdil Niyaz</v>
@@ -4498,7 +4498,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Shivani Sharma</v>
@@ -4510,7 +4510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Stanley Kwong</v>
@@ -4522,7 +4522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Steven Chen</v>
@@ -4534,7 +4534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Sudip Guha</v>
@@ -4546,7 +4546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Sumita Ghosh</v>
@@ -4558,7 +4558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Tanya Krishnakumar</v>
@@ -4570,7 +4570,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
@@ -4582,7 +4582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Tobin Holcomb</v>
@@ -4594,7 +4594,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Tomoya Ogura</v>
@@ -4606,7 +4606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Tony Abdo</v>
@@ -4618,7 +4618,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Tony Dear</v>
@@ -4630,7 +4630,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Utkarsh Singhal</v>
@@ -4642,7 +4642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>Vanathi Ganesh</v>
@@ -4654,7 +4654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>Vincent Donato</v>
@@ -4666,7 +4666,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Wendy Liu</v>
@@ -4678,7 +4678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>William Li</v>
@@ -4690,7 +4690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>William Wheeler</v>
@@ -4702,7 +4702,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
@@ -4714,7 +4714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A133" si="2">CONCATENATE(B130," ",C130)</f>
         <v>Winston Long</v>
@@ -4726,7 +4726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>Xiao-Yu Fu</v>
@@ -4738,7 +4738,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>YiDing Jiang</v>
@@ -4750,7 +4750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Yizhe Liu</v>
@@ -4762,7 +4762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f>CONCATENATE(B134," ",C134)</f>
         <v>Zhiliang He</v>
@@ -4791,15 +4791,15 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" customWidth="1"/>
-    <col min="2" max="2" width="20.83984375" customWidth="1"/>
-    <col min="3" max="3" width="11.41796875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Akira Bai</v>
@@ -4814,7 +4814,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Alejandro Zuniga</v>
@@ -4829,7 +4829,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Alex Liu</v>
@@ -4844,7 +4844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Yu</v>
@@ -4859,7 +4859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Andy Chu</v>
@@ -4874,7 +4874,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
@@ -4889,7 +4889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Arismel Tena</v>
@@ -4904,7 +4904,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
@@ -4919,7 +4919,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Aurelia Guy</v>
@@ -4934,7 +4934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Baladitya Yellapragada</v>
@@ -4949,7 +4949,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
@@ -4964,7 +4964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Brian Cheng</v>
@@ -4979,7 +4979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Brian Kim</v>
@@ -4994,7 +4994,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Carlos Sanchez</v>
@@ -5009,7 +5009,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Charelston Chua</v>
@@ -5024,7 +5024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Chase Giannini</v>
@@ -5039,7 +5039,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Wong</v>
@@ -5054,7 +5054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Clancy Lee</v>
@@ -5069,7 +5069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Cristian Rodriguez</v>
@@ -5084,7 +5084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Crystal Rubalcava</v>
@@ -5099,7 +5099,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Debleena Sengupta</v>
@@ -5114,7 +5114,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Dylan Dove</v>
@@ -5129,7 +5129,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Eduardo Garibay</v>
@@ -5144,7 +5144,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Emily Jensen</v>
@@ -5159,7 +5159,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Greta` Huang</v>
@@ -5174,7 +5174,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Guangzhao (Philip) Yang</v>
@@ -5189,7 +5189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
@@ -5204,7 +5204,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Harshali Wadge</v>
@@ -5219,7 +5219,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Hermilo Ibarra-Andrade</v>
@@ -5234,7 +5234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
@@ -5249,7 +5249,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Hurui Kifle</v>
@@ -5264,7 +5264,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Huu Pham</v>
@@ -5279,7 +5279,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Ian McLaughlin</v>
@@ -5294,7 +5294,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Ian Eigl</v>
@@ -5309,7 +5309,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Jaime Pimentel</v>
@@ -5324,7 +5324,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>James Freret</v>
@@ -5339,7 +5339,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Jennifer Garcia</v>
@@ -5354,7 +5354,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Jesse Paterson</v>
@@ -5369,7 +5369,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>John Brkich</v>
@@ -5384,7 +5384,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Juan Castillo</v>
@@ -5399,7 +5399,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Kavya Madhavan</v>
@@ -5414,7 +5414,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Kenny Zhen</v>
@@ -5429,7 +5429,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Kevin Durand</v>
@@ -5444,7 +5444,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Kevin Lee</v>
@@ -5459,7 +5459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Kyle Archer</v>
@@ -5474,7 +5474,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Kyungna Kim</v>
@@ -5489,7 +5489,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Lindsey Hernandez</v>
@@ -5504,7 +5504,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Lucas Medino</v>
@@ -5519,7 +5519,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Maliena Guy</v>
@@ -5534,7 +5534,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Mandy Li</v>
@@ -5549,7 +5549,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Mark Tegio</v>
@@ -5564,7 +5564,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Naranjo</v>
@@ -5579,7 +5579,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Cline</v>
@@ -5594,7 +5594,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Micah Lyle</v>
@@ -5609,7 +5609,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Mimi Parker</v>
@@ -5624,7 +5624,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Nicholas Entress</v>
@@ -5639,7 +5639,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Peter Nguyen</v>
@@ -5654,7 +5654,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Phillip Downey</v>
@@ -5669,7 +5669,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Pinxiu Gong</v>
@@ -5684,7 +5684,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Rachel Ieda</v>
@@ -5699,7 +5699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Rafayel Mkrtchyan</v>
@@ -5714,7 +5714,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Ravneet Madaan</v>
@@ -5729,7 +5729,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Rosalba Rodriguez</v>
@@ -5744,7 +5744,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Sam Harris</v>
@@ -5759,7 +5759,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Sam Patrick</v>
@@ -5774,7 +5774,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A75" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Saman Sabeti</v>
@@ -5789,7 +5789,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Heinz</v>
@@ -5804,7 +5804,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Stephen Pereira-Schork</v>
@@ -5819,7 +5819,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Sydney McMuldroch</v>
@@ -5834,7 +5834,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Tatevik Stepanyan</v>
@@ -5849,7 +5849,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
@@ -5864,7 +5864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Urvashi Betarbet</v>
@@ -5879,7 +5879,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Vineet Jagadeesan Nair</v>
@@ -5894,7 +5894,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>William Luong</v>
@@ -5909,7 +5909,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
@@ -5938,19 +5938,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B319" sqref="B319"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3671875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="28" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5234375" customWidth="1"/>
-    <col min="4" max="4" width="14.578125" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Gene Zlatev</v>
@@ -5965,7 +5964,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Bobbi Zinoman</v>
@@ -5980,7 +5979,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Griffen Zhu</v>
@@ -5995,7 +5994,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Connie Zhou</v>
@@ -6010,7 +6009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Joshua Zhou</v>
@@ -6025,7 +6024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Carissa Zhou</v>
@@ -6040,7 +6039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Cieara Zhou</v>
@@ -6055,7 +6054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Aron Zhang</v>
@@ -6070,7 +6069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lennox Zhang</v>
@@ -6085,7 +6084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>William Zhang</v>
@@ -6100,7 +6099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Frank Zhang</v>
@@ -6115,7 +6114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Robert Zevallos</v>
@@ -6130,7 +6129,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Fritzgerald Zenner</v>
@@ -6145,7 +6144,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Nate Zeng</v>
@@ -6160,7 +6159,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Abel Zarza</v>
@@ -6175,7 +6174,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Juan Yu</v>
@@ -6190,7 +6189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Emily Yu</v>
@@ -6205,7 +6204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Kenny Yu</v>
@@ -6220,7 +6219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Mimi Yip</v>
@@ -6235,7 +6234,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Emanuel Yi</v>
@@ -6250,7 +6249,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>John Carlos Yang</v>
@@ -6265,7 +6264,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Bryan Yang</v>
@@ -6280,7 +6279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Vytautas Xu</v>
@@ -6295,7 +6294,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Luka Xie</v>
@@ -6310,7 +6309,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Maite Wu</v>
@@ -6325,7 +6324,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Lena Wu</v>
@@ -6340,7 +6339,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Henry Wu</v>
@@ -6355,7 +6354,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Sara Woods</v>
@@ -6370,7 +6369,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Michaelangelo Wood</v>
@@ -6385,7 +6384,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Andrea Wong</v>
@@ -6400,7 +6399,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Elias Wong</v>
@@ -6415,7 +6414,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Michael Wong</v>
@@ -6430,7 +6429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Elson Wong</v>
@@ -6445,7 +6444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Jake Wisherop</v>
@@ -6460,7 +6459,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Michaelangelo Wilson</v>
@@ -6475,7 +6474,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Camilia Williams</v>
@@ -6490,7 +6489,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Philip White</v>
@@ -6505,7 +6504,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Wenzler</v>
@@ -6520,7 +6519,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Conor Wang</v>
@@ -6535,7 +6534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Jesse Wang</v>
@@ -6550,7 +6549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Maggie Wan</v>
@@ -6565,7 +6564,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Charles Walston</v>
@@ -6580,7 +6579,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Roisin Wai</v>
@@ -6595,7 +6594,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Marisa Vojvoda</v>
@@ -6610,7 +6609,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Nicholas VanHeuit</v>
@@ -6625,7 +6624,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Aubrey-rose Valva</v>
@@ -6640,7 +6639,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>William Valdivia</v>
@@ -6655,7 +6654,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Ethan Unurbaatar</v>
@@ -6670,7 +6669,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Jenny Tse</v>
@@ -6685,7 +6684,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Elana Truong</v>
@@ -6700,7 +6699,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Jeff Triadi</v>
@@ -6715,7 +6714,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Shuxin Tran</v>
@@ -6730,7 +6729,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Tony Tran</v>
@@ -6745,7 +6744,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Angelina Tostenson</v>
@@ -6760,7 +6759,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Osualdo Tom</v>
@@ -6775,7 +6774,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Alycia Teuscher</v>
@@ -6790,7 +6789,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Ricardo Tang</v>
@@ -6805,7 +6804,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Harrison Tan</v>
@@ -6820,7 +6819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Gabrielle Tan</v>
@@ -6835,7 +6834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Tiffany Tan</v>
@@ -6850,7 +6849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Georgina Tan</v>
@@ -6865,7 +6864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Jesus Tamayo</v>
@@ -6880,7 +6879,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>William Sun</v>
@@ -6895,7 +6894,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Spencer Subrayan</v>
@@ -6910,7 +6909,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Ash Storrs</v>
@@ -6925,7 +6924,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Amy Stanfield</v>
@@ -6940,7 +6939,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Rigoberto Stacy</v>
@@ -6955,7 +6954,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Soephan</v>
@@ -6970,7 +6969,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Tom Smith</v>
@@ -6985,7 +6984,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Jake Smith</v>
@@ -7000,7 +6999,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Situ</v>
@@ -7015,7 +7014,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Jayshaun Singleton</v>
@@ -7030,7 +7029,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Branden Singh</v>
@@ -7045,7 +7044,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Elizabeth Singh</v>
@@ -7060,7 +7059,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Lamont Simmons</v>
@@ -7075,7 +7074,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Irvin Silverman</v>
@@ -7090,7 +7089,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Billy Shutt</v>
@@ -7105,7 +7104,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Lewis Shirozi</v>
@@ -7120,7 +7119,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Gilberto Shi</v>
@@ -7135,7 +7134,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Leila Shalf</v>
@@ -7150,7 +7149,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Andrea Servin</v>
@@ -7165,7 +7164,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Raymond Schooling</v>
@@ -7180,7 +7179,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Tony Schniedergers</v>
@@ -7195,7 +7194,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Macie Schneidinger</v>
@@ -7210,7 +7209,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Jair Saucedo</v>
@@ -7225,7 +7224,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Tristan Santana</v>
@@ -7240,7 +7239,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Giovanni Sanchez</v>
@@ -7255,7 +7254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Adan Sanchez</v>
@@ -7270,7 +7269,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Brissa Ruiz</v>
@@ -7285,7 +7284,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Reginae Rue</v>
@@ -7300,7 +7299,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Rubi</v>
@@ -7315,7 +7314,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Stephanie Rose</v>
@@ -7330,7 +7329,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Robert Rosales</v>
@@ -7345,7 +7344,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Maria Rodriguez Silva</v>
@@ -7360,7 +7359,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Julia Robertson</v>
@@ -7375,7 +7374,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Paul Robbins</v>
@@ -7390,7 +7389,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Manuel Riley</v>
@@ -7405,7 +7404,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Austin Reed</v>
@@ -7420,7 +7419,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Reginald Ranman</v>
@@ -7435,7 +7434,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Jose Ramos</v>
@@ -7450,7 +7449,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Kai Quale</v>
@@ -7465,7 +7464,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Maya Qiu</v>
@@ -7480,7 +7479,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Alex Priesto</v>
@@ -7495,7 +7494,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Cole Prendergast</v>
@@ -7510,7 +7509,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Junior Pratt</v>
@@ -7525,7 +7524,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Simranjit Poveda</v>
@@ -7540,7 +7539,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Daniela Portillo</v>
@@ -7555,7 +7554,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Athorva Pietropooli</v>
@@ -7570,7 +7569,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Kelsey Pierce</v>
@@ -7585,7 +7584,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>William Piccillo</v>
@@ -7600,7 +7599,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Sara Phung</v>
@@ -7615,7 +7614,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Angelina Phoumivong</v>
@@ -7630,7 +7629,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Christian Pereda</v>
@@ -7645,7 +7644,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel Peng</v>
@@ -7660,7 +7659,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Sarbjot Pedersen</v>
@@ -7675,7 +7674,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Tiffany Pareja</v>
@@ -7690,7 +7689,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Gavin Orla-Bukowski</v>
@@ -7705,7 +7704,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Minnie Ong</v>
@@ -7720,7 +7719,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Andy Olson</v>
@@ -7735,7 +7734,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Quiante Olosiman</v>
@@ -7750,7 +7749,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Raymond Oddone</v>
@@ -7765,7 +7764,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Alex Norbu</v>
@@ -7780,7 +7779,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Carlos Nieves</v>
@@ -7795,7 +7794,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>David Nguyen</v>
@@ -7810,7 +7809,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>JingJun Nguyen</v>
@@ -7825,7 +7824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Nguyen</v>
@@ -7840,7 +7839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>Kai Nguyen</v>
@@ -7855,7 +7854,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Sydney Nguyen</v>
@@ -7870,7 +7869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Jasmine Nguyen</v>
@@ -7885,7 +7884,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A192" si="2">CONCATENATE(C130," ",D130)</f>
         <v>Jaylin Ngo</v>
@@ -7900,7 +7899,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>Fernando Ng</v>
@@ -7915,7 +7914,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Darwin Navarro</v>
@@ -7930,7 +7929,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Kyle Nations</v>
@@ -7945,7 +7944,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>Glen Thomas Nagdev</v>
@@ -7960,7 +7959,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>Oscar Munoz</v>
@@ -7975,7 +7974,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>Jennifer Mueller</v>
@@ -7990,7 +7989,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>Lauren Mubachir</v>
@@ -8005,7 +8004,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>Gustavo Moya</v>
@@ -8020,7 +8019,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>Henry Morton</v>
@@ -8035,7 +8034,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>Karoline Morgan</v>
@@ -8050,7 +8049,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>Ketzia Moreno</v>
@@ -8065,7 +8064,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Aelafe Moore</v>
@@ -8080,7 +8079,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Janet Montevirgin</v>
@@ -8095,7 +8094,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Kenyon Mogilewski</v>
@@ -8110,7 +8109,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Wangsen (Stanley) Mitchell</v>
@@ -8125,7 +8124,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Patrick Minsky</v>
@@ -8140,7 +8139,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Thane Mills</v>
@@ -8155,7 +8154,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Micael</v>
@@ -8170,7 +8169,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Ethan Merzenich</v>
@@ -8185,7 +8184,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Hana Merino</v>
@@ -8200,7 +8199,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>Michelle Mendes</v>
@@ -8215,7 +8214,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Christian Mejia</v>
@@ -8230,7 +8229,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Jonathan Mei</v>
@@ -8245,7 +8244,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Cristiana McNary</v>
@@ -8260,7 +8259,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Tammy McLoughlin</v>
@@ -8275,7 +8274,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Amit McDonald</v>
@@ -8290,7 +8289,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Kailash McCaulley</v>
@@ -8305,7 +8304,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Winnie Maxwell</v>
@@ -8320,7 +8319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Gaby Martinez</v>
@@ -8335,7 +8334,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Samuel Martinez</v>
@@ -8350,7 +8349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Jorge Martinez</v>
@@ -8365,7 +8364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Admiral Martinee</v>
@@ -8380,7 +8379,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Adam Martin</v>
@@ -8395,7 +8394,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Rilhiyah Mart</v>
@@ -8410,7 +8409,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Skylar Marrama</v>
@@ -8425,7 +8424,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Charlie Manalo</v>
@@ -8440,7 +8439,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Daniel Maddison</v>
@@ -8455,7 +8454,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Kayley Luu</v>
@@ -8470,7 +8469,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Laura Luna</v>
@@ -8485,7 +8484,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Kandace Lui</v>
@@ -8500,7 +8499,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Nuo Lou</v>
@@ -8515,7 +8514,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>Walter Lopez</v>
@@ -8530,7 +8529,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>Agustin Lopez</v>
@@ -8545,7 +8544,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>Luis Lopez</v>
@@ -8560,7 +8559,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>Huabin Lodoe</v>
@@ -8575,7 +8574,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Hien Liu</v>
@@ -8590,7 +8589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Donovan Lira</v>
@@ -8605,7 +8604,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Alex Lintao</v>
@@ -8620,7 +8619,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Jiani Ligutan</v>
@@ -8635,7 +8634,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Michael Liang</v>
@@ -8650,7 +8649,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>Jeanie Li</v>
@@ -8665,7 +8664,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>Carvell Levi</v>
@@ -8680,7 +8679,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Calvin Leung</v>
@@ -8695,7 +8694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
@@ -8710,7 +8709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Brian Lee</v>
@@ -8725,7 +8724,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
@@ -8740,7 +8739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Andrew Lee</v>
@@ -8755,7 +8754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>Benjamin Lee</v>
@@ -8770,7 +8769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Simon Lee</v>
@@ -8785,7 +8784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Adriana Lazano</v>
@@ -8800,7 +8799,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Law</v>
@@ -8815,7 +8814,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>Robert Lavryonova</v>
@@ -8830,7 +8829,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" ref="A193:A256" si="3">CONCATENATE(C193," ",D193)</f>
         <v>HaoYang Latt</v>
@@ -8845,7 +8844,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="3"/>
         <v>Levi Lara</v>
@@ -8860,7 +8859,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>Johnny Lander</v>
@@ -8875,7 +8874,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>Hae Landaverde</v>
@@ -8890,7 +8889,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>Dylan Lam</v>
@@ -8905,7 +8904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>Kai Lakireddy</v>
@@ -8920,7 +8919,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>Trayvonda Kwasriza</v>
@@ -8935,7 +8934,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>Griffin Kwan</v>
@@ -8950,7 +8949,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>James Kudsk</v>
@@ -8965,7 +8964,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>Zoe Kidder</v>
@@ -8980,7 +8979,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>Julian Khadka</v>
@@ -8995,7 +8994,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>Evan Keohan</v>
@@ -9010,7 +9009,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>Michelle Kelly</v>
@@ -9025,7 +9024,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>Jasper Kebade</v>
@@ -9040,7 +9039,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>Emilio Karnik</v>
@@ -9055,7 +9054,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>Cody Jue</v>
@@ -9070,7 +9069,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>Vivian Johnstone</v>
@@ -9085,7 +9084,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>Kevin Johnson</v>
@@ -9100,7 +9099,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>Galmandahk Jimenez</v>
@@ -9115,7 +9114,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>Nick Jimenez</v>
@@ -9130,7 +9129,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>Anson Jiang</v>
@@ -9145,7 +9144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>Claudia Jian</v>
@@ -9160,7 +9159,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>Justice Jackson</v>
@@ -9175,7 +9174,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>Simon Iliralium</v>
@@ -9190,7 +9189,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>Jackie Ibarra</v>
@@ -9205,7 +9204,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>Jaime Hurt</v>
@@ -9220,7 +9219,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>Joshua Hurley</v>
@@ -9235,7 +9234,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>Adrian Hunter</v>
@@ -9250,7 +9249,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>Deon Hunt</v>
@@ -9265,7 +9264,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>Ayanna Hubahib</v>
@@ -9280,7 +9279,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>Gabriel Huang</v>
@@ -9295,7 +9294,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>Hector Hu</v>
@@ -9310,7 +9309,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>Victor Hsu</v>
@@ -9325,7 +9324,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>Opal Hilario</v>
@@ -9340,7 +9339,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>Erika Herrera-Ross</v>
@@ -9355,7 +9354,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>Johnny Hernandez</v>
@@ -9370,7 +9369,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>Abby Hernandez</v>
@@ -9385,7 +9384,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>Thomas Hernandez</v>
@@ -9400,7 +9399,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>Anna Henthorn-Iwane</v>
@@ -9415,7 +9414,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>Billy Henderson</v>
@@ -9430,7 +9429,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>Nicholas Heard</v>
@@ -9445,7 +9444,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>Andy (Jian Ting) He</v>
@@ -9460,7 +9459,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>Justin He</v>
@@ -9475,7 +9474,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>Irina Haruyama</v>
@@ -9490,7 +9489,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>Madelynn Harper</v>
@@ -9505,7 +9504,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>Cheryll Guitvan</v>
@@ -9520,7 +9519,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>Oscar Gonzalez-Perez</v>
@@ -9535,7 +9534,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>Angelina Gonzalez</v>
@@ -9550,7 +9549,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>Mohammad Gonzalez</v>
@@ -9565,7 +9564,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>Alexander Gomez</v>
@@ -9580,7 +9579,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>Jeremy Gomez</v>
@@ -9595,7 +9594,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>Seif Goess</v>
@@ -9610,7 +9609,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>Giovanni Ghiglieri</v>
@@ -9625,7 +9624,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>Enzo Gellman</v>
@@ -9640,7 +9639,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>Jason Gardner</v>
@@ -9655,7 +9654,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>Jorge Galeana</v>
@@ -9670,7 +9669,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>Griffin Gaim</v>
@@ -9685,7 +9684,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>Carter Fong</v>
@@ -9700,7 +9699,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>Simon Finkelstein</v>
@@ -9715,7 +9714,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>James Filoteo</v>
@@ -9730,7 +9729,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>Antonio Fernandez</v>
@@ -9745,7 +9744,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>James Fernandez</v>
@@ -9760,7 +9759,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>Jun Feng</v>
@@ -9775,7 +9774,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>Boris Feinberg</v>
@@ -9790,7 +9789,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="str">
         <f t="shared" ref="A257:A315" si="4">CONCATENATE(C257," ",D257)</f>
         <v>Jose Fedorov</v>
@@ -9805,7 +9804,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="str">
         <f t="shared" si="4"/>
         <v>Jesus Espinoza</v>
@@ -9820,7 +9819,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>Wendy Espeleta</v>
@@ -9835,7 +9834,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>Chenyi Escudero</v>
@@ -9850,7 +9849,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>Alysha Escobar</v>
@@ -9865,7 +9864,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>Carter Erdickoff</v>
@@ -9880,7 +9879,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>Jarelly Embry Louden</v>
@@ -9895,7 +9894,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>Austin-Jilles Eguilos</v>
@@ -9910,7 +9909,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>Corye Duman</v>
@@ -9925,7 +9924,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>Michael Driscoll</v>
@@ -9940,7 +9939,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>James Drayton-Yee</v>
@@ -9955,7 +9954,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>Tenzin Dong</v>
@@ -9970,7 +9969,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>Christian Doi</v>
@@ -9985,7 +9984,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>Alan Diaz</v>
@@ -10000,7 +9999,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>Tenzin Del Toro</v>
@@ -10015,7 +10014,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>Peter DaMoade</v>
@@ -10030,7 +10029,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>Tazeen Cooper</v>
@@ -10045,7 +10044,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>Allison Cooper</v>
@@ -10060,7 +10059,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>Juan Cook</v>
@@ -10075,7 +10074,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>Sandra Contreras</v>
@@ -10090,7 +10089,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>Alejandro Condori</v>
@@ -10105,7 +10104,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>Ehab Cisek</v>
@@ -10120,7 +10119,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>Dimitri Chuck</v>
@@ -10135,7 +10134,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>Tanesha Christman</v>
@@ -10150,7 +10149,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>Branden Chow</v>
@@ -10165,7 +10164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>Charlie Cherry</v>
@@ -10180,7 +10179,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>Wilbur Cherg</v>
@@ -10195,7 +10194,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>Peter Chen</v>
@@ -10210,7 +10209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>Scott Chen</v>
@@ -10225,7 +10224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>Ana Caton</v>
@@ -10240,7 +10239,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>Emily Castellanos</v>
@@ -10255,7 +10254,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>Joshu Carrillo</v>
@@ -10270,7 +10269,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>Jasmine Calva</v>
@@ -10285,7 +10284,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>Allen Cacho</v>
@@ -10300,7 +10299,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>Taylor Burns</v>
@@ -10315,7 +10314,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>Pedro Budker</v>
@@ -10330,7 +10329,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>James Bruce</v>
@@ -10345,7 +10344,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>Bryce Brown</v>
@@ -10360,7 +10359,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>Jennifer Bonilla</v>
@@ -10375,7 +10374,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>Kobe Bolanos</v>
@@ -10390,7 +10389,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>Chris Blendstrup</v>
@@ -10405,7 +10404,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>Karina Bishop</v>
@@ -10420,7 +10419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>Reejan Beverly</v>
@@ -10435,7 +10434,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>Alan Becerra</v>
@@ -10450,7 +10449,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>Huiyun Battas</v>
@@ -10465,7 +10464,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>Noah Bassak</v>
@@ -10480,7 +10479,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>Ian Bartlett</v>
@@ -10495,7 +10494,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>Jocelyn Bao</v>
@@ -10510,7 +10509,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>Hannalei Banevicius</v>
@@ -10525,7 +10524,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>Eduardo Balonos</v>
@@ -10540,7 +10539,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>Hank Badalyan</v>
@@ -10555,7 +10554,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>Weicheng Baba</v>
@@ -10570,7 +10569,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>Thomas Avelar-Lopez</v>
@@ -10585,7 +10584,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>Jonathan Ashraf</v>
@@ -10600,7 +10599,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>Jessica Arciga</v>
@@ -10615,7 +10614,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>Deliliah Alonso</v>
@@ -10630,7 +10629,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>Cesar Alcala</v>
@@ -10645,7 +10644,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>Vera Aguilar</v>
@@ -10660,7 +10659,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>Carlos Aguayo</v>
@@ -10675,23 +10674,23 @@
         <v>578</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C321" s="1"/>
     </row>
   </sheetData>
@@ -10715,13 +10714,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.734375" customWidth="1"/>
-    <col min="2" max="2" width="12.68359375" customWidth="1"/>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>819</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>820</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>340</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>814</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>353</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>343</v>
       </c>
@@ -10777,7 +10776,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>821</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>342</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>811</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>824</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>822</v>
       </c>
@@ -10817,7 +10816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>823</v>
       </c>
@@ -10825,7 +10824,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>359</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>361</v>
       </c>
@@ -10841,7 +10840,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>360</v>
       </c>
@@ -10849,7 +10848,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>817</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>815</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>816</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>810</v>
       </c>
@@ -10881,7 +10880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>825</v>
       </c>
@@ -10889,7 +10888,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>813</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>818</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>812</v>
       </c>
@@ -10930,16 +10929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>860</v>
       </c>
@@ -10948,10 +10947,10 @@
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>861</v>
       </c>
@@ -10960,10 +10959,10 @@
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>862</v>
       </c>
@@ -10972,10 +10971,10 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>863</v>
       </c>
@@ -10984,10 +10983,10 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>864</v>
       </c>
@@ -10996,10 +10995,10 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>865</v>
       </c>
@@ -11008,10 +11007,10 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>866</v>
       </c>
@@ -11020,10 +11019,10 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>867</v>
       </c>
@@ -11032,10 +11031,10 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>868</v>
       </c>
@@ -11044,10 +11043,10 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>869</v>
       </c>
@@ -11056,10 +11055,10 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>870</v>
       </c>
@@ -11068,10 +11067,10 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>871</v>
       </c>
@@ -11080,10 +11079,10 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>872</v>
       </c>
@@ -11092,10 +11091,10 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>873</v>
       </c>
@@ -11106,7 +11105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>874</v>
       </c>
@@ -11115,10 +11114,10 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>875</v>
       </c>
@@ -11127,10 +11126,10 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>876</v>
       </c>
@@ -11139,10 +11138,10 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>877</v>
       </c>
@@ -11151,10 +11150,10 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>878</v>
       </c>
@@ -11163,10 +11162,10 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>879</v>
       </c>
@@ -11175,10 +11174,10 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>880</v>
       </c>
@@ -11187,10 +11186,10 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>882</v>
       </c>
@@ -11199,10 +11198,10 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>881</v>
       </c>
@@ -11211,10 +11210,10 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>883</v>
       </c>
@@ -11223,10 +11222,10 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>884</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>885</v>
       </c>
@@ -11246,10 +11245,10 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>886</v>
       </c>
@@ -11258,10 +11257,10 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>887</v>
       </c>
@@ -11270,10 +11269,10 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>888</v>
       </c>
@@ -11282,10 +11281,10 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>889</v>
       </c>
@@ -11294,10 +11293,10 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>890</v>
       </c>
@@ -11306,10 +11305,10 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>891</v>
       </c>
@@ -11318,10 +11317,10 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>892</v>
       </c>
@@ -11330,10 +11329,10 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>893</v>
       </c>
@@ -11342,10 +11341,10 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>894</v>
       </c>
@@ -11354,10 +11353,10 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>895</v>
       </c>
@@ -11366,10 +11365,10 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>896</v>
       </c>
@@ -11378,10 +11377,10 @@
       </c>
       <c r="C37">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>897</v>
       </c>
@@ -11390,10 +11389,10 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>898</v>
       </c>
@@ -11402,10 +11401,10 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>899</v>
       </c>
@@ -11414,10 +11413,10 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>900</v>
       </c>
@@ -11426,10 +11425,10 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>901</v>
       </c>
@@ -11438,10 +11437,10 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>902</v>
       </c>
@@ -11450,10 +11449,10 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>903</v>
       </c>
@@ -11462,10 +11461,10 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>904</v>
       </c>
@@ -11474,10 +11473,10 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>905</v>
       </c>
@@ -11486,10 +11485,10 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>906</v>
       </c>
@@ -11498,10 +11497,10 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>907</v>
       </c>
@@ -11510,10 +11509,10 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>908</v>
       </c>
@@ -11522,10 +11521,10 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>909</v>
       </c>
@@ -11536,7 +11535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>910</v>
       </c>
@@ -11545,10 +11544,10 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>911</v>
       </c>
@@ -11557,10 +11556,10 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>912</v>
       </c>
@@ -11569,10 +11568,10 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>913</v>
       </c>
@@ -11584,7 +11583,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>914</v>
       </c>
@@ -11593,10 +11592,10 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>915</v>
       </c>
@@ -11605,7 +11604,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -11621,12 +11620,12 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.20703125" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>826</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>827</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>828</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -11658,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>830</v>
       </c>
@@ -11666,7 +11665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>831</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>832</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>834</v>
       </c>
@@ -11698,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>835</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>836</v>
       </c>
@@ -11714,7 +11713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>837</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>838</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>839</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>840</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>841</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>842</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>843</v>
       </c>
@@ -11778,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>844</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>845</v>
       </c>
@@ -11794,7 +11793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>846</v>
       </c>
@@ -11802,7 +11801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>847</v>
       </c>
@@ -11810,7 +11809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>848</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>849</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>850</v>
       </c>
@@ -11834,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>851</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>852</v>
       </c>
@@ -11850,7 +11849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>853</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>854</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>855</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>856</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>857</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>858</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>859</v>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="2"/>
+    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="School" sheetId="4" r:id="rId4"/>
     <sheet name="Purchase" sheetId="5" r:id="rId5"/>
     <sheet name="Tool" sheetId="6" r:id="rId6"/>
+    <sheet name="Tool Log" sheetId="8" r:id="rId7"/>
+    <sheet name="Purchase Log" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="920">
   <si>
     <t>Berkeley High</t>
   </si>
@@ -2780,6 +2782,18 @@
   </si>
   <si>
     <t>48t Metal Sprocket</t>
+  </si>
+  <si>
+    <t>Charles Walston has checked out 2 of Clamp</t>
+  </si>
+  <si>
+    <t>Charles Walston has returned 4 of Clamp</t>
+  </si>
+  <si>
+    <t>Charles Walston has purchased 2 of VEX 393</t>
+  </si>
+  <si>
+    <t>Charles Walston has returned 1 of VEX 393</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2872,6 +2886,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3158,15 +3173,15 @@
       <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.1015625" customWidth="1"/>
+    <col min="2" max="2" width="20.41796875" customWidth="1"/>
+    <col min="3" max="3" width="16.68359375" customWidth="1"/>
+    <col min="4" max="4" width="21.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
         <f>CONCATENATE(B1," ",C1)</f>
         <v>Aditya Chopra</v>
@@ -3178,7 +3193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2," ",C2)</f>
         <v>Albert Chandra</v>
@@ -3190,7 +3205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Osborne</v>
@@ -3202,7 +3217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Zhang</v>
@@ -3214,7 +3229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Alice Chow</v>
@@ -3226,7 +3241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Allan Zhou</v>
@@ -3238,7 +3253,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Allen Li</v>
@@ -3250,7 +3265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Allen Wang</v>
@@ -3262,7 +3277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Chen</v>
@@ -3274,7 +3289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Wang</v>
@@ -3286,7 +3301,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Andy Wong</v>
@@ -3298,7 +3313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Anisha Kumar</v>
@@ -3310,7 +3325,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
@@ -3322,7 +3337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Joseph Sy Tan</v>
@@ -3334,7 +3349,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Tan</v>
@@ -3346,7 +3361,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Anuj Gandhi</v>
@@ -3358,7 +3373,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Aravind Kumaraguru</v>
@@ -3370,7 +3385,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Arnab Mukherji</v>
@@ -3382,7 +3397,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Arnav Gautam</v>
@@ -3394,7 +3409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
@@ -3406,7 +3421,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Ashley Chen</v>
@@ -3418,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
@@ -3430,7 +3445,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Cortright</v>
@@ -3442,7 +3457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Briana Niu</v>
@@ -3454,7 +3469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Candy Chang</v>
@@ -3466,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Casey Duckering</v>
@@ -3478,7 +3493,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Charles Friesen</v>
@@ -3490,7 +3505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Christie Wong</v>
@@ -3502,7 +3517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Christine Wang</v>
@@ -3514,7 +3529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Dinh</v>
@@ -3526,7 +3541,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Sumnicht</v>
@@ -3538,7 +3553,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Connie Yu</v>
@@ -3550,7 +3565,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Lee</v>
@@ -3562,7 +3577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Daniel Xu</v>
@@ -3574,7 +3589,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>David Hua</v>
@@ -3586,7 +3601,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Dennis Wai</v>
@@ -3598,7 +3613,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Devin He</v>
@@ -3610,7 +3625,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Doowon Yang</v>
@@ -3622,7 +3637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Douglas Hutchings</v>
@@ -3634,7 +3649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Elizaveta Tremsina</v>
@@ -3646,7 +3661,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Emily Stednitz</v>
@@ -3658,7 +3673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Eric Hui</v>
@@ -3670,7 +3685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Eric Nguyen</v>
@@ -3682,7 +3697,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Erin Hancock</v>
@@ -3694,7 +3709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Felix Li</v>
@@ -3706,7 +3721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Felix Yoon</v>
@@ -3718,7 +3733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Grant Emmendorfer</v>
@@ -3730,7 +3745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Griffin Potrock</v>
@@ -3742,7 +3757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Guangru He</v>
@@ -3754,7 +3769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
@@ -3766,7 +3781,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Hammad Bashir</v>
@@ -3778,7 +3793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Hannah Ling</v>
@@ -3790,7 +3805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
@@ -3802,7 +3817,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Hoi Leung</v>
@@ -3814,7 +3829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Huda Khayrallah</v>
@@ -3826,7 +3841,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Humphrey Hu</v>
@@ -3838,7 +3853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Ian Krase</v>
@@ -3850,7 +3865,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Jackie Ko</v>
@@ -3862,7 +3877,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Jared Porter</v>
@@ -3874,7 +3889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Jayss Marshall</v>
@@ -3886,7 +3901,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Jeffrey Jacinto</v>
@@ -3898,7 +3913,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Jerry Chen</v>
@@ -3910,7 +3925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Jerry Cheng</v>
@@ -3922,7 +3937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Jessica Nunez</v>
@@ -3934,7 +3949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Jessica Wong</v>
@@ -3946,7 +3961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(B66," ",C66)</f>
         <v>John Wang</v>
@@ -3958,7 +3973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Jonathan Tu</v>
@@ -3970,7 +3985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Jordan Covert</v>
@@ -3982,7 +3997,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Jose Santos</v>
@@ -3994,7 +4009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Price</v>
@@ -4006,7 +4021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Justin Jorge</v>
@@ -4018,7 +4033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Karthik Shanmugam</v>
@@ -4030,7 +4045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Katrina Jiang</v>
@@ -4042,7 +4057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Krystyn Neisess</v>
@@ -4054,7 +4069,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Zentner</v>
@@ -4066,7 +4081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Laura Taylor</v>
@@ -4078,7 +4093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Lucine Oganesian</v>
@@ -4090,7 +4105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Manda Au</v>
@@ -4102,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Mandy Chen</v>
@@ -4114,7 +4129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Mandy Li</v>
@@ -4126,7 +4141,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Mathew Pang</v>
@@ -4138,7 +4153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Mats Dreyer</v>
@@ -4150,7 +4165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Matthew Chang</v>
@@ -4162,7 +4177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Matthew Zhao</v>
@@ -4174,7 +4189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Max Barreto</v>
@@ -4186,7 +4201,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Maxwell Nuyens</v>
@@ -4198,7 +4213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Michael Chuang</v>
@@ -4210,7 +4225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Mitch Thompson</v>
@@ -4222,7 +4237,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Nathaniel Aceron</v>
@@ -4234,7 +4249,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Natsumi Otaguro</v>
@@ -4246,7 +4261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Nikhil Mishra</v>
@@ -4258,7 +4273,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Nikita Kitaev</v>
@@ -4270,7 +4285,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Nona Penner</v>
@@ -4282,7 +4297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Paola Didone</v>
@@ -4294,7 +4309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Paul Moulton</v>
@@ -4306,7 +4321,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Pengcheng Liu</v>
@@ -4318,7 +4333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Phoebe Lin</v>
@@ -4330,7 +4345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Qian Mu</v>
@@ -4342,7 +4357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Ray Pang</v>
@@ -4354,7 +4369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Rei Rachel Ieda</v>
@@ -4366,7 +4381,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Rhett Gentile</v>
@@ -4378,7 +4393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Robert Luan</v>
@@ -4390,7 +4405,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Robert Ou</v>
@@ -4402,7 +4417,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Ryan Julian</v>
@@ -4414,7 +4429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Sagar Patel</v>
@@ -4426,7 +4441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Saloni Shah</v>
@@ -4438,7 +4453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Fung</v>
@@ -4450,7 +4465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Harris</v>
@@ -4462,7 +4477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Sarina Chen</v>
@@ -4474,7 +4489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>Scout Heid</v>
@@ -4486,7 +4501,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Sherdil Niyaz</v>
@@ -4498,7 +4513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Shivani Sharma</v>
@@ -4510,7 +4525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Stanley Kwong</v>
@@ -4522,7 +4537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Steven Chen</v>
@@ -4534,7 +4549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Sudip Guha</v>
@@ -4546,7 +4561,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Sumita Ghosh</v>
@@ -4558,7 +4573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Tanya Krishnakumar</v>
@@ -4570,7 +4585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
@@ -4582,7 +4597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Tobin Holcomb</v>
@@ -4594,7 +4609,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Tomoya Ogura</v>
@@ -4606,7 +4621,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Tony Abdo</v>
@@ -4618,7 +4633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Tony Dear</v>
@@ -4630,7 +4645,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Utkarsh Singhal</v>
@@ -4642,7 +4657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>Vanathi Ganesh</v>
@@ -4654,7 +4669,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>Vincent Donato</v>
@@ -4666,7 +4681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Wendy Liu</v>
@@ -4678,7 +4693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>William Li</v>
@@ -4690,7 +4705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>William Wheeler</v>
@@ -4702,7 +4717,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
@@ -4714,7 +4729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A133" si="2">CONCATENATE(B130," ",C130)</f>
         <v>Winston Long</v>
@@ -4726,7 +4741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>Xiao-Yu Fu</v>
@@ -4738,7 +4753,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>YiDing Jiang</v>
@@ -4750,7 +4765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Yizhe Liu</v>
@@ -4762,7 +4777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="str">
         <f>CONCATENATE(B134," ",C134)</f>
         <v>Zhiliang He</v>
@@ -4791,15 +4806,15 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.41796875" customWidth="1"/>
+    <col min="2" max="2" width="20.89453125" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Akira Bai</v>
@@ -4814,7 +4829,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Alejandro Zuniga</v>
@@ -4829,7 +4844,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Alex Liu</v>
@@ -4844,7 +4859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Alexander Yu</v>
@@ -4859,7 +4874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Andy Chu</v>
@@ -4874,7 +4889,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
@@ -4889,7 +4904,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Arismel Tena</v>
@@ -4904,7 +4919,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
@@ -4919,7 +4934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Aurelia Guy</v>
@@ -4934,7 +4949,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Baladitya Yellapragada</v>
@@ -4949,7 +4964,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Ben Sheff</v>
@@ -4964,7 +4979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Brian Cheng</v>
@@ -4979,7 +4994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Brian Kim</v>
@@ -4994,7 +5009,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Carlos Sanchez</v>
@@ -5009,7 +5024,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Charelston Chua</v>
@@ -5024,7 +5039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Chase Giannini</v>
@@ -5039,7 +5054,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Christopher Wong</v>
@@ -5054,7 +5069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Clancy Lee</v>
@@ -5069,7 +5084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Cristian Rodriguez</v>
@@ -5084,7 +5099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Crystal Rubalcava</v>
@@ -5099,7 +5114,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>Debleena Sengupta</v>
@@ -5114,7 +5129,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Dylan Dove</v>
@@ -5129,7 +5144,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Eduardo Garibay</v>
@@ -5144,7 +5159,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Emily Jensen</v>
@@ -5159,7 +5174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Greta` Huang</v>
@@ -5174,7 +5189,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Guangzhao (Philip) Yang</v>
@@ -5189,7 +5204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Gurdit Chahal</v>
@@ -5204,7 +5219,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Harshali Wadge</v>
@@ -5219,7 +5234,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Hermilo Ibarra-Andrade</v>
@@ -5234,7 +5249,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Hershal Patel</v>
@@ -5249,7 +5264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Hurui Kifle</v>
@@ -5264,7 +5279,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Huu Pham</v>
@@ -5279,7 +5294,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Ian McLaughlin</v>
@@ -5294,7 +5309,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Ian Eigl</v>
@@ -5309,7 +5324,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Jaime Pimentel</v>
@@ -5324,7 +5339,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>James Freret</v>
@@ -5339,7 +5354,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Jennifer Garcia</v>
@@ -5354,7 +5369,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Jesse Paterson</v>
@@ -5369,7 +5384,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>John Brkich</v>
@@ -5384,7 +5399,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Juan Castillo</v>
@@ -5399,7 +5414,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Kavya Madhavan</v>
@@ -5414,7 +5429,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Kenny Zhen</v>
@@ -5429,7 +5444,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Kevin Durand</v>
@@ -5444,7 +5459,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Kevin Lee</v>
@@ -5459,7 +5474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Kyle Archer</v>
@@ -5474,7 +5489,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Kyungna Kim</v>
@@ -5489,7 +5504,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>Lindsey Hernandez</v>
@@ -5504,7 +5519,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Lucas Medino</v>
@@ -5519,7 +5534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Maliena Guy</v>
@@ -5534,7 +5549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Mandy Li</v>
@@ -5549,7 +5564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Mark Tegio</v>
@@ -5564,7 +5579,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Naranjo</v>
@@ -5579,7 +5594,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Matthew Cline</v>
@@ -5594,7 +5609,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Micah Lyle</v>
@@ -5609,7 +5624,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Mimi Parker</v>
@@ -5624,7 +5639,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Nicholas Entress</v>
@@ -5639,7 +5654,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Peter Nguyen</v>
@@ -5654,7 +5669,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Phillip Downey</v>
@@ -5669,7 +5684,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Pinxiu Gong</v>
@@ -5684,7 +5699,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Rachel Ieda</v>
@@ -5699,7 +5714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Rafayel Mkrtchyan</v>
@@ -5714,7 +5729,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Ravneet Madaan</v>
@@ -5729,7 +5744,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>Rosalba Rodriguez</v>
@@ -5744,7 +5759,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Sam Harris</v>
@@ -5759,7 +5774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Sam Patrick</v>
@@ -5774,7 +5789,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A75" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Saman Sabeti</v>
@@ -5789,7 +5804,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Heinz</v>
@@ -5804,7 +5819,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Stephen Pereira-Schork</v>
@@ -5819,7 +5834,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Sydney McMuldroch</v>
@@ -5834,7 +5849,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Tatevik Stepanyan</v>
@@ -5849,7 +5864,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Terence Yang</v>
@@ -5864,7 +5879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Urvashi Betarbet</v>
@@ -5879,7 +5894,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Vineet Jagadeesan Nair</v>
@@ -5894,7 +5909,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>William Luong</v>
@@ -5909,7 +5924,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
@@ -5938,18 +5953,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+    <sheetView topLeftCell="A306" workbookViewId="0">
       <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.3125" customWidth="1"/>
     <col min="2" max="2" width="28" style="7" customWidth="1"/>
-    <col min="3" max="4" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="14.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
         <v>Gene Zlatev</v>
@@ -5964,7 +5979,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
         <v>Bobbi Zinoman</v>
@@ -5979,7 +5994,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
         <v>Griffen Zhu</v>
@@ -5994,7 +6009,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Connie Zhou</v>
@@ -6009,7 +6024,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Joshua Zhou</v>
@@ -6024,7 +6039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Carissa Zhou</v>
@@ -6039,7 +6054,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Cieara Zhou</v>
@@ -6054,7 +6069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Aron Zhang</v>
@@ -6069,7 +6084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Lennox Zhang</v>
@@ -6084,7 +6099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>William Zhang</v>
@@ -6099,7 +6114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Frank Zhang</v>
@@ -6114,7 +6129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Robert Zevallos</v>
@@ -6129,7 +6144,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Fritzgerald Zenner</v>
@@ -6144,7 +6159,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Nate Zeng</v>
@@ -6159,7 +6174,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>Abel Zarza</v>
@@ -6174,7 +6189,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>Juan Yu</v>
@@ -6189,7 +6204,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>Emily Yu</v>
@@ -6204,7 +6219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>Kenny Yu</v>
@@ -6219,7 +6234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>Mimi Yip</v>
@@ -6234,7 +6249,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>Emanuel Yi</v>
@@ -6249,7 +6264,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>John Carlos Yang</v>
@@ -6264,7 +6279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>Bryan Yang</v>
@@ -6279,7 +6294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>Vytautas Xu</v>
@@ -6294,7 +6309,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>Luka Xie</v>
@@ -6309,7 +6324,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>Maite Wu</v>
@@ -6324,7 +6339,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>Lena Wu</v>
@@ -6339,7 +6354,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>Henry Wu</v>
@@ -6354,7 +6369,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>Sara Woods</v>
@@ -6369,7 +6384,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>Michaelangelo Wood</v>
@@ -6384,7 +6399,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>Andrea Wong</v>
@@ -6399,7 +6414,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>Elias Wong</v>
@@ -6414,7 +6429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>Michael Wong</v>
@@ -6429,7 +6444,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>Elson Wong</v>
@@ -6444,7 +6459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>Jake Wisherop</v>
@@ -6459,7 +6474,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>Michaelangelo Wilson</v>
@@ -6474,7 +6489,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>Camilia Williams</v>
@@ -6489,7 +6504,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>Philip White</v>
@@ -6504,7 +6519,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>Andrew Wenzler</v>
@@ -6519,7 +6534,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>Conor Wang</v>
@@ -6534,7 +6549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>Jesse Wang</v>
@@ -6549,7 +6564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>Maggie Wan</v>
@@ -6564,7 +6579,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>Charles Walston</v>
@@ -6579,7 +6594,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>Roisin Wai</v>
@@ -6594,7 +6609,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>Marisa Vojvoda</v>
@@ -6609,7 +6624,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>Nicholas VanHeuit</v>
@@ -6624,7 +6639,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>Aubrey-rose Valva</v>
@@ -6639,7 +6654,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>William Valdivia</v>
@@ -6654,7 +6669,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>Ethan Unurbaatar</v>
@@ -6669,7 +6684,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>Jenny Tse</v>
@@ -6684,7 +6699,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>Elana Truong</v>
@@ -6699,7 +6714,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>Jeff Triadi</v>
@@ -6714,7 +6729,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>Shuxin Tran</v>
@@ -6729,7 +6744,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>Tony Tran</v>
@@ -6744,7 +6759,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>Angelina Tostenson</v>
@@ -6759,7 +6774,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>Osualdo Tom</v>
@@ -6774,7 +6789,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>Alycia Teuscher</v>
@@ -6789,7 +6804,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>Ricardo Tang</v>
@@ -6804,7 +6819,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>Harrison Tan</v>
@@ -6819,7 +6834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>Gabrielle Tan</v>
@@ -6834,7 +6849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>Tiffany Tan</v>
@@ -6849,7 +6864,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>Georgina Tan</v>
@@ -6864,7 +6879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>Jesus Tamayo</v>
@@ -6879,7 +6894,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>William Sun</v>
@@ -6894,7 +6909,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>Spencer Subrayan</v>
@@ -6909,7 +6924,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>Ash Storrs</v>
@@ -6924,7 +6939,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="1">CONCATENATE(C66," ",D66)</f>
         <v>Amy Stanfield</v>
@@ -6939,7 +6954,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>Rigoberto Stacy</v>
@@ -6954,7 +6969,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>Samuel Soephan</v>
@@ -6969,7 +6984,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>Tom Smith</v>
@@ -6984,7 +6999,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>Jake Smith</v>
@@ -6999,7 +7014,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Situ</v>
@@ -7014,7 +7029,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>Jayshaun Singleton</v>
@@ -7029,7 +7044,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>Branden Singh</v>
@@ -7044,7 +7059,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>Elizabeth Singh</v>
@@ -7059,7 +7074,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>Lamont Simmons</v>
@@ -7074,7 +7089,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>Irvin Silverman</v>
@@ -7089,7 +7104,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>Billy Shutt</v>
@@ -7104,7 +7119,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>Lewis Shirozi</v>
@@ -7119,7 +7134,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>Gilberto Shi</v>
@@ -7134,7 +7149,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>Leila Shalf</v>
@@ -7149,7 +7164,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>Andrea Servin</v>
@@ -7164,7 +7179,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>Raymond Schooling</v>
@@ -7179,7 +7194,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>Tony Schniedergers</v>
@@ -7194,7 +7209,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>Macie Schneidinger</v>
@@ -7209,7 +7224,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>Jair Saucedo</v>
@@ -7224,7 +7239,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>Tristan Santana</v>
@@ -7239,7 +7254,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>Giovanni Sanchez</v>
@@ -7254,7 +7269,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>Adan Sanchez</v>
@@ -7269,7 +7284,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>Brissa Ruiz</v>
@@ -7284,7 +7299,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>Reginae Rue</v>
@@ -7299,7 +7314,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Rubi</v>
@@ -7314,7 +7329,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>Stephanie Rose</v>
@@ -7329,7 +7344,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>Robert Rosales</v>
@@ -7344,7 +7359,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>Maria Rodriguez Silva</v>
@@ -7359,7 +7374,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>Julia Robertson</v>
@@ -7374,7 +7389,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>Paul Robbins</v>
@@ -7389,7 +7404,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>Manuel Riley</v>
@@ -7404,7 +7419,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>Austin Reed</v>
@@ -7419,7 +7434,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>Reginald Ranman</v>
@@ -7434,7 +7449,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>Jose Ramos</v>
@@ -7449,7 +7464,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>Kai Quale</v>
@@ -7464,7 +7479,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>Maya Qiu</v>
@@ -7479,7 +7494,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>Alex Priesto</v>
@@ -7494,7 +7509,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>Cole Prendergast</v>
@@ -7509,7 +7524,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>Junior Pratt</v>
@@ -7524,7 +7539,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>Simranjit Poveda</v>
@@ -7539,7 +7554,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>Daniela Portillo</v>
@@ -7554,7 +7569,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>Athorva Pietropooli</v>
@@ -7569,7 +7584,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>Kelsey Pierce</v>
@@ -7584,7 +7599,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>William Piccillo</v>
@@ -7599,7 +7614,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>Sara Phung</v>
@@ -7614,7 +7629,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>Angelina Phoumivong</v>
@@ -7629,7 +7644,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>Christian Pereda</v>
@@ -7644,7 +7659,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>Gabriel Peng</v>
@@ -7659,7 +7674,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>Sarbjot Pedersen</v>
@@ -7674,7 +7689,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>Tiffany Pareja</v>
@@ -7689,7 +7704,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>Gavin Orla-Bukowski</v>
@@ -7704,7 +7719,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>Minnie Ong</v>
@@ -7719,7 +7734,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>Andy Olson</v>
@@ -7734,7 +7749,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>Quiante Olosiman</v>
@@ -7749,7 +7764,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>Raymond Oddone</v>
@@ -7764,7 +7779,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>Alex Norbu</v>
@@ -7779,7 +7794,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>Carlos Nieves</v>
@@ -7794,7 +7809,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>David Nguyen</v>
@@ -7809,7 +7824,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>JingJun Nguyen</v>
@@ -7824,7 +7839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Nguyen</v>
@@ -7839,7 +7854,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>Kai Nguyen</v>
@@ -7854,7 +7869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>Sydney Nguyen</v>
@@ -7869,7 +7884,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>Jasmine Nguyen</v>
@@ -7884,7 +7899,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A192" si="2">CONCATENATE(C130," ",D130)</f>
         <v>Jaylin Ngo</v>
@@ -7899,7 +7914,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
         <v>Fernando Ng</v>
@@ -7914,7 +7929,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
         <v>Darwin Navarro</v>
@@ -7929,7 +7944,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>Kyle Nations</v>
@@ -7944,7 +7959,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>Glen Thomas Nagdev</v>
@@ -7959,7 +7974,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>Oscar Munoz</v>
@@ -7974,7 +7989,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>Jennifer Mueller</v>
@@ -7989,7 +8004,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>Lauren Mubachir</v>
@@ -8004,7 +8019,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>Gustavo Moya</v>
@@ -8019,7 +8034,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>Henry Morton</v>
@@ -8034,7 +8049,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>Karoline Morgan</v>
@@ -8049,7 +8064,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>Ketzia Moreno</v>
@@ -8064,7 +8079,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>Aelafe Moore</v>
@@ -8079,7 +8094,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>Janet Montevirgin</v>
@@ -8094,7 +8109,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>Kenyon Mogilewski</v>
@@ -8109,7 +8124,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>Wangsen (Stanley) Mitchell</v>
@@ -8124,7 +8139,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>Patrick Minsky</v>
@@ -8139,7 +8154,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>Thane Mills</v>
@@ -8154,7 +8169,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>Ryan Micael</v>
@@ -8169,7 +8184,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>Ethan Merzenich</v>
@@ -8184,7 +8199,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>Hana Merino</v>
@@ -8199,7 +8214,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>Michelle Mendes</v>
@@ -8214,7 +8229,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>Christian Mejia</v>
@@ -8229,7 +8244,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>Jonathan Mei</v>
@@ -8244,7 +8259,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>Cristiana McNary</v>
@@ -8259,7 +8274,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>Tammy McLoughlin</v>
@@ -8274,7 +8289,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>Amit McDonald</v>
@@ -8289,7 +8304,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>Kailash McCaulley</v>
@@ -8304,7 +8319,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>Winnie Maxwell</v>
@@ -8319,7 +8334,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>Gaby Martinez</v>
@@ -8334,7 +8349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>Samuel Martinez</v>
@@ -8349,7 +8364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>Jorge Martinez</v>
@@ -8364,7 +8379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>Admiral Martinee</v>
@@ -8379,7 +8394,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>Adam Martin</v>
@@ -8394,7 +8409,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>Rilhiyah Mart</v>
@@ -8409,7 +8424,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>Skylar Marrama</v>
@@ -8424,7 +8439,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>Charlie Manalo</v>
@@ -8439,7 +8454,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>Daniel Maddison</v>
@@ -8454,7 +8469,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>Kayley Luu</v>
@@ -8469,7 +8484,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>Laura Luna</v>
@@ -8484,7 +8499,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>Kandace Lui</v>
@@ -8499,7 +8514,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>Nuo Lou</v>
@@ -8514,7 +8529,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>Walter Lopez</v>
@@ -8529,7 +8544,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>Agustin Lopez</v>
@@ -8544,7 +8559,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>Luis Lopez</v>
@@ -8559,7 +8574,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>Huabin Lodoe</v>
@@ -8574,7 +8589,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>Hien Liu</v>
@@ -8589,7 +8604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>Donovan Lira</v>
@@ -8604,7 +8619,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>Alex Lintao</v>
@@ -8619,7 +8634,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>Jiani Ligutan</v>
@@ -8634,7 +8649,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>Michael Liang</v>
@@ -8649,7 +8664,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>Jeanie Li</v>
@@ -8664,7 +8679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>Carvell Levi</v>
@@ -8679,7 +8694,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>Calvin Leung</v>
@@ -8694,7 +8709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
@@ -8709,7 +8724,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>Brian Lee</v>
@@ -8724,7 +8739,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Lee</v>
@@ -8739,7 +8754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>Andrew Lee</v>
@@ -8754,7 +8769,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>Benjamin Lee</v>
@@ -8769,7 +8784,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>Simon Lee</v>
@@ -8784,7 +8799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>Adriana Lazano</v>
@@ -8799,7 +8814,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>Kevin Law</v>
@@ -8814,7 +8829,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>Robert Lavryonova</v>
@@ -8829,7 +8844,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="str">
         <f t="shared" ref="A193:A256" si="3">CONCATENATE(C193," ",D193)</f>
         <v>HaoYang Latt</v>
@@ -8844,7 +8859,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="str">
         <f t="shared" si="3"/>
         <v>Levi Lara</v>
@@ -8859,7 +8874,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="str">
         <f t="shared" si="3"/>
         <v>Johnny Lander</v>
@@ -8874,7 +8889,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="str">
         <f t="shared" si="3"/>
         <v>Hae Landaverde</v>
@@ -8889,7 +8904,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>Dylan Lam</v>
@@ -8904,7 +8919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>Kai Lakireddy</v>
@@ -8919,7 +8934,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>Trayvonda Kwasriza</v>
@@ -8934,7 +8949,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>Griffin Kwan</v>
@@ -8949,7 +8964,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>James Kudsk</v>
@@ -8964,7 +8979,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>Zoe Kidder</v>
@@ -8979,7 +8994,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>Julian Khadka</v>
@@ -8994,7 +9009,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>Evan Keohan</v>
@@ -9009,7 +9024,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>Michelle Kelly</v>
@@ -9024,7 +9039,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>Jasper Kebade</v>
@@ -9039,7 +9054,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>Emilio Karnik</v>
@@ -9054,7 +9069,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>Cody Jue</v>
@@ -9069,7 +9084,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>Vivian Johnstone</v>
@@ -9084,7 +9099,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>Kevin Johnson</v>
@@ -9099,7 +9114,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>Galmandahk Jimenez</v>
@@ -9114,7 +9129,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>Nick Jimenez</v>
@@ -9129,7 +9144,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>Anson Jiang</v>
@@ -9144,7 +9159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>Claudia Jian</v>
@@ -9159,7 +9174,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>Justice Jackson</v>
@@ -9174,7 +9189,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>Simon Iliralium</v>
@@ -9189,7 +9204,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>Jackie Ibarra</v>
@@ -9204,7 +9219,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>Jaime Hurt</v>
@@ -9219,7 +9234,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>Joshua Hurley</v>
@@ -9234,7 +9249,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>Adrian Hunter</v>
@@ -9249,7 +9264,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>Deon Hunt</v>
@@ -9264,7 +9279,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="str">
         <f t="shared" si="3"/>
         <v>Ayanna Hubahib</v>
@@ -9279,7 +9294,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="str">
         <f t="shared" si="3"/>
         <v>Gabriel Huang</v>
@@ -9294,7 +9309,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="str">
         <f t="shared" si="3"/>
         <v>Hector Hu</v>
@@ -9309,7 +9324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="str">
         <f t="shared" si="3"/>
         <v>Victor Hsu</v>
@@ -9324,7 +9339,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="str">
         <f t="shared" si="3"/>
         <v>Opal Hilario</v>
@@ -9339,7 +9354,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="str">
         <f t="shared" si="3"/>
         <v>Erika Herrera-Ross</v>
@@ -9354,7 +9369,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="str">
         <f t="shared" si="3"/>
         <v>Johnny Hernandez</v>
@@ -9369,7 +9384,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="str">
         <f t="shared" si="3"/>
         <v>Abby Hernandez</v>
@@ -9384,7 +9399,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="str">
         <f t="shared" si="3"/>
         <v>Thomas Hernandez</v>
@@ -9399,7 +9414,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="str">
         <f t="shared" si="3"/>
         <v>Anna Henthorn-Iwane</v>
@@ -9414,7 +9429,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="str">
         <f t="shared" si="3"/>
         <v>Billy Henderson</v>
@@ -9429,7 +9444,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="str">
         <f t="shared" si="3"/>
         <v>Nicholas Heard</v>
@@ -9444,7 +9459,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="str">
         <f t="shared" si="3"/>
         <v>Andy (Jian Ting) He</v>
@@ -9459,7 +9474,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="str">
         <f t="shared" si="3"/>
         <v>Justin He</v>
@@ -9474,7 +9489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="str">
         <f t="shared" si="3"/>
         <v>Irina Haruyama</v>
@@ -9489,7 +9504,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="str">
         <f t="shared" si="3"/>
         <v>Madelynn Harper</v>
@@ -9504,7 +9519,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="str">
         <f t="shared" si="3"/>
         <v>Cheryll Guitvan</v>
@@ -9519,7 +9534,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="str">
         <f t="shared" si="3"/>
         <v>Oscar Gonzalez-Perez</v>
@@ -9534,7 +9549,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="str">
         <f t="shared" si="3"/>
         <v>Angelina Gonzalez</v>
@@ -9549,7 +9564,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="str">
         <f t="shared" si="3"/>
         <v>Mohammad Gonzalez</v>
@@ -9564,7 +9579,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="str">
         <f t="shared" si="3"/>
         <v>Alexander Gomez</v>
@@ -9579,7 +9594,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="str">
         <f t="shared" si="3"/>
         <v>Jeremy Gomez</v>
@@ -9594,7 +9609,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="str">
         <f t="shared" si="3"/>
         <v>Seif Goess</v>
@@ -9609,7 +9624,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="str">
         <f t="shared" si="3"/>
         <v>Giovanni Ghiglieri</v>
@@ -9624,7 +9639,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="str">
         <f t="shared" si="3"/>
         <v>Enzo Gellman</v>
@@ -9639,7 +9654,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="str">
         <f t="shared" si="3"/>
         <v>Jason Gardner</v>
@@ -9654,7 +9669,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="str">
         <f t="shared" si="3"/>
         <v>Jorge Galeana</v>
@@ -9669,7 +9684,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="str">
         <f t="shared" si="3"/>
         <v>Griffin Gaim</v>
@@ -9684,7 +9699,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="str">
         <f t="shared" si="3"/>
         <v>Carter Fong</v>
@@ -9699,7 +9714,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="str">
         <f t="shared" si="3"/>
         <v>Simon Finkelstein</v>
@@ -9714,7 +9729,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="str">
         <f t="shared" si="3"/>
         <v>James Filoteo</v>
@@ -9729,7 +9744,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="str">
         <f t="shared" si="3"/>
         <v>Antonio Fernandez</v>
@@ -9744,7 +9759,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="str">
         <f t="shared" si="3"/>
         <v>James Fernandez</v>
@@ -9759,7 +9774,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="str">
         <f t="shared" si="3"/>
         <v>Jun Feng</v>
@@ -9774,7 +9789,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="str">
         <f t="shared" si="3"/>
         <v>Boris Feinberg</v>
@@ -9789,7 +9804,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="str">
         <f t="shared" ref="A257:A315" si="4">CONCATENATE(C257," ",D257)</f>
         <v>Jose Fedorov</v>
@@ -9804,7 +9819,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="str">
         <f t="shared" si="4"/>
         <v>Jesus Espinoza</v>
@@ -9819,7 +9834,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="str">
         <f t="shared" si="4"/>
         <v>Wendy Espeleta</v>
@@ -9834,7 +9849,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="str">
         <f t="shared" si="4"/>
         <v>Chenyi Escudero</v>
@@ -9849,7 +9864,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="str">
         <f t="shared" si="4"/>
         <v>Alysha Escobar</v>
@@ -9864,7 +9879,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="str">
         <f t="shared" si="4"/>
         <v>Carter Erdickoff</v>
@@ -9879,7 +9894,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="str">
         <f t="shared" si="4"/>
         <v>Jarelly Embry Louden</v>
@@ -9894,7 +9909,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="str">
         <f t="shared" si="4"/>
         <v>Austin-Jilles Eguilos</v>
@@ -9909,7 +9924,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="str">
         <f t="shared" si="4"/>
         <v>Corye Duman</v>
@@ -9924,7 +9939,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="str">
         <f t="shared" si="4"/>
         <v>Michael Driscoll</v>
@@ -9939,7 +9954,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="str">
         <f t="shared" si="4"/>
         <v>James Drayton-Yee</v>
@@ -9954,7 +9969,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="str">
         <f t="shared" si="4"/>
         <v>Tenzin Dong</v>
@@ -9969,7 +9984,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="str">
         <f t="shared" si="4"/>
         <v>Christian Doi</v>
@@ -9984,7 +9999,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="str">
         <f t="shared" si="4"/>
         <v>Alan Diaz</v>
@@ -9999,7 +10014,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="str">
         <f t="shared" si="4"/>
         <v>Tenzin Del Toro</v>
@@ -10014,7 +10029,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="str">
         <f t="shared" si="4"/>
         <v>Peter DaMoade</v>
@@ -10029,7 +10044,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="str">
         <f t="shared" si="4"/>
         <v>Tazeen Cooper</v>
@@ -10044,7 +10059,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="str">
         <f t="shared" si="4"/>
         <v>Allison Cooper</v>
@@ -10059,7 +10074,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="str">
         <f t="shared" si="4"/>
         <v>Juan Cook</v>
@@ -10074,7 +10089,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="str">
         <f t="shared" si="4"/>
         <v>Sandra Contreras</v>
@@ -10089,7 +10104,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="str">
         <f t="shared" si="4"/>
         <v>Alejandro Condori</v>
@@ -10104,7 +10119,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="str">
         <f t="shared" si="4"/>
         <v>Ehab Cisek</v>
@@ -10119,7 +10134,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="str">
         <f t="shared" si="4"/>
         <v>Dimitri Chuck</v>
@@ -10134,7 +10149,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="str">
         <f t="shared" si="4"/>
         <v>Tanesha Christman</v>
@@ -10149,7 +10164,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="str">
         <f t="shared" si="4"/>
         <v>Branden Chow</v>
@@ -10164,7 +10179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="str">
         <f t="shared" si="4"/>
         <v>Charlie Cherry</v>
@@ -10179,7 +10194,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="str">
         <f t="shared" si="4"/>
         <v>Wilbur Cherg</v>
@@ -10194,7 +10209,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="str">
         <f t="shared" si="4"/>
         <v>Peter Chen</v>
@@ -10209,7 +10224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="str">
         <f t="shared" si="4"/>
         <v>Scott Chen</v>
@@ -10224,7 +10239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="str">
         <f t="shared" si="4"/>
         <v>Ana Caton</v>
@@ -10239,7 +10254,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="str">
         <f t="shared" si="4"/>
         <v>Emily Castellanos</v>
@@ -10254,7 +10269,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="str">
         <f t="shared" si="4"/>
         <v>Joshu Carrillo</v>
@@ -10269,7 +10284,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="str">
         <f t="shared" si="4"/>
         <v>Jasmine Calva</v>
@@ -10284,7 +10299,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="str">
         <f t="shared" si="4"/>
         <v>Allen Cacho</v>
@@ -10299,7 +10314,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="str">
         <f t="shared" si="4"/>
         <v>Taylor Burns</v>
@@ -10314,7 +10329,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="str">
         <f t="shared" si="4"/>
         <v>Pedro Budker</v>
@@ -10329,7 +10344,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="str">
         <f t="shared" si="4"/>
         <v>James Bruce</v>
@@ -10344,7 +10359,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="str">
         <f t="shared" si="4"/>
         <v>Bryce Brown</v>
@@ -10359,7 +10374,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="str">
         <f t="shared" si="4"/>
         <v>Jennifer Bonilla</v>
@@ -10374,7 +10389,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="str">
         <f t="shared" si="4"/>
         <v>Kobe Bolanos</v>
@@ -10389,7 +10404,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="str">
         <f t="shared" si="4"/>
         <v>Chris Blendstrup</v>
@@ -10404,7 +10419,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="str">
         <f t="shared" si="4"/>
         <v>Karina Bishop</v>
@@ -10419,7 +10434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="str">
         <f t="shared" si="4"/>
         <v>Reejan Beverly</v>
@@ -10434,7 +10449,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="str">
         <f t="shared" si="4"/>
         <v>Alan Becerra</v>
@@ -10449,7 +10464,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="str">
         <f t="shared" si="4"/>
         <v>Huiyun Battas</v>
@@ -10464,7 +10479,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="str">
         <f t="shared" si="4"/>
         <v>Noah Bassak</v>
@@ -10479,7 +10494,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="str">
         <f t="shared" si="4"/>
         <v>Ian Bartlett</v>
@@ -10494,7 +10509,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="str">
         <f t="shared" si="4"/>
         <v>Jocelyn Bao</v>
@@ -10509,7 +10524,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="str">
         <f t="shared" si="4"/>
         <v>Hannalei Banevicius</v>
@@ -10524,7 +10539,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="str">
         <f t="shared" si="4"/>
         <v>Eduardo Balonos</v>
@@ -10539,7 +10554,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="str">
         <f t="shared" si="4"/>
         <v>Hank Badalyan</v>
@@ -10554,7 +10569,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="str">
         <f t="shared" si="4"/>
         <v>Weicheng Baba</v>
@@ -10569,7 +10584,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="str">
         <f t="shared" si="4"/>
         <v>Thomas Avelar-Lopez</v>
@@ -10584,7 +10599,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="str">
         <f t="shared" si="4"/>
         <v>Jonathan Ashraf</v>
@@ -10599,7 +10614,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="str">
         <f t="shared" si="4"/>
         <v>Jessica Arciga</v>
@@ -10614,7 +10629,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="str">
         <f t="shared" si="4"/>
         <v>Deliliah Alonso</v>
@@ -10629,7 +10644,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="str">
         <f t="shared" si="4"/>
         <v>Cesar Alcala</v>
@@ -10644,7 +10659,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="str">
         <f t="shared" si="4"/>
         <v>Vera Aguilar</v>
@@ -10659,7 +10674,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="str">
         <f t="shared" si="4"/>
         <v>Carlos Aguayo</v>
@@ -10674,23 +10689,23 @@
         <v>578</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C321" s="1"/>
     </row>
   </sheetData>
@@ -10710,17 +10725,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.7890625" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>819</v>
       </c>
@@ -10728,7 +10743,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>820</v>
       </c>
@@ -10736,7 +10751,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>340</v>
       </c>
@@ -10744,7 +10759,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>814</v>
       </c>
@@ -10752,7 +10767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>353</v>
       </c>
@@ -10760,7 +10775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -10768,7 +10783,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
         <v>343</v>
       </c>
@@ -10776,7 +10791,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
         <v>821</v>
       </c>
@@ -10784,7 +10799,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
         <v>342</v>
       </c>
@@ -10792,7 +10807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
         <v>811</v>
       </c>
@@ -10800,7 +10815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>824</v>
       </c>
@@ -10808,7 +10823,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>822</v>
       </c>
@@ -10816,7 +10831,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
         <v>823</v>
       </c>
@@ -10824,15 +10839,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
         <v>359</v>
       </c>
       <c r="B14">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>361</v>
       </c>
@@ -10840,7 +10855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>360</v>
       </c>
@@ -10848,7 +10863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>817</v>
       </c>
@@ -10856,7 +10871,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>815</v>
       </c>
@@ -10864,7 +10879,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>816</v>
       </c>
@@ -10872,7 +10887,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>810</v>
       </c>
@@ -10880,7 +10895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
         <v>825</v>
       </c>
@@ -10888,7 +10903,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>813</v>
       </c>
@@ -10896,7 +10911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
         <v>818</v>
       </c>
@@ -10904,7 +10919,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
         <v>812</v>
       </c>
@@ -10929,16 +10944,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>860</v>
       </c>
@@ -10946,11 +10961,10 @@
         <v>0.1</v>
       </c>
       <c r="C1">
-        <f t="shared" ref="C1:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>861</v>
       </c>
@@ -10958,11 +10972,11 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>862</v>
       </c>
@@ -10971,10 +10985,10 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>863</v>
       </c>
@@ -10983,10 +10997,10 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>864</v>
       </c>
@@ -10995,10 +11009,10 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>865</v>
       </c>
@@ -11007,10 +11021,10 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>866</v>
       </c>
@@ -11019,10 +11033,10 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>867</v>
       </c>
@@ -11031,10 +11045,10 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>868</v>
       </c>
@@ -11043,10 +11057,10 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>869</v>
       </c>
@@ -11055,10 +11069,10 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>870</v>
       </c>
@@ -11067,10 +11081,10 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>871</v>
       </c>
@@ -11079,10 +11093,10 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>872</v>
       </c>
@@ -11091,10 +11105,10 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>873</v>
       </c>
@@ -11105,7 +11119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>874</v>
       </c>
@@ -11114,10 +11128,10 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>875</v>
       </c>
@@ -11126,10 +11140,10 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>876</v>
       </c>
@@ -11138,10 +11152,10 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>877</v>
       </c>
@@ -11150,10 +11164,10 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>878</v>
       </c>
@@ -11162,10 +11176,10 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>879</v>
       </c>
@@ -11174,10 +11188,10 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>880</v>
       </c>
@@ -11186,10 +11200,10 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>882</v>
       </c>
@@ -11198,10 +11212,10 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>881</v>
       </c>
@@ -11210,10 +11224,10 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>883</v>
       </c>
@@ -11222,10 +11236,10 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>884</v>
       </c>
@@ -11236,7 +11250,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>885</v>
       </c>
@@ -11245,10 +11259,10 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>886</v>
       </c>
@@ -11257,10 +11271,10 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>887</v>
       </c>
@@ -11269,10 +11283,10 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>888</v>
       </c>
@@ -11281,10 +11295,10 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>889</v>
       </c>
@@ -11292,11 +11306,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>890</v>
       </c>
@@ -11305,10 +11318,10 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>891</v>
       </c>
@@ -11317,10 +11330,10 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>892</v>
       </c>
@@ -11329,10 +11342,10 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>893</v>
       </c>
@@ -11341,10 +11354,10 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>894</v>
       </c>
@@ -11353,10 +11366,10 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>895</v>
       </c>
@@ -11365,10 +11378,10 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>896</v>
       </c>
@@ -11376,11 +11389,10 @@
         <v>15</v>
       </c>
       <c r="C37">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>897</v>
       </c>
@@ -11389,10 +11401,10 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>898</v>
       </c>
@@ -11401,10 +11413,10 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>899</v>
       </c>
@@ -11413,10 +11425,10 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>900</v>
       </c>
@@ -11425,10 +11437,10 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>901</v>
       </c>
@@ -11437,10 +11449,10 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>902</v>
       </c>
@@ -11449,10 +11461,10 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>903</v>
       </c>
@@ -11461,10 +11473,10 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>904</v>
       </c>
@@ -11473,10 +11485,10 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>905</v>
       </c>
@@ -11485,10 +11497,10 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>906</v>
       </c>
@@ -11497,10 +11509,10 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>907</v>
       </c>
@@ -11509,10 +11521,10 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>908</v>
       </c>
@@ -11521,10 +11533,10 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>909</v>
       </c>
@@ -11535,7 +11547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>910</v>
       </c>
@@ -11544,10 +11556,10 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>911</v>
       </c>
@@ -11556,10 +11568,10 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>912</v>
       </c>
@@ -11568,10 +11580,10 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>913</v>
       </c>
@@ -11580,10 +11592,10 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>914</v>
       </c>
@@ -11592,10 +11604,10 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>915</v>
       </c>
@@ -11617,15 +11629,15 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>826</v>
       </c>
@@ -11633,7 +11645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>827</v>
       </c>
@@ -11641,7 +11653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>828</v>
       </c>
@@ -11649,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -11657,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>830</v>
       </c>
@@ -11665,7 +11677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>831</v>
       </c>
@@ -11673,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>832</v>
       </c>
@@ -11681,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>833</v>
       </c>
@@ -11689,7 +11701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>834</v>
       </c>
@@ -11697,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>835</v>
       </c>
@@ -11705,7 +11717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>836</v>
       </c>
@@ -11713,7 +11725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>837</v>
       </c>
@@ -11721,7 +11733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>838</v>
       </c>
@@ -11729,15 +11741,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>839</v>
       </c>
       <c r="B14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>840</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>841</v>
       </c>
@@ -11753,7 +11765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -11761,7 +11773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>842</v>
       </c>
@@ -11769,7 +11781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>843</v>
       </c>
@@ -11777,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>844</v>
       </c>
@@ -11785,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>845</v>
       </c>
@@ -11793,7 +11805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>846</v>
       </c>
@@ -11801,7 +11813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>847</v>
       </c>
@@ -11809,7 +11821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>848</v>
       </c>
@@ -11817,7 +11829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>849</v>
       </c>
@@ -11825,7 +11837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>850</v>
       </c>
@@ -11833,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>851</v>
       </c>
@@ -11841,7 +11853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>852</v>
       </c>
@@ -11849,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>853</v>
       </c>
@@ -11857,7 +11869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>854</v>
       </c>
@@ -11865,7 +11877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>855</v>
       </c>
@@ -11873,7 +11885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>856</v>
       </c>
@@ -11881,7 +11893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>857</v>
       </c>
@@ -11889,7 +11901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>858</v>
       </c>
@@ -11897,12 +11909,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>859</v>
       </c>
       <c r="B35">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="57.20703125" customWidth="1"/>
+    <col min="2" max="2" width="20.62890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1" s="10">
+        <v>42130.69259259259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42130.692731481482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="57.62890625" customWidth="1"/>
+    <col min="2" max="2" width="17.62890625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B1" s="10">
+        <v>42130.693518518521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42130.693668981483</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="7"/>
+    <workbookView minimized="1" xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -3169,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4802,8 +4802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5954,7 +5954,7 @@
   <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+      <selection activeCell="B314" sqref="B314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10944,8 +10944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11021,7 +11021,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11152,7 +11152,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11188,7 +11188,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11271,7 +11271,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11354,7 +11354,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11604,7 +11604,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11629,7 +11629,7 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="7"/>
+    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="927">
   <si>
     <t>Berkeley High</t>
   </si>
@@ -2794,6 +2794,27 @@
   </si>
   <si>
     <t>Charles Walston has returned 1 of VEX 393</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has checked out 4 of Clamp</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has returned 2 of Clamp</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has purchased 5 of Limit Switch</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has returned 3 of Limit Switch</t>
+  </si>
+  <si>
+    <t>Julian Patrick</t>
+  </si>
+  <si>
+    <t>Claw Hammer</t>
+  </si>
+  <si>
+    <t>VEX Controller</t>
   </si>
 </sst>
 </file>
@@ -5954,7 +5975,7 @@
   <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="B314" sqref="B314"/>
+      <selection activeCell="A316" sqref="A316:B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10690,7 +10711,12 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B316" s="6"/>
+      <c r="A316" t="s">
+        <v>924</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>809</v>
+      </c>
       <c r="C316" s="6"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10726,7 +10752,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10788,7 +10814,7 @@
         <v>343</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10942,10 +10968,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10973,7 +10999,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10985,7 +11011,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10997,7 +11023,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11009,7 +11035,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11021,7 +11047,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11045,7 +11071,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11057,7 +11083,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11069,7 +11095,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11081,7 +11107,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11093,7 +11119,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11128,7 +11154,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11140,7 +11166,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11152,7 +11178,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11164,7 +11190,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11176,7 +11202,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11188,7 +11214,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11200,7 +11226,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11212,7 +11238,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11224,7 +11250,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11236,7 +11262,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11259,7 +11285,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11271,7 +11297,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11283,7 +11309,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11295,7 +11321,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11318,7 +11344,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11330,7 +11356,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11342,7 +11368,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11354,7 +11380,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11366,7 +11392,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11378,7 +11404,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11401,7 +11427,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11413,7 +11439,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11425,7 +11451,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11437,7 +11463,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11449,7 +11475,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11461,7 +11487,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11473,7 +11499,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11484,8 +11510,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11497,7 +11522,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11509,7 +11534,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11521,7 +11546,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11533,7 +11558,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11556,7 +11581,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11568,7 +11593,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11580,7 +11605,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11592,7 +11617,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11604,7 +11629,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11616,7 +11641,18 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>926</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -11626,10 +11662,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11770,7 +11806,7 @@
         <v>3</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -11915,6 +11951,14 @@
       </c>
       <c r="B35">
         <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>925</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11924,10 +11968,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11952,6 +11996,22 @@
         <v>42130.692731481482</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42131.733229166668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42131.73400462963</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11959,10 +12019,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11987,6 +12047,22 @@
         <v>42130.693668981483</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42131.735960648148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42131.736712962964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="4"/>
+    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="918">
   <si>
     <t>Berkeley High</t>
   </si>
@@ -1053,66 +1053,21 @@
     <t>Luong</t>
   </si>
   <si>
-    <t>Head-Royce</t>
-  </si>
-  <si>
     <t>Arroyo High School</t>
   </si>
   <si>
-    <t>Pinole Valley</t>
-  </si>
-  <si>
     <t>De Anza High School</t>
   </si>
   <si>
     <t>Bishop O'Dowd</t>
   </si>
   <si>
-    <t>Aspire California College Preparatory Academy</t>
-  </si>
-  <si>
-    <t>Community Day School</t>
-  </si>
-  <si>
-    <t>REALM Charter School</t>
-  </si>
-  <si>
     <t>Oakland Arts</t>
   </si>
   <si>
-    <t>Albany High School</t>
-  </si>
-  <si>
-    <t>Encinal High School</t>
-  </si>
-  <si>
-    <t>Alameda Community Learning Center</t>
-  </si>
-  <si>
-    <t>Oakland Technical High School</t>
-  </si>
-  <si>
-    <t>San Lorenzo high school</t>
-  </si>
-  <si>
     <t>Balboa High School</t>
   </si>
   <si>
-    <t>Lighthouse Community Charter School</t>
-  </si>
-  <si>
-    <t>Ralph J. Bunche High School</t>
-  </si>
-  <si>
-    <t>Nea Community Learning Center</t>
-  </si>
-  <si>
-    <t>Berkeley High School</t>
-  </si>
-  <si>
-    <t>El Cerrito High School</t>
-  </si>
-  <si>
     <t>Lionel Wilson College Prep</t>
   </si>
   <si>
@@ -1122,9 +1077,6 @@
     <t>LPS Richmond</t>
   </si>
   <si>
-    <t>Wallenberg High School</t>
-  </si>
-  <si>
     <t>Reginae</t>
   </si>
   <si>
@@ -2815,6 +2767,27 @@
   </si>
   <si>
     <t>VEX Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berkeley High </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Cerrito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighthouse Charter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralph Bunche </t>
+  </si>
+  <si>
+    <t>Wallenberg</t>
   </si>
 </sst>
 </file>
@@ -4823,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4838,985 +4811,985 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
-        <v>Akira Bai</v>
+        <v>Carlos Sanchez</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>339</v>
+        <v>803</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
-        <v>Alejandro Zuniga</v>
+        <f>CONCATENATE(C2," ",D2)</f>
+        <v>Chase Giannini</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>340</v>
+        <v>803</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Alex Liu</v>
+        <f>CONCATENATE(C3," ",D3)</f>
+        <v>John Brkich</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>341</v>
+        <v>803</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexander Yu</v>
+        <f>CONCATENATE(C4," ",D4)</f>
+        <v>Brian Cheng</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>342</v>
+        <v>804</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Andy Chu</v>
+        <f>CONCATENATE(C5," ",D5)</f>
+        <v>Juan Castillo</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>343</v>
+        <v>804</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Anthony Bailey Jr</v>
+        <f>CONCATENATE(C6," ",D6)</f>
+        <v>Sydney McMuldroch</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>343</v>
+        <v>804</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Arismel Tena</v>
+        <f>CONCATENATE(C7," ",D7)</f>
+        <v>Alejandro Zuniga</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>344</v>
+        <v>804</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Arnold Martinez</v>
+        <f>CONCATENATE(C8," ",D8)</f>
+        <v>Kenny Zhen</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>345</v>
+        <v>804</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Aurelia Guy</v>
+        <f>CONCATENATE(C9," ",D9)</f>
+        <v>Matthew Naranjo</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>346</v>
+        <v>804</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>Baladitya Yellapragada</v>
+        <f>CONCATENATE(C10," ",D10)</f>
+        <v>Arismel Tena</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>345</v>
+        <v>798</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>Ben Sheff</v>
+        <f>CONCATENATE(C11," ",D11)</f>
+        <v>Eduardo Garibay</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>347</v>
+        <v>798</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>262</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>Brian Cheng</v>
+        <f>CONCATENATE(C12," ",D12)</f>
+        <v>Hermilo Ibarra-Andrade</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>348</v>
+        <v>798</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Brian Kim</v>
+        <f>CONCATENATE(C13," ",D13)</f>
+        <v>Nicholas Entress</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>349</v>
+        <v>798</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Carlos Sanchez</v>
+        <f>CONCATENATE(C14," ",D14)</f>
+        <v>Cristian Rodriguez</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Charelston Chua</v>
+        <f>CONCATENATE(C15," ",D15)</f>
+        <v>Rosalba Rodriguez</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Chase Giannini</v>
+        <f>CONCATENATE(C16," ",D16)</f>
+        <v>Hershal Patel</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>350</v>
+        <v>911</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Christopher Wong</v>
+        <f>CONCATENATE(C17," ",D17)</f>
+        <v>Rafayel Mkrtchyan</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>341</v>
+        <v>911</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>Clancy Lee</v>
+        <f>CONCATENATE(C18," ",D18)</f>
+        <v>Tatevik Stepanyan</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>352</v>
+        <v>911</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>Cristian Rodriguez</v>
+        <f>CONCATENATE(C19," ",D19)</f>
+        <v>Andy Chu</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>Crystal Rubalcava</v>
+        <f>CONCATENATE(C20," ",D20)</f>
+        <v>Anthony Bailey Jr</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>Debleena Sengupta</v>
+        <f>CONCATENATE(C21," ",D21)</f>
+        <v>Matthew Cline</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>Dylan Dove</v>
+        <f>CONCATENATE(C22," ",D22)</f>
+        <v>Arnold Martinez</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>355</v>
+        <v>912</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>Eduardo Garibay</v>
+        <f>CONCATENATE(C23," ",D23)</f>
+        <v>Baladitya Yellapragada</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>344</v>
+        <v>912</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>Emily Jensen</v>
+        <f>CONCATENATE(C24," ",D24)</f>
+        <v>Greta` Huang</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>356</v>
+        <v>912</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>Greta` Huang</v>
+        <f>CONCATENATE(C25," ",D25)</f>
+        <v>Alexander Yu</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>Guangzhao (Philip) Yang</v>
+        <f>CONCATENATE(C26," ",D26)</f>
+        <v>Kavya Madhavan</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>Gurdit Chahal</v>
+        <f>CONCATENATE(C27," ",D27)</f>
+        <v>Pinxiu Gong</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>Harshali Wadge</v>
+        <f>CONCATENATE(C28," ",D28)</f>
+        <v>Ian McLaughlin</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>351</v>
+        <v>913</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>Hermilo Ibarra-Andrade</v>
+        <f>CONCATENATE(C29," ",D29)</f>
+        <v>Samuel Heinz</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>344</v>
+        <v>913</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>Hershal Patel</v>
+        <f>CONCATENATE(C30," ",D30)</f>
+        <v>William Luong</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>357</v>
+        <v>913</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>188</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>Hurui Kifle</v>
+        <f>CONCATENATE(C31," ",D31)</f>
+        <v>Brian Kim</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>346</v>
+        <v>793</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>Huu Pham</v>
+        <f>CONCATENATE(C32," ",D32)</f>
+        <v>Debleena Sengupta</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>347</v>
+        <v>793</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>Ian McLaughlin</v>
+        <f>CONCATENATE(C33," ",D33)</f>
+        <v>Kyungna Kim</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>358</v>
+        <v>793</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>Ian Eigl</v>
+        <f>CONCATENATE(C34," ",D34)</f>
+        <v>Phillip Downey</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>355</v>
+        <v>806</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>Jaime Pimentel</v>
+        <f>CONCATENATE(C35," ",D35)</f>
+        <v>Akira Bai</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>359</v>
+        <v>806</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>James Freret</v>
+        <f>CONCATENATE(C36," ",D36)</f>
+        <v>Vineet Jagadeesan Nair</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>347</v>
+        <v>806</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>Jennifer Garcia</v>
+        <f>CONCATENATE(C37," ",D37)</f>
+        <v>Crystal Rubalcava</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>356</v>
+        <v>914</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>Jesse Paterson</v>
+        <f>CONCATENATE(C38," ",D38)</f>
+        <v>Lindsey Hernandez</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>351</v>
+        <v>914</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>John Brkich</v>
+        <f>CONCATENATE(C39," ",D39)</f>
+        <v>Mandy Li</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>350</v>
+        <v>914</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>Juan Castillo</v>
+        <f>CONCATENATE(C40," ",D40)</f>
+        <v>Peter Nguyen</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>348</v>
+        <v>914</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>Kavya Madhavan</v>
+        <f>CONCATENATE(C41," ",D41)</f>
+        <v>Jaime Pimentel</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>Kenny Zhen</v>
+        <f>CONCATENATE(C42," ",D42)</f>
+        <v>Kevin Durand</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevin Durand</v>
+        <f>CONCATENATE(C43," ",D43)</f>
+        <v>Wing Chuen Lam</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>294</v>
+        <v>344</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>Kevin Lee</v>
+        <f>CONCATENATE(C44," ",D44)</f>
+        <v>Kyle Archer</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>Kyle Archer</v>
+        <f>CONCATENATE(C45," ",D45)</f>
+        <v>Mark Tegio</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>Kyungna Kim</v>
+        <f>CONCATENATE(C46," ",D46)</f>
+        <v>Mimi Parker</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>Lindsey Hernandez</v>
+        <f>CONCATENATE(C47," ",D47)</f>
+        <v>Kevin Lee</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>Lucas Medino</v>
+        <f>CONCATENATE(C48," ",D48)</f>
+        <v>Rachel Ieda</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>Maliena Guy</v>
+        <f>CONCATENATE(C49," ",D49)</f>
+        <v>Sam Harris</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>Mandy Li</v>
+        <f>CONCATENATE(C50," ",D50)</f>
+        <v>Urvashi Betarbet</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>8</v>
+        <v>334</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>88</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>Mark Tegio</v>
+        <f>CONCATENATE(C51," ",D51)</f>
+        <v>Emily Jensen</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>361</v>
+        <v>801</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>Matthew Naranjo</v>
+        <f>CONCATENATE(C52," ",D52)</f>
+        <v>Gurdit Chahal</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>340</v>
+        <v>801</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>Matthew Cline</v>
+        <f>CONCATENATE(C53," ",D53)</f>
+        <v>Jennifer Garcia</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>343</v>
+        <v>801</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>Micah Lyle</v>
+        <f>CONCATENATE(C54," ",D54)</f>
+        <v>Ben Sheff</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>Mimi Parker</v>
+        <f>CONCATENATE(C55," ",D55)</f>
+        <v>Huu Pham</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>Nicholas Entress</v>
+        <f>CONCATENATE(C56," ",D56)</f>
+        <v>James Freret</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>Peter Nguyen</v>
+        <f>CONCATENATE(C57," ",D57)</f>
+        <v>Charelston Chua</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>354</v>
+        <v>800</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>Phillip Downey</v>
+        <f>CONCATENATE(C58," ",D58)</f>
+        <v>Harshali Wadge</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>339</v>
+        <v>800</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>Pinxiu Gong</v>
+        <f>CONCATENATE(C59," ",D59)</f>
+        <v>Jesse Paterson</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>Rachel Ieda</v>
+        <f>CONCATENATE(C60," ",D60)</f>
+        <v>Alex Liu</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>360</v>
+        <v>915</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>Rafayel Mkrtchyan</v>
+        <f>CONCATENATE(C61," ",D61)</f>
+        <v>Christopher Wong</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>357</v>
+        <v>915</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>Ravneet Madaan</v>
+        <f>CONCATENATE(C62," ",D62)</f>
+        <v>Micah Lyle</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>355</v>
+        <v>915</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>Rosalba Rodriguez</v>
+        <f>CONCATENATE(C63," ",D63)</f>
+        <v>Dylan Dove</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>353</v>
+        <v>916</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>Sam Harris</v>
+        <f>CONCATENATE(C64," ",D64)</f>
+        <v>Ian Eigl</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>360</v>
+        <v>916</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>Sam Patrick</v>
+        <f>CONCATENATE(C65," ",D65)</f>
+        <v>Ravneet Madaan</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>346</v>
+        <v>916</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A75" si="1">CONCATENATE(C66," ",D66)</f>
+        <f>CONCATENATE(C66," ",D66)</f>
         <v>Saman Sabeti</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>355</v>
+        <v>916</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>325</v>
@@ -5827,140 +5800,143 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>Samuel Heinz</v>
+        <f>CONCATENATE(C67," ",D67)</f>
+        <v>Aurelia Guy</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>358</v>
+        <v>802</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>Stephen Pereira-Schork</v>
+        <f>CONCATENATE(C68," ",D68)</f>
+        <v>Hurui Kifle</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>362</v>
+        <v>802</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>Sydney McMuldroch</v>
+        <f>CONCATENATE(C69," ",D69)</f>
+        <v>Maliena Guy</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>348</v>
+        <v>802</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>331</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>Tatevik Stepanyan</v>
+        <f>CONCATENATE(C70," ",D70)</f>
+        <v>Sam Patrick</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>357</v>
+        <v>802</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C71," ",D71)</f>
+        <v>Clancy Lee</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="str">
+        <f>CONCATENATE(C72," ",D72)</f>
+        <v>Guangzhao (Philip) Yang</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="str">
+        <f>CONCATENATE(C73," ",D73)</f>
+        <v>Lucas Medino</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="str">
+        <f>CONCATENATE(C74," ",D74)</f>
+        <v>Stephen Pereira-Schork</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="str">
+        <f>CONCATENATE(C75," ",D75)</f>
         <v>Terence Yang</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="B75" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>Urvashi Betarbet</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>Vineet Jagadeesan Nair</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>William Luong</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>Wing Chuen Lam</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:D75">
+    <sortCondition ref="B54"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5974,8 +5950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316:B316"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5988,388 +5964,388 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
         <f>CONCATENATE(C1," ",D1)</f>
-        <v>Gene Zlatev</v>
+        <v>Kevin Lee</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>447</v>
+        <v>293</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>658</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">CONCATENATE(C2," ",D2)</f>
-        <v>Bobbi Zinoman</v>
+        <f>CONCATENATE(C2," ",D2)</f>
+        <v>Brian Lee</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>549</v>
+        <v>245</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>795</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
-        <f t="shared" si="0"/>
-        <v>Griffen Zhu</v>
+        <f>CONCATENATE(C3," ",D3)</f>
+        <v>Kevin Lee</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>487</v>
+        <v>293</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>720</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <f t="shared" si="0"/>
-        <v>Connie Zhou</v>
+        <f>CONCATENATE(C4," ",D4)</f>
+        <v>Andrew Lee</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Joshua Zhou</v>
+        <f>CONCATENATE(C5," ",D5)</f>
+        <v>Benjamin Lee</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>521</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Carissa Zhou</v>
+        <f>CONCATENATE(C6," ",D6)</f>
+        <v>Simon Lee</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>360</v>
+        <v>803</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>418</v>
+        <v>520</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cieara Zhou</v>
+        <f>CONCATENATE(C7," ",D7)</f>
+        <v>Adriana Lazano</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>476</v>
+        <v>373</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Aron Zhang</v>
+        <f>CONCATENATE(C8," ",D8)</f>
+        <v>Kevin Law</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>493</v>
+        <v>293</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>Lennox Zhang</v>
+        <f>CONCATENATE(C9," ",D9)</f>
+        <v>Robert Lavryonova</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>526</v>
+        <v>129</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>William Zhang</v>
+        <f>CONCATENATE(C10," ",D10)</f>
+        <v>HaoYang Latt</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>Frank Zhang</v>
+        <f>CONCATENATE(C11," ",D11)</f>
+        <v>Levi Lara</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>542</v>
+        <v>359</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>Robert Zevallos</v>
+        <f>CONCATENATE(C12," ",D12)</f>
+        <v>Johnny Lander</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>668</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>Fritzgerald Zenner</v>
+        <f>CONCATENATE(C13," ",D13)</f>
+        <v>Hae Landaverde</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>593</v>
+        <v>412</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>Nate Zeng</v>
+        <f>CONCATENATE(C14," ",D14)</f>
+        <v>Dylan Lam</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>409</v>
+        <v>260</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>619</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>Abel Zarza</v>
+        <f>CONCATENATE(C15," ",D15)</f>
+        <v>Kai Lakireddy</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>Juan Yu</v>
+        <f>CONCATENATE(C16," ",D16)</f>
+        <v>Trayvonda Kwasriza</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>287</v>
+        <v>428</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>72</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>Emily Yu</v>
+        <f>CONCATENATE(C17," ",D17)</f>
+        <v>Griffin Kwan</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>72</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>Kenny Yu</v>
+        <f>CONCATENATE(C18," ",D18)</f>
+        <v>James Kudsk</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>361</v>
+        <v>803</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>72</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>Mimi Yip</v>
+        <f>CONCATENATE(C19," ",D19)</f>
+        <v>Simon Finkelstein</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>361</v>
+        <v>804</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>308</v>
+        <v>520</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>690</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>Emanuel Yi</v>
+        <f>CONCATENATE(C20," ",D20)</f>
+        <v>James Filoteo</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>361</v>
+        <v>804</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>452</v>
+        <v>280</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>669</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>John Carlos Yang</v>
+        <f>CONCATENATE(C21," ",D21)</f>
+        <v>Antonio Fernandez</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>515</v>
+        <v>417</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>21</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>Bryan Yang</v>
+        <f>CONCATENATE(C22," ",D22)</f>
+        <v>James Fernandez</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>533</v>
+        <v>280</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>Vytautas Xu</v>
+        <f>CONCATENATE(C23," ",D23)</f>
+        <v>Jun Feng</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>538</v>
+        <v>403</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>198</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>Luka Xie</v>
+        <f>CONCATENATE(C24," ",D24)</f>
+        <v>Boris Feinberg</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>Maite Wu</v>
+        <f>CONCATENATE(C25," ",D25)</f>
+        <v>Jose Fedorov</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>584</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>Lena Wu</v>
+        <f>CONCATENATE(C26," ",D26)</f>
+        <v>Jesus Espinoza</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>584</v>
@@ -6377,4347 +6353,4347 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>Henry Wu</v>
+        <f>CONCATENATE(C27," ",D27)</f>
+        <v>Wendy Espeleta</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>490</v>
+        <v>230</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>584</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>Sara Woods</v>
+        <f>CONCATENATE(C28," ",D28)</f>
+        <v>Chenyi Escudero</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>Michaelangelo Wood</v>
+        <f>CONCATENATE(C29," ",D29)</f>
+        <v>Alysha Escobar</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>712</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrea Wong</v>
+        <f>CONCATENATE(C30," ",D30)</f>
+        <v>Carter Erdickoff</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>367</v>
+        <v>486</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>74</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>Elias Wong</v>
+        <f>CONCATENATE(C31," ",D31)</f>
+        <v>Jarelly Embry Louden</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>408</v>
+        <v>538</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>Michael Wong</v>
+        <f>CONCATENATE(C32," ",D32)</f>
+        <v>Austin-Jilles Eguilos</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>120</v>
+        <v>496</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>74</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>Elson Wong</v>
+        <f>CONCATENATE(C33," ",D33)</f>
+        <v>Corye Duman</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>74</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>Jake Wisherop</v>
+        <f>CONCATENATE(C34," ",D34)</f>
+        <v>Michael Driscoll</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>481</v>
+        <v>120</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>726</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>Michaelangelo Wilson</v>
+        <f>CONCATENATE(C35," ",D35)</f>
+        <v>James Drayton-Yee</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>471</v>
+        <v>280</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
-        <v>Camilia Williams</v>
+        <f>CONCATENATE(C36," ",D36)</f>
+        <v>Tenzin Dong</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
-        <v>Philip White</v>
+        <f>CONCATENATE(C37," ",D37)</f>
+        <v>Christian Doi</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>541</v>
+        <v>354</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>778</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrew Wenzler</v>
+        <f>CONCATENATE(C38," ",D38)</f>
+        <v>Alan Diaz</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>122</v>
+        <v>458</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
-        <v>Conor Wang</v>
+        <f>CONCATENATE(C39," ",D39)</f>
+        <v>Tenzin Del Toro</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>86</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
-        <v>Jesse Wang</v>
+        <f>CONCATENATE(C40," ",D40)</f>
+        <v>Peter DaMoade</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>86</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
-        <v>Maggie Wan</v>
+        <f>CONCATENATE(C41," ",D41)</f>
+        <v>Tazeen Cooper</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
-        <v>Charles Walston</v>
+        <f>CONCATENATE(C42," ",D42)</f>
+        <v>Allison Cooper</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>438</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
-        <v>Roisin Wai</v>
+        <f>CONCATENATE(C43," ",D43)</f>
+        <v>Juan Cook</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>563</v>
+        <v>287</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>183</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
-        <v>Marisa Vojvoda</v>
+        <f>CONCATENATE(C44," ",D44)</f>
+        <v>Sandra Contreras</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>484</v>
+        <v>413</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>716</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
-        <v>Nicholas VanHeuit</v>
+        <f>CONCATENATE(C45," ",D45)</f>
+        <v>Alejandro Condori</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>697</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
-        <v>Aubrey-rose Valva</v>
+        <f>CONCATENATE(C46," ",D46)</f>
+        <v>Ehab Cisek</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>523</v>
+        <v>452</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>765</v>
+        <v>680</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
-        <v>William Valdivia</v>
+        <f>CONCATENATE(C47," ",D47)</f>
+        <v>Dimitri Chuck</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
-        <v>Ethan Unurbaatar</v>
+        <f>CONCATENATE(C48," ",D48)</f>
+        <v>Tanesha Christman</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>359</v>
+        <v>804</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>585</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
-        <v>Jenny Tse</v>
+        <f>CONCATENATE(C49," ",D49)</f>
+        <v>Alycia Teuscher</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
-        <v>Elana Truong</v>
+        <f>CONCATENATE(C50," ",D50)</f>
+        <v>Ricardo Tang</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
-        <v>Jeff Triadi</v>
+        <f>CONCATENATE(C51," ",D51)</f>
+        <v>Harrison Tan</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>631</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
-        <v>Shuxin Tran</v>
+        <f>CONCATENATE(C52," ",D52)</f>
+        <v>Gabrielle Tan</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>411</v>
+        <v>509</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>621</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
-        <v>Tony Tran</v>
+        <f>CONCATENATE(C53," ",D53)</f>
+        <v>Tiffany Tan</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>153</v>
+        <v>398</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>621</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
-        <v>Angelina Tostenson</v>
+        <f>CONCATENATE(C54," ",D54)</f>
+        <v>Georgina Tan</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>436</v>
+        <v>515</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>671</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
-        <v>Osualdo Tom</v>
+        <f>CONCATENATE(C55," ",D55)</f>
+        <v>Jesus Tamayo</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>372</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>460</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
-        <v>Alycia Teuscher</v>
+        <f>CONCATENATE(C56," ",D56)</f>
+        <v>William Sun</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>548</v>
+        <v>173</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>794</v>
+        <v>733</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
-        <v>Ricardo Tang</v>
+        <f>CONCATENATE(C57," ",D57)</f>
+        <v>Spencer Subrayan</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
-        <v>Harrison Tan</v>
+        <f>CONCATENATE(C58," ",D58)</f>
+        <v>Ash Storrs</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>96</v>
+        <v>752</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
-        <v>Gabrielle Tan</v>
+        <f>CONCATENATE(C59," ",D59)</f>
+        <v>Amy Stanfield</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>525</v>
+        <v>360</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>96</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
-        <v>Tiffany Tan</v>
+        <f>CONCATENATE(C60," ",D60)</f>
+        <v>Rigoberto Stacy</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>414</v>
+        <v>504</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>96</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
-        <v>Georgina Tan</v>
+        <f>CONCATENATE(C61," ",D61)</f>
+        <v>Jasmine Nguyen</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
-        <v>Jesus Tamayo</v>
+        <f>CONCATENATE(C62," ",D62)</f>
+        <v>Jaylin Ngo</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
-        <v>William Sun</v>
+        <f>CONCATENATE(C63," ",D63)</f>
+        <v>Fernando Ng</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>173</v>
+        <v>461</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>749</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
-        <v>Spencer Subrayan</v>
+        <f>CONCATENATE(C64," ",D64)</f>
+        <v>Darwin Navarro</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>705</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
-        <v>Ash Storrs</v>
+        <f>CONCATENATE(C65," ",D65)</f>
+        <v>Kyle Nations</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>528</v>
+        <v>12</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>768</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">CONCATENATE(C66," ",D66)</f>
-        <v>Amy Stanfield</v>
+        <f>CONCATENATE(C66," ",D66)</f>
+        <v>Glen Thomas Nagdev</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>588</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
-        <f t="shared" si="1"/>
-        <v>Rigoberto Stacy</v>
+        <f>CONCATENATE(C67," ",D67)</f>
+        <v>Oscar Munoz</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>340</v>
+        <v>798</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>520</v>
+        <v>352</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>762</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
-        <f t="shared" si="1"/>
-        <v>Samuel Soephan</v>
+        <f>CONCATENATE(C68," ",D68)</f>
+        <v>Jennifer Mueller</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>786</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
-        <f t="shared" si="1"/>
-        <v>Tom Smith</v>
+        <f>CONCATENATE(C69," ",D69)</f>
+        <v>Lauren Mubachir</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>681</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
-        <v>Jake Smith</v>
+        <f>CONCATENATE(C70," ",D70)</f>
+        <v>Gustavo Moya</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>681</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
-        <v>Joseph Situ</v>
+        <f>CONCATENATE(C71," ",D71)</f>
+        <v>Henry Morton</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
-        <v>Jayshaun Singleton</v>
+        <f>CONCATENATE(C72," ",D72)</f>
+        <v>Jocelyn Bao</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>364</v>
+        <v>540</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>568</v>
+        <v>785</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
-        <v>Branden Singh</v>
+        <f>CONCATENATE(C73," ",D73)</f>
+        <v>Hannalei Banevicius</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
-        <f t="shared" si="1"/>
-        <v>Elizabeth Singh</v>
+        <f>CONCATENATE(C74," ",D74)</f>
+        <v>Eduardo Balonos</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>530</v>
+        <v>262</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>761</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
-        <v>Lamont Simmons</v>
+        <f>CONCATENATE(C75," ",D75)</f>
+        <v>Hank Badalyan</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
-        <v>Irvin Silverman</v>
+        <f>CONCATENATE(C76," ",D76)</f>
+        <v>Weicheng Baba</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
-        <v>Billy Shutt</v>
+        <f>CONCATENATE(C77," ",D77)</f>
+        <v>Thomas Avelar-Lopez</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>713</v>
+        <v>581</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
-        <v>Lewis Shirozi</v>
+        <f>CONCATENATE(C78," ",D78)</f>
+        <v>Jonathan Ashraf</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>529</v>
+        <v>67</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>769</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
-        <v>Gilberto Shi</v>
+        <f>CONCATENATE(C79," ",D79)</f>
+        <v>Jessica Arciga</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
-        <v>Leila Shalf</v>
+        <f>CONCATENATE(C80," ",D80)</f>
+        <v>Deliliah Alonso</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>465</v>
+        <v>369</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>688</v>
+        <v>580</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
-        <v>Andrea Servin</v>
+        <f>CONCATENATE(C81," ",D81)</f>
+        <v>Cesar Alcala</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
-        <v>Raymond Schooling</v>
+        <f>CONCATENATE(C82," ",D82)</f>
+        <v>Vera Aguilar</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>459</v>
+        <v>368</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>680</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
-        <v>Tony Schniedergers</v>
+        <f>CONCATENATE(C83," ",D83)</f>
+        <v>Carlos Aguayo</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>810</v>
+        <v>343</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>692</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="str">
-        <f t="shared" si="1"/>
-        <v>Macie Schneidinger</v>
+        <f>CONCATENATE(C84," ",D84)</f>
+        <v>Anson Jiang</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>673</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="str">
-        <f t="shared" si="1"/>
-        <v>Jair Saucedo</v>
+        <f>CONCATENATE(C85," ",D85)</f>
+        <v>Claudia Jian</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>607</v>
+        <v>791</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="str">
-        <f t="shared" si="1"/>
-        <v>Tristan Santana</v>
+        <f>CONCATENATE(C86," ",D86)</f>
+        <v>Justice Jackson</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="str">
-        <f t="shared" si="1"/>
-        <v>Giovanni Sanchez</v>
+        <f>CONCATENATE(C87," ",D87)</f>
+        <v>Simon Iliralium</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>378</v>
+        <v>520</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>248</v>
+        <v>759</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="str">
-        <f t="shared" si="1"/>
-        <v>Adan Sanchez</v>
+        <f>CONCATENATE(C88," ",D88)</f>
+        <v>Jackie Ibarra</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>380</v>
+        <v>163</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>248</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="str">
-        <f t="shared" si="1"/>
-        <v>Brissa Ruiz</v>
+        <f>CONCATENATE(C89," ",D89)</f>
+        <v>Jaime Hurt</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>395</v>
+        <v>278</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="str">
-        <f t="shared" si="1"/>
-        <v>Reginae Rue</v>
+        <f>CONCATENATE(C90," ",D90)</f>
+        <v>Joshua Hurley</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>363</v>
+        <v>34</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>567</v>
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="str">
-        <f t="shared" si="1"/>
-        <v>Brandon Rubi</v>
+        <f>CONCATENATE(C91," ",D91)</f>
+        <v>Adrian Hunter</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>194</v>
+        <v>423</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>698</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="str">
-        <f t="shared" si="1"/>
-        <v>Stephanie Rose</v>
+        <f>CONCATENATE(C92," ",D92)</f>
+        <v>Deon Hunt</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="str">
-        <f t="shared" si="1"/>
-        <v>Robert Rosales</v>
+        <f>CONCATENATE(C93," ",D93)</f>
+        <v>Ayanna Hubahib</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>129</v>
+        <v>475</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="str">
-        <f t="shared" si="1"/>
-        <v>Maria Rodriguez Silva</v>
+        <f>CONCATENATE(C94," ",D94)</f>
+        <v>Gabriel Huang</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>605</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="str">
-        <f t="shared" si="1"/>
-        <v>Julia Robertson</v>
+        <f>CONCATENATE(C95," ",D95)</f>
+        <v>Hector Hu</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>677</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
-        <v>Paul Robbins</v>
+        <f>CONCATENATE(C96," ",D96)</f>
+        <v>Victor Hsu</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
-        <v>Manuel Riley</v>
+        <f>CONCATENATE(C97," ",D97)</f>
+        <v>Opal Hilario</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>440</v>
+        <v>363</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>651</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
-        <v>Austin Reed</v>
+        <f>CONCATENATE(C98," ",D98)</f>
+        <v>Erika Herrera-Ross</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
-        <v>Reginald Ranman</v>
+        <f>CONCATENATE(C99," ",D99)</f>
+        <v>Johnny Hernandez</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>693</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
-        <v>Jose Ramos</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>811</v>
+        <f>CONCATENATE(C100," ",D100)</f>
+        <v>Abby Hernandez</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>143</v>
+        <v>537</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>573</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
-        <v>Kai Quale</v>
+        <f>CONCATENATE(C101," ",D101)</f>
+        <v>Thomas Hernandez</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>463</v>
+        <v>370</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>695</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
-        <v>Maya Qiu</v>
+        <f>CONCATENATE(C102," ",D102)</f>
+        <v>Anna Henthorn-Iwane</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
-        <v>Alex Priesto</v>
+        <f>CONCATENATE(C103," ",D103)</f>
+        <v>Billy Henderson</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>237</v>
+        <v>453</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>799</v>
+        <v>686</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
-        <v>Cole Prendergast</v>
+        <f>CONCATENATE(C104," ",D104)</f>
+        <v>Nicholas Heard</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>547</v>
+        <v>310</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>793</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
-        <v>Junior Pratt</v>
+        <f>CONCATENATE(C105," ",D105)</f>
+        <v>Zoe Kidder</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>796</v>
+        <v>723</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
-        <v>Simranjit Poveda</v>
+        <f>CONCATENATE(C106," ",D106)</f>
+        <v>Julian Khadka</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>522</v>
+        <v>175</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>764</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
-        <v>Daniela Portillo</v>
+        <f>CONCATENATE(C107," ",D107)</f>
+        <v>Evan Keohan</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
-        <v>Athorva Pietropooli</v>
+        <f>CONCATENATE(C108," ",D108)</f>
+        <v>Michelle Kelly</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>527</v>
+        <v>397</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>767</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
-        <v>Kelsey Pierce</v>
+        <f>CONCATENATE(C109," ",D109)</f>
+        <v>Jasper Kebade</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>675</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
-        <v>William Piccillo</v>
+        <f>CONCATENATE(C110," ",D110)</f>
+        <v>Emilio Karnik</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>173</v>
+        <v>508</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
-        <v>Sara Phung</v>
+        <f>CONCATENATE(C111," ",D111)</f>
+        <v>Cody Jue</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>410</v>
+        <v>542</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>620</v>
+        <v>787</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
-        <v>Angelina Phoumivong</v>
+        <f>CONCATENATE(C112," ",D112)</f>
+        <v>Vivian Johnstone</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>436</v>
+        <v>550</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>694</v>
+        <v>792</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
-        <v>Christian Pereda</v>
+        <f>CONCATENATE(C113," ",D113)</f>
+        <v>Kevin Johnson</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>645</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
-        <v>Gabriel Peng</v>
+        <f>CONCATENATE(C114," ",D114)</f>
+        <v>Galmandahk Jimenez</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>478</v>
+        <v>361</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>711</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
-        <v>Sarbjot Pedersen</v>
+        <f>CONCATENATE(C115," ",D115)</f>
+        <v>Nick Jimenez</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>812</v>
+        <v>341</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>771</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
-        <v>Tiffany Pareja</v>
+        <f>CONCATENATE(C116," ",D116)</f>
+        <v>Branden Chow</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>623</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
-        <v>Gavin Orla-Bukowski</v>
+        <f>CONCATENATE(C117," ",D117)</f>
+        <v>Charlie Cherry</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>714</v>
+        <v>685</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
-        <v>Minnie Ong</v>
+        <f>CONCATENATE(C118," ",D118)</f>
+        <v>Wilbur Cherg</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
-        <v>Andy Olson</v>
+        <f>CONCATENATE(C119," ",D119)</f>
+        <v>Peter Chen</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>689</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
-        <v>Quiante Olosiman</v>
+        <f>CONCATENATE(C120," ",D120)</f>
+        <v>Scott Chen</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>759</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
-        <v>Raymond Oddone</v>
+        <f>CONCATENATE(C121," ",D121)</f>
+        <v>Ana Caton</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>459</v>
+        <v>805</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
-        <v>Alex Norbu</v>
+        <f>CONCATENATE(C122," ",D122)</f>
+        <v>Andy (Jian Ting) He</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>237</v>
+        <v>388</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>780</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
-        <v>Carlos Nieves</v>
+        <f>CONCATENATE(C123," ",D123)</f>
+        <v>Justin He</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>577</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
-        <v>David Nguyen</v>
+        <f>CONCATENATE(C124," ",D124)</f>
+        <v>Irina Haruyama</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>205</v>
+        <v>489</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>142</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
-        <v>JingJun Nguyen</v>
+        <f>CONCATENATE(C125," ",D125)</f>
+        <v>Madelynn Harper</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>412</v>
+        <v>535</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>142</v>
+        <v>781</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
-        <v>Joshua Nguyen</v>
+        <f>CONCATENATE(C126," ",D126)</f>
+        <v>Cheryll Guitvan</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>34</v>
+        <v>500</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>142</v>
+        <v>742</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
-        <v>Kai Nguyen</v>
+        <f>CONCATENATE(C127," ",D127)</f>
+        <v>Oscar Gonzalez-Perez</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>142</v>
+        <v>556</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
-        <v>Sydney Nguyen</v>
+        <f>CONCATENATE(C128," ",D128)</f>
+        <v>Angelina Gonzalez</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>813</v>
+        <v>340</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>142</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
-        <v>Jasmine Nguyen</v>
+        <f>CONCATENATE(C129," ",D129)</f>
+        <v>Mohammad Gonzalez</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>365</v>
+        <v>501</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>142</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A192" si="2">CONCATENATE(C130," ",D130)</f>
-        <v>Jaylin Ngo</v>
+        <f>CONCATENATE(C130," ",D130)</f>
+        <v>Alexander Gomez</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>655</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
-        <v>Fernando Ng</v>
+        <f>CONCATENATE(C131," ",D131)</f>
+        <v>Jeremy Gomez</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>710</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="str">
-        <f t="shared" si="2"/>
-        <v>Darwin Navarro</v>
+        <f>CONCATENATE(C132," ",D132)</f>
+        <v>Seif Goess</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>604</v>
+        <v>761</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="str">
-        <f t="shared" si="2"/>
-        <v>Kyle Nations</v>
+        <f>CONCATENATE(C133," ",D133)</f>
+        <v>Giovanni Ghiglieri</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="str">
-        <f t="shared" si="2"/>
-        <v>Glen Thomas Nagdev</v>
+        <f>CONCATENATE(C134," ",D134)</f>
+        <v>Enzo Gellman</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
-        <v>Oscar Munoz</v>
+        <f>CONCATENATE(C135," ",D135)</f>
+        <v>Jason Gardner</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>580</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
-        <v>Jennifer Mueller</v>
+        <f>CONCATENATE(C136," ",D136)</f>
+        <v>Jorge Galeana</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>282</v>
+        <v>112</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>672</v>
+        <v>585</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="str">
-        <f t="shared" si="2"/>
-        <v>Lauren Mubachir</v>
+        <f>CONCATENATE(C137," ",D137)</f>
+        <v>Griffin Gaim</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>513</v>
+        <v>59</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>756</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="str">
-        <f t="shared" si="2"/>
-        <v>Gustavo Moya</v>
+        <f>CONCATENATE(C138," ",D138)</f>
+        <v>Carter Fong</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>814</v>
+        <v>340</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>603</v>
+        <v>756</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="str">
-        <f t="shared" si="2"/>
-        <v>Henry Morton</v>
+        <f>CONCATENATE(C139," ",D139)</f>
+        <v>Giovanni Sanchez</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>724</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="str">
-        <f t="shared" si="2"/>
-        <v>Karoline Morgan</v>
+        <f>CONCATENATE(C140," ",D140)</f>
+        <v>Adan Sanchez</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>501</v>
+        <v>364</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>740</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="str">
-        <f t="shared" si="2"/>
-        <v>Ketzia Moreno</v>
+        <f>CONCATENATE(C141," ",D141)</f>
+        <v>Brissa Ruiz</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>451</v>
+        <v>379</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>663</v>
+        <v>590</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="str">
-        <f t="shared" si="2"/>
-        <v>Aelafe Moore</v>
+        <f>CONCATENATE(C142," ",D142)</f>
+        <v>Reginae Rue</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>514</v>
+        <v>347</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>757</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="str">
-        <f t="shared" si="2"/>
-        <v>Janet Montevirgin</v>
+        <f>CONCATENATE(C143," ",D143)</f>
+        <v>Brandon Rubi</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>521</v>
+        <v>194</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>763</v>
+        <v>682</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="str">
-        <f t="shared" si="2"/>
-        <v>Kenyon Mogilewski</v>
+        <f>CONCATENATE(C144," ",D144)</f>
+        <v>Stephanie Rose</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="str">
-        <f t="shared" si="2"/>
-        <v>Wangsen (Stanley) Mitchell</v>
+        <f>CONCATENATE(C145," ",D145)</f>
+        <v>Robert Rosales</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="str">
-        <f t="shared" si="2"/>
-        <v>Patrick Minsky</v>
+        <f>CONCATENATE(C146," ",D146)</f>
+        <v>Maria Rodriguez Silva</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>779</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="str">
-        <f t="shared" si="2"/>
-        <v>Thane Mills</v>
+        <f>CONCATENATE(C147," ",D147)</f>
+        <v>Julia Robertson</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>730</v>
+        <v>661</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="str">
-        <f t="shared" si="2"/>
-        <v>Ryan Micael</v>
+        <f>CONCATENATE(C148," ",D148)</f>
+        <v>Paul Robbins</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>754</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="str">
-        <f t="shared" si="2"/>
-        <v>Ethan Merzenich</v>
+        <f>CONCATENATE(C149," ",D149)</f>
+        <v>Manuel Riley</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="str">
-        <f t="shared" si="2"/>
-        <v>Hana Merino</v>
+        <f>CONCATENATE(C150," ",D150)</f>
+        <v>Austin Reed</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
-        <v>Michelle Mendes</v>
+        <f>CONCATENATE(C151," ",D151)</f>
+        <v>Reginald Ranman</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>770</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
-        <v>Christian Mejia</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>816</v>
+        <f>CONCATENATE(C152," ",D152)</f>
+        <v>Jose Ramos</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>795</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
-        <v>Jonathan Mei</v>
+        <f>CONCATENATE(C153," ",D153)</f>
+        <v>Bryan Yang</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>67</v>
+        <v>517</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>643</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
-        <v>Cristiana McNary</v>
+        <f>CONCATENATE(C154," ",D154)</f>
+        <v>Vytautas Xu</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>785</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
-        <v>Tammy McLoughlin</v>
+        <f>CONCATENATE(C155," ",D155)</f>
+        <v>Luka Xie</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>560</v>
+        <v>430</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>805</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
-        <v>Amit McDonald</v>
+        <f>CONCATENATE(C156," ",D156)</f>
+        <v>Maite Wu</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>497</v>
+        <v>357</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>735</v>
+        <v>568</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
-        <v>Kailash McCaulley</v>
+        <f>CONCATENATE(C157," ",D157)</f>
+        <v>Lena Wu</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>745</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
-        <v>Winnie Maxwell</v>
+        <f>CONCATENATE(C158," ",D158)</f>
+        <v>Henry Wu</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>106</v>
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
-        <v>Gaby Martinez</v>
+        <f>CONCATENATE(C159," ",D159)</f>
+        <v>Sara Woods</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>126</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
-        <v>Samuel Martinez</v>
+        <f>CONCATENATE(C160," ",D160)</f>
+        <v>Michaelangelo Wood</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>167</v>
+        <v>455</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>126</v>
+        <v>696</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
-        <v>Jorge Martinez</v>
+        <f>CONCATENATE(C161," ",D161)</f>
+        <v>Andrea Wong</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>112</v>
+        <v>351</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
-        <v>Admiral Martinee</v>
+        <f>CONCATENATE(C162," ",D162)</f>
+        <v>Elias Wong</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>635</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
-        <v>Adam Martin</v>
+        <f>CONCATENATE(C163," ",D163)</f>
+        <v>Michael Wong</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>552</v>
+        <v>120</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>798</v>
+        <v>74</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
-        <v>Rilhiyah Mart</v>
+        <f>CONCATENATE(C164," ",D164)</f>
+        <v>Elson Wong</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>417</v>
+        <v>545</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>626</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
-        <v>Skylar Marrama</v>
+        <f>CONCATENATE(C165," ",D165)</f>
+        <v>Jake Wisherop</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
-        <v>Charlie Manalo</v>
+        <f>CONCATENATE(C166," ",D166)</f>
+        <v>Michaelangelo Wilson</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
-        <v>Daniel Maddison</v>
+        <f>CONCATENATE(C167," ",D167)</f>
+        <v>Camilia Williams</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>781</v>
+        <v>578</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
-        <v>Kayley Luu</v>
+        <f>CONCATENATE(C168," ",D168)</f>
+        <v>Philip White</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A169" t="str">
-        <f t="shared" si="2"/>
-        <v>Laura Luna</v>
+      <c r="A169" t="s">
+        <v>908</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>792</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
-        <v>Kandace Lui</v>
+        <f>CONCATENATE(C170," ",D170)</f>
+        <v>John Carlos Yang</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>804</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
-        <v>Nuo Lou</v>
+        <f>CONCATENATE(C171," ",D171)</f>
+        <v>Emily Castellanos</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>539</v>
+        <v>75</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>776</v>
+        <v>583</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
-        <v>Walter Lopez</v>
+        <f>CONCATENATE(C172," ",D172)</f>
+        <v>Joshu Carrillo</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
-        <v>Agustin Lopez</v>
+        <f>CONCATENATE(C173," ",D173)</f>
+        <v>Jasmine Calva</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
-        <v>Luis Lopez</v>
+        <f>CONCATENATE(C174," ",D174)</f>
+        <v>Allen Cacho</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
-        <v>Huabin Lodoe</v>
+        <f>CONCATENATE(C175," ",D175)</f>
+        <v>Taylor Burns</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>427</v>
+        <v>23</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
-        <v>Hien Liu</v>
+        <f>CONCATENATE(C176," ",D176)</f>
+        <v>Pedro Budker</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>39</v>
+        <v>771</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
-        <v>Donovan Lira</v>
+        <f>CONCATENATE(C177," ",D177)</f>
+        <v>James Bruce</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>519</v>
+        <v>280</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>760</v>
+        <v>692</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
-        <v>Alex Lintao</v>
+        <f>CONCATENATE(C178," ",D178)</f>
+        <v>Bryce Brown</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
-        <v>Jiani Ligutan</v>
+        <f>CONCATENATE(C179," ",D179)</f>
+        <v>Jennifer Bonilla</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>415</v>
+        <v>282</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>624</v>
+        <v>558</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
-        <v>Michael Liang</v>
+        <f>CONCATENATE(C180," ",D180)</f>
+        <v>Kobe Bolanos</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>676</v>
+        <v>582</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
-        <v>Jeanie Li</v>
+        <f>CONCATENATE(C181," ",D181)</f>
+        <v>Chris Blendstrup</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>88</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
-        <v>Carvell Levi</v>
+        <f>CONCATENATE(C182," ",D182)</f>
+        <v>Karina Bishop</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>375</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
-        <v>Calvin Leung</v>
+        <f>CONCATENATE(C183," ",D183)</f>
+        <v>Reejan Beverly</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>27</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
-        <v>Kevin Lee</v>
+        <f>CONCATENATE(C184," ",D184)</f>
+        <v>Alan Becerra</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>293</v>
+        <v>458</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>115</v>
+        <v>767</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
-        <v>Brian Lee</v>
+        <f>CONCATENATE(C185," ",D185)</f>
+        <v>Huiyun Battas</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>115</v>
+        <v>736</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
-        <v>Kevin Lee</v>
+        <f>CONCATENATE(C186," ",D186)</f>
+        <v>Noah Bassak</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>115</v>
+        <v>705</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
-        <v>Andrew Lee</v>
+        <f>CONCATENATE(C187," ",D187)</f>
+        <v>Ian Bartlett</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>115</v>
+        <v>727</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
-        <v>Benjamin Lee</v>
+        <f>CONCATENATE(C188," ",D188)</f>
+        <v>Andrew Wenzler</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>537</v>
+        <v>122</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>115</v>
+        <v>709</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
-        <v>Simon Lee</v>
+        <f>CONCATENATE(C189," ",D189)</f>
+        <v>Conor Wang</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
-        <v>Adriana Lazano</v>
+        <f>CONCATENATE(C190," ",D190)</f>
+        <v>Jesse Wang</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>602</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
-        <v>Kevin Law</v>
+        <f>CONCATENATE(C191," ",D191)</f>
+        <v>Maggie Wan</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>802</v>
+        <v>617</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
-        <v>Robert Lavryonova</v>
+        <f>CONCATENATE(C192," ",D192)</f>
+        <v>Charles Walston</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>744</v>
+        <v>601</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="str">
-        <f t="shared" ref="A193:A256" si="3">CONCATENATE(C193," ",D193)</f>
-        <v>HaoYang Latt</v>
+        <f>CONCATENATE(C193," ",D193)</f>
+        <v>Roisin Wai</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>425</v>
+        <v>547</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>634</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="str">
-        <f t="shared" si="3"/>
-        <v>Levi Lara</v>
+        <f>CONCATENATE(C194," ",D194)</f>
+        <v>Marisa Vojvoda</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="str">
-        <f t="shared" si="3"/>
-        <v>Johnny Lander</v>
+        <f>CONCATENATE(C195," ",D195)</f>
+        <v>Nicholas VanHeuit</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>434</v>
+        <v>310</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="str">
-        <f t="shared" si="3"/>
-        <v>Hae Landaverde</v>
+        <f>CONCATENATE(C196," ",D196)</f>
+        <v>Aubrey-rose Valva</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>637</v>
+        <v>507</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="str">
-        <f t="shared" si="3"/>
-        <v>Dylan Lam</v>
+        <f>CONCATENATE(C197," ",D197)</f>
+        <v>William Valdivia</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>53</v>
+        <v>649</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
-        <v>Kai Lakireddy</v>
+        <f>CONCATENATE(C198," ",D198)</f>
+        <v>Ethan Unurbaatar</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>742</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
-        <v>Trayvonda Kwasriza</v>
+        <f>CONCATENATE(C199," ",D199)</f>
+        <v>Jenny Tse</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>656</v>
+        <v>790</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
-        <v>Griffin Kwan</v>
+        <f>CONCATENATE(C200," ",D200)</f>
+        <v>Elana Truong</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>59</v>
+        <v>450</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
-        <v>James Kudsk</v>
+        <f>CONCATENATE(C201," ",D201)</f>
+        <v>Jeff Triadi</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>746</v>
+        <v>615</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
-        <v>Zoe Kidder</v>
+        <f>CONCATENATE(C202," ",D202)</f>
+        <v>Shuxin Tran</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>739</v>
+        <v>605</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
-        <v>Julian Khadka</v>
+        <f>CONCATENATE(C203," ",D203)</f>
+        <v>Tony Tran</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
-        <v>Evan Keohan</v>
+        <f>CONCATENATE(C204," ",D204)</f>
+        <v>Angelina Tostenson</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
-        <v>Michelle Kelly</v>
+        <f>CONCATENATE(C205," ",D205)</f>
+        <v>Osualdo Tom</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>622</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="str">
-        <f t="shared" si="3"/>
-        <v>Jasper Kebade</v>
+        <f>CONCATENATE(C206," ",D206)</f>
+        <v>Cieara Zhou</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>753</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="str">
-        <f t="shared" si="3"/>
-        <v>Emilio Karnik</v>
+        <f>CONCATENATE(C207," ",D207)</f>
+        <v>Aron Zhang</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>766</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="str">
-        <f t="shared" si="3"/>
-        <v>Cody Jue</v>
+        <f>CONCATENATE(C208," ",D208)</f>
+        <v>Lennox Zhang</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>558</v>
+        <v>510</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>803</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="str">
-        <f t="shared" si="3"/>
-        <v>Vivian Johnstone</v>
+        <f>CONCATENATE(C209," ",D209)</f>
+        <v>William Zhang</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>566</v>
+        <v>173</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>808</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="str">
-        <f t="shared" si="3"/>
-        <v>Kevin Johnson</v>
+        <f>CONCATENATE(C210," ",D210)</f>
+        <v>Frank Zhang</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>293</v>
+        <v>526</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>618</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="str">
-        <f t="shared" si="3"/>
-        <v>Galmandahk Jimenez</v>
+        <f>CONCATENATE(C211," ",D211)</f>
+        <v>Robert Zevallos</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>589</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="str">
-        <f t="shared" si="3"/>
-        <v>Nick Jimenez</v>
+        <f>CONCATENATE(C212," ",D212)</f>
+        <v>Fritzgerald Zenner</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>509</v>
+        <v>366</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="str">
-        <f t="shared" si="3"/>
-        <v>Anson Jiang</v>
+        <f>CONCATENATE(C213," ",D213)</f>
+        <v>Nate Zeng</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>31</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="str">
-        <f t="shared" si="3"/>
-        <v>Claudia Jian</v>
+        <f>CONCATENATE(C214," ",D214)</f>
+        <v>Abel Zarza</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>565</v>
+        <v>454</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>807</v>
+        <v>687</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
-        <v>Justice Jackson</v>
+        <f>CONCATENATE(C215," ",D215)</f>
+        <v>Juan Yu</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>441</v>
+        <v>287</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>654</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
-        <v>Simon Iliralium</v>
+        <f>CONCATENATE(C216," ",D216)</f>
+        <v>Emily Yu</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>536</v>
+        <v>75</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>775</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
-        <v>Jackie Ibarra</v>
+        <f>CONCATENATE(C217," ",D217)</f>
+        <v>Kenny Yu</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>570</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
-        <v>Jaime Hurt</v>
+        <f>CONCATENATE(C218," ",D218)</f>
+        <v>Mimi Yip</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>582</v>
+        <v>674</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
-        <v>Joshua Hurley</v>
+        <f>CONCATENATE(C219," ",D219)</f>
+        <v>Emanuel Yi</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>34</v>
+        <v>436</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
-        <v>Adrian Hunter</v>
+        <f>CONCATENATE(C220," ",D220)</f>
+        <v>Gene Zlatev</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
-        <v>Deon Hunt</v>
+        <f>CONCATENATE(C221," ",D221)</f>
+        <v>Bobbi Zinoman</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>686</v>
+        <v>779</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
-        <v>Ayanna Hubahib</v>
+        <f>CONCATENATE(C222," ",D222)</f>
+        <v>Griffen Zhu</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
-        <v>Gabriel Huang</v>
+        <f>CONCATENATE(C223," ",D223)</f>
+        <v>Connie Zhou</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>478</v>
+        <v>71</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="str">
-        <f t="shared" si="3"/>
-        <v>Hector Hu</v>
+        <f>CONCATENATE(C224," ",D224)</f>
+        <v>Joshua Zhou</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>555</v>
+        <v>34</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="str">
-        <f t="shared" si="3"/>
-        <v>Victor Hsu</v>
+        <f>CONCATENATE(C225," ",D225)</f>
+        <v>Carissa Zhou</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>610</v>
+        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="str">
-        <f t="shared" si="3"/>
-        <v>Opal Hilario</v>
+        <f>CONCATENATE(C226," ",D226)</f>
+        <v>Jorge Martinez</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>379</v>
+        <v>112</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>591</v>
+        <v>126</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="str">
-        <f t="shared" si="3"/>
-        <v>Erika Herrera-Ross</v>
+        <f>CONCATENATE(C227," ",D227)</f>
+        <v>Admiral Martinee</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>486</v>
+        <v>410</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>719</v>
+        <v>619</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="str">
-        <f t="shared" si="3"/>
-        <v>Johnny Hernandez</v>
+        <f>CONCATENATE(C228," ",D228)</f>
+        <v>Adam Martin</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>434</v>
+        <v>536</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>298</v>
+        <v>782</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="str">
-        <f t="shared" si="3"/>
-        <v>Abby Hernandez</v>
+        <f>CONCATENATE(C229," ",D229)</f>
+        <v>Rilhiyah Mart</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>553</v>
+        <v>401</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>298</v>
+        <v>610</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="str">
-        <f t="shared" si="3"/>
-        <v>Thomas Hernandez</v>
+        <f>CONCATENATE(C230," ",D230)</f>
+        <v>Skylar Marrama</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>298</v>
+        <v>707</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="str">
-        <f t="shared" si="3"/>
-        <v>Anna Henthorn-Iwane</v>
+        <f>CONCATENATE(C231," ",D231)</f>
+        <v>Charlie Manalo</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>499</v>
+        <v>422</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>738</v>
+        <v>632</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="str">
-        <f t="shared" si="3"/>
-        <v>Billy Henderson</v>
+        <f>CONCATENATE(C232," ",D232)</f>
+        <v>Daniel Maddison</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>469</v>
+        <v>114</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>702</v>
+        <v>765</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="str">
-        <f t="shared" si="3"/>
-        <v>Nicholas Heard</v>
+        <f>CONCATENATE(C233," ",D233)</f>
+        <v>Kayley Luu</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="str">
-        <f t="shared" si="3"/>
-        <v>Andy (Jian Ting) He</v>
+        <f>CONCATENATE(C234," ",D234)</f>
+        <v>Laura Luna</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>404</v>
+        <v>22</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>92</v>
+        <v>776</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="str">
-        <f t="shared" si="3"/>
-        <v>Justin He</v>
+        <f>CONCATENATE(C235," ",D235)</f>
+        <v>Kandace Lui</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>92</v>
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="str">
-        <f t="shared" si="3"/>
-        <v>Irina Haruyama</v>
+        <f>CONCATENATE(C236," ",D236)</f>
+        <v>Nuo Lou</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="str">
-        <f t="shared" si="3"/>
-        <v>Madelynn Harper</v>
+        <f>CONCATENATE(C237," ",D237)</f>
+        <v>Walter Lopez</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>342</v>
+        <v>801</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>551</v>
+        <v>355</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>797</v>
+        <v>567</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="str">
-        <f t="shared" si="3"/>
-        <v>Cheryll Guitvan</v>
+        <f>CONCATENATE(C238," ",D238)</f>
+        <v>Karoline Morgan</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
-        <v>Oscar Gonzalez-Perez</v>
+        <f>CONCATENATE(C239," ",D239)</f>
+        <v>Ketzia Moreno</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
-        <v>Angelina Gonzalez</v>
+        <f>CONCATENATE(C240," ",D240)</f>
+        <v>Aelafe Moore</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>646</v>
+        <v>741</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
-        <v>Mohammad Gonzalez</v>
+        <f>CONCATENATE(C241," ",D241)</f>
+        <v>Janet Montevirgin</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>646</v>
+        <v>747</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="str">
-        <f t="shared" si="3"/>
-        <v>Alexander Gomez</v>
+        <f>CONCATENATE(C242," ",D242)</f>
+        <v>Kenyon Mogilewski</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>14</v>
+        <v>469</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="str">
-        <f t="shared" si="3"/>
-        <v>Jeremy Gomez</v>
+        <f>CONCATENATE(C243," ",D243)</f>
+        <v>Wangsen (Stanley) Mitchell</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>503</v>
+        <v>433</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>587</v>
+        <v>645</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="str">
-        <f t="shared" si="3"/>
-        <v>Seif Goess</v>
+        <f>CONCATENATE(C244," ",D244)</f>
+        <v>Patrick Minsky</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>540</v>
+        <v>324</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="str">
-        <f t="shared" si="3"/>
-        <v>Giovanni Ghiglieri</v>
+        <f>CONCATENATE(C245," ",D245)</f>
+        <v>Thane Mills</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>378</v>
+        <v>476</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="str">
-        <f t="shared" si="3"/>
-        <v>Enzo Gellman</v>
+        <f>CONCATENATE(C246," ",D246)</f>
+        <v>Ryan Micael</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D246" s="6" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="str">
-        <f t="shared" si="3"/>
-        <v>Jason Gardner</v>
+        <f>CONCATENATE(C247," ",D247)</f>
+        <v>Ethan Merzenich</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>495</v>
+        <v>358</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>732</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="str">
-        <f t="shared" si="3"/>
-        <v>Jorge Galeana</v>
+        <f>CONCATENATE(C248," ",D248)</f>
+        <v>Hana Merino</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>601</v>
+        <v>766</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="str">
-        <f t="shared" si="3"/>
-        <v>Griffin Gaim</v>
+        <f>CONCATENATE(C249," ",D249)</f>
+        <v>Michelle Mendes</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>59</v>
+        <v>397</v>
       </c>
       <c r="D249" s="6" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="str">
-        <f t="shared" si="3"/>
-        <v>Carter Fong</v>
+        <f>CONCATENATE(C250," ",D250)</f>
+        <v>Christian Mejia</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>342</v>
+        <v>800</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>502</v>
+        <v>354</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>772</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="str">
-        <f t="shared" si="3"/>
-        <v>Simon Finkelstein</v>
+        <f>CONCATENATE(C251," ",D251)</f>
+        <v>Jonathan Mei</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>791</v>
+        <v>627</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="str">
-        <f t="shared" si="3"/>
-        <v>James Filoteo</v>
+        <f>CONCATENATE(C252," ",D252)</f>
+        <v>Cristiana McNary</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>280</v>
+        <v>528</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="str">
-        <f t="shared" si="3"/>
-        <v>Antonio Fernandez</v>
+        <f>CONCATENATE(C253," ",D253)</f>
+        <v>Tammy McLoughlin</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>433</v>
+        <v>544</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>642</v>
+        <v>789</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="str">
-        <f t="shared" si="3"/>
-        <v>James Fernandez</v>
+        <f>CONCATENATE(C254," ",D254)</f>
+        <v>Amit McDonald</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="D254" s="6" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="str">
-        <f t="shared" si="3"/>
-        <v>Jun Feng</v>
+        <f>CONCATENATE(C255," ",D255)</f>
+        <v>Kailash McCaulley</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="D255" s="6" t="s">
-        <v>629</v>
+        <v>729</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="str">
-        <f t="shared" si="3"/>
-        <v>Boris Feinberg</v>
+        <f>CONCATENATE(C256," ",D256)</f>
+        <v>Winnie Maxwell</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="D256" s="6" t="s">
-        <v>750</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="str">
-        <f t="shared" ref="A257:A315" si="4">CONCATENATE(C257," ",D257)</f>
-        <v>Jose Fedorov</v>
+        <f>CONCATENATE(C257," ",D257)</f>
+        <v>Gaby Martinez</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>143</v>
+        <v>350</v>
       </c>
       <c r="D257" s="6" t="s">
-        <v>747</v>
+        <v>126</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="str">
-        <f t="shared" si="4"/>
-        <v>Jesus Espinoza</v>
+        <f>CONCATENATE(C258," ",D258)</f>
+        <v>Samuel Martinez</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>600</v>
+        <v>126</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="str">
-        <f t="shared" si="4"/>
-        <v>Wendy Espeleta</v>
+        <f>CONCATENATE(C259," ",D259)</f>
+        <v>Samuel Soephan</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>660</v>
+        <v>770</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="str">
-        <f t="shared" si="4"/>
-        <v>Chenyi Escudero</v>
+        <f>CONCATENATE(C260," ",D260)</f>
+        <v>Tom Smith</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="str">
-        <f t="shared" si="4"/>
-        <v>Alysha Escobar</v>
+        <f>CONCATENATE(C261," ",D261)</f>
+        <v>Jake Smith</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="str">
-        <f t="shared" si="4"/>
-        <v>Carter Erdickoff</v>
+        <f>CONCATENATE(C262," ",D262)</f>
+        <v>Joseph Situ</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>502</v>
+        <v>407</v>
       </c>
       <c r="D262" s="6" t="s">
-        <v>741</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="str">
-        <f t="shared" si="4"/>
-        <v>Jarelly Embry Louden</v>
+        <f>CONCATENATE(C263," ",D263)</f>
+        <v>Jayshaun Singleton</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>554</v>
+        <v>348</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>800</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="str">
-        <f t="shared" si="4"/>
-        <v>Austin-Jilles Eguilos</v>
+        <f>CONCATENATE(C264," ",D264)</f>
+        <v>Branden Singh</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="D264" s="6" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="str">
-        <f t="shared" si="4"/>
-        <v>Corye Duman</v>
+        <f>CONCATENATE(C265," ",D265)</f>
+        <v>Elizabeth Singh</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="D265" s="6" t="s">
-        <v>789</v>
+        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="str">
-        <f t="shared" si="4"/>
-        <v>Michael Driscoll</v>
+        <f>CONCATENATE(C266," ",D266)</f>
+        <v>Lamont Simmons</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>773</v>
+        <v>690</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="str">
-        <f t="shared" si="4"/>
-        <v>James Drayton-Yee</v>
+        <f>CONCATENATE(C267," ",D267)</f>
+        <v>Irvin Silverman</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>280</v>
+        <v>384</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>683</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="str">
-        <f t="shared" si="4"/>
-        <v>Tenzin Dong</v>
+        <f>CONCATENATE(C268," ",D268)</f>
+        <v>Billy Shutt</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="str">
-        <f t="shared" si="4"/>
-        <v>Christian Doi</v>
+        <f>CONCATENATE(C269," ",D269)</f>
+        <v>Lewis Shirozi</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>370</v>
+        <v>513</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>628</v>
+        <v>753</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="str">
-        <f t="shared" si="4"/>
-        <v>Alan Diaz</v>
+        <f>CONCATENATE(C270," ",D270)</f>
+        <v>Gilberto Shi</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>707</v>
+        <v>595</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="str">
-        <f t="shared" si="4"/>
-        <v>Tenzin Del Toro</v>
+        <f>CONCATENATE(C271," ",D271)</f>
+        <v>Leila Shalf</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D271" s="6" t="s">
-        <v>784</v>
+        <v>672</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="str">
-        <f t="shared" si="4"/>
-        <v>Peter DaMoade</v>
+        <f>CONCATENATE(C272," ",D272)</f>
+        <v>Andrea Servin</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="str">
-        <f t="shared" si="4"/>
-        <v>Tazeen Cooper</v>
+        <f>CONCATENATE(C273," ",D273)</f>
+        <v>Raymond Schooling</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="str">
-        <f t="shared" si="4"/>
-        <v>Allison Cooper</v>
+        <f>CONCATENATE(C274," ",D274)</f>
+        <v>Tony Schniedergers</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>454</v>
+        <v>153</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="str">
-        <f t="shared" si="4"/>
-        <v>Juan Cook</v>
+        <f>CONCATENATE(C275," ",D275)</f>
+        <v>Macie Schneidinger</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>788</v>
+        <v>657</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="str">
-        <f t="shared" si="4"/>
-        <v>Sandra Contreras</v>
+        <f>CONCATENATE(C276," ",D276)</f>
+        <v>Jair Saucedo</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="str">
-        <f t="shared" si="4"/>
-        <v>Alejandro Condori</v>
+        <f>CONCATENATE(C277," ",D277)</f>
+        <v>Tristan Santana</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>235</v>
+        <v>400</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="str">
-        <f t="shared" si="4"/>
-        <v>Ehab Cisek</v>
+        <f>CONCATENATE(C278," ",D278)</f>
+        <v>Gavin Orla-Bukowski</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="str">
-        <f t="shared" si="4"/>
-        <v>Dimitri Chuck</v>
+        <f>CONCATENATE(C279," ",D279)</f>
+        <v>Minnie Ong</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>450</v>
+        <v>391</v>
       </c>
       <c r="D279" s="6" t="s">
-        <v>662</v>
+        <v>600</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="str">
-        <f t="shared" si="4"/>
-        <v>Tanesha Christman</v>
+        <f>CONCATENATE(C280," ",D280)</f>
+        <v>Andy Olson</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>475</v>
+        <v>73</v>
       </c>
       <c r="D280" s="6" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="str">
-        <f t="shared" si="4"/>
-        <v>Branden Chow</v>
+        <f>CONCATENATE(C281," ",D281)</f>
+        <v>Quiante Olosiman</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>109</v>
+        <v>743</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="str">
-        <f t="shared" si="4"/>
-        <v>Charlie Cherry</v>
+        <f>CONCATENATE(C282," ",D282)</f>
+        <v>Raymond Oddone</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>701</v>
+        <v>666</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="str">
-        <f t="shared" si="4"/>
-        <v>Wilbur Cherg</v>
+        <f>CONCATENATE(C283," ",D283)</f>
+        <v>Alex Norbu</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="D283" s="6" t="s">
-        <v>613</v>
+        <v>764</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="str">
-        <f t="shared" si="4"/>
-        <v>Peter Chen</v>
+        <f>CONCATENATE(C284," ",D284)</f>
+        <v>Carlos Nieves</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>9</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="str">
-        <f t="shared" si="4"/>
-        <v>Scott Chen</v>
+        <f>CONCATENATE(C285," ",D285)</f>
+        <v>David Nguyen</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>535</v>
+        <v>205</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="str">
-        <f t="shared" si="4"/>
-        <v>Ana Caton</v>
+        <f>CONCATENATE(C286," ",D286)</f>
+        <v>JingJun Nguyen</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>432</v>
+        <v>917</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>641</v>
+        <v>142</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="str">
-        <f t="shared" si="4"/>
-        <v>Emily Castellanos</v>
+        <f>CONCATENATE(C287," ",D287)</f>
+        <v>Joshua Nguyen</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>822</v>
+        <v>917</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>599</v>
+        <v>142</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="str">
-        <f t="shared" si="4"/>
-        <v>Joshu Carrillo</v>
+        <f>CONCATENATE(C288," ",D288)</f>
+        <v>Kai Nguyen</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>822</v>
+        <v>917</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>614</v>
+        <v>142</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="str">
-        <f t="shared" si="4"/>
-        <v>Jasmine Calva</v>
+        <f>CONCATENATE(C289," ",D289)</f>
+        <v>Sydney Nguyen</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>822</v>
+        <v>917</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>569</v>
+        <v>142</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="str">
-        <f t="shared" si="4"/>
-        <v>Allen Cacho</v>
+        <f>CONCATENATE(C290," ",D290)</f>
+        <v>Agustin Lopez</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>664</v>
+        <v>567</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="str">
-        <f t="shared" si="4"/>
-        <v>Taylor Burns</v>
+        <f>CONCATENATE(C291," ",D291)</f>
+        <v>Luis Lopez</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>653</v>
+        <v>567</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="str">
-        <f t="shared" si="4"/>
-        <v>Pedro Budker</v>
+        <f>CONCATENATE(C292," ",D292)</f>
+        <v>Huabin Lodoe</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>545</v>
+        <v>411</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>787</v>
+        <v>620</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="str">
-        <f t="shared" si="4"/>
-        <v>James Bruce</v>
+        <f>CONCATENATE(C293," ",D293)</f>
+        <v>Hien Liu</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>708</v>
+        <v>39</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="str">
-        <f t="shared" si="4"/>
-        <v>Bryce Brown</v>
+        <f>CONCATENATE(C294," ",D294)</f>
+        <v>Donovan Lira</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>684</v>
+        <v>744</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="str">
-        <f t="shared" si="4"/>
-        <v>Jennifer Bonilla</v>
+        <f>CONCATENATE(C295," ",D295)</f>
+        <v>Alex Lintao</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>574</v>
+        <v>702</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="str">
-        <f t="shared" si="4"/>
-        <v>Kobe Bolanos</v>
+        <f>CONCATENATE(C296," ",D296)</f>
+        <v>Jiani Ligutan</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="str">
-        <f t="shared" si="4"/>
-        <v>Chris Blendstrup</v>
+        <f>CONCATENATE(C297," ",D297)</f>
+        <v>Michael Liang</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>736</v>
+        <v>660</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="str">
-        <f t="shared" si="4"/>
-        <v>Karina Bishop</v>
+        <f>CONCATENATE(C298," ",D298)</f>
+        <v>Jeanie Li</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="str">
-        <f t="shared" si="4"/>
-        <v>Reejan Beverly</v>
+        <f>CONCATENATE(C299," ",D299)</f>
+        <v>Carvell Levi</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>592</v>
+        <v>359</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="str">
-        <f t="shared" si="4"/>
-        <v>Alan Becerra</v>
+        <f>CONCATENATE(C300," ",D300)</f>
+        <v>Calvin Leung</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>783</v>
+        <v>27</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="str">
-        <f t="shared" si="4"/>
-        <v>Huiyun Battas</v>
+        <f>CONCATENATE(C301," ",D301)</f>
+        <v>Kai Quale</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>752</v>
+        <v>679</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="str">
-        <f t="shared" si="4"/>
-        <v>Noah Bassak</v>
+        <f>CONCATENATE(C302," ",D302)</f>
+        <v>Maya Qiu</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="str">
-        <f t="shared" si="4"/>
-        <v>Ian Bartlett</v>
+        <f>CONCATENATE(C303," ",D303)</f>
+        <v>Alex Priesto</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>743</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="str">
-        <f t="shared" si="4"/>
-        <v>Jocelyn Bao</v>
+        <f>CONCATENATE(C304," ",D304)</f>
+        <v>Cole Prendergast</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="str">
-        <f t="shared" si="4"/>
-        <v>Hannalei Banevicius</v>
+        <f>CONCATENATE(C305," ",D305)</f>
+        <v>Junior Pratt</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>534</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="str">
-        <f t="shared" si="4"/>
-        <v>Eduardo Balonos</v>
+        <f>CONCATENATE(C306," ",D306)</f>
+        <v>Simranjit Poveda</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>262</v>
+        <v>506</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>608</v>
+        <v>748</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="str">
-        <f t="shared" si="4"/>
-        <v>Hank Badalyan</v>
+        <f>CONCATENATE(C307," ",D307)</f>
+        <v>Daniela Portillo</v>
       </c>
       <c r="B307" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="C307" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C307" s="6" t="s">
-        <v>483</v>
-      </c>
       <c r="D307" s="6" t="s">
-        <v>715</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="str">
-        <f t="shared" si="4"/>
-        <v>Weicheng Baba</v>
+        <f>CONCATENATE(C308," ",D308)</f>
+        <v>Athorva Pietropooli</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>630</v>
+        <v>751</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="str">
-        <f t="shared" si="4"/>
-        <v>Thomas Avelar-Lopez</v>
+        <f>CONCATENATE(C309," ",D309)</f>
+        <v>Kelsey Pierce</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="str">
-        <f t="shared" si="4"/>
-        <v>Jonathan Ashraf</v>
+        <f>CONCATENATE(C310," ",D310)</f>
+        <v>William Piccillo</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="str">
-        <f t="shared" si="4"/>
-        <v>Jessica Arciga</v>
+        <f>CONCATENATE(C311," ",D311)</f>
+        <v>Sara Phung</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>99</v>
+        <v>394</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="str">
-        <f t="shared" si="4"/>
-        <v>Deliliah Alonso</v>
+        <f>CONCATENATE(C312," ",D312)</f>
+        <v>Angelina Phoumivong</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="str">
-        <f t="shared" si="4"/>
-        <v>Cesar Alcala</v>
+        <f>CONCATENATE(C313," ",D313)</f>
+        <v>Christian Pereda</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="str">
-        <f t="shared" si="4"/>
-        <v>Vera Aguilar</v>
+        <f>CONCATENATE(C314," ",D314)</f>
+        <v>Gabriel Peng</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>384</v>
+        <v>462</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>595</v>
+        <v>695</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="str">
-        <f t="shared" si="4"/>
-        <v>Carlos Aguayo</v>
+        <f>CONCATENATE(C315," ",D315)</f>
+        <v>Sarbjot Pedersen</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>353</v>
+        <v>796</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>247</v>
+        <v>516</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>578</v>
+        <v>755</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A316" t="s">
-        <v>924</v>
+      <c r="A316" t="str">
+        <f>CONCATENATE(C316," ",D316)</f>
+        <v>Tiffany Pareja</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="C316" s="6"/>
+        <v>796</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B317" s="6"/>
@@ -10735,8 +10711,8 @@
       <c r="C321" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B1:D320">
-    <sortCondition descending="1" ref="D1"/>
+  <sortState ref="A1:D321">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -10752,7 +10728,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10763,7 +10739,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="B1">
         <v>250</v>
@@ -10771,7 +10747,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="B2">
         <v>250</v>
@@ -10779,7 +10755,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>250</v>
@@ -10787,7 +10763,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="B4">
         <v>250</v>
@@ -10795,7 +10771,7 @@
     </row>
     <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -10811,7 +10787,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7">
         <v>238</v>
@@ -10819,7 +10795,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="B8">
         <v>250</v>
@@ -10827,7 +10803,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B9">
         <v>250</v>
@@ -10835,7 +10811,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B10">
         <v>250</v>
@@ -10843,7 +10819,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -10851,7 +10827,7 @@
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="B12">
         <v>250</v>
@@ -10859,7 +10835,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="B13">
         <v>250</v>
@@ -10867,7 +10843,7 @@
     </row>
     <row r="14" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B14">
         <v>250</v>
@@ -10875,7 +10851,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B15">
         <v>250</v>
@@ -10883,7 +10859,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B16">
         <v>250</v>
@@ -10891,7 +10867,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="B17">
         <v>250</v>
@@ -10899,7 +10875,7 @@
     </row>
     <row r="18" spans="1:2" ht="14.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="B18">
         <v>250</v>
@@ -10907,7 +10883,7 @@
     </row>
     <row r="19" spans="1:2" ht="17.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="B19">
         <v>250</v>
@@ -10915,7 +10891,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B20">
         <v>250</v>
@@ -10923,7 +10899,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="B21">
         <v>250</v>
@@ -10931,7 +10907,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="B22">
         <v>250</v>
@@ -10939,7 +10915,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="B23">
         <v>250</v>
@@ -10947,7 +10923,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="B24">
         <v>250</v>
@@ -10970,7 +10946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:C57"/>
     </sheetView>
   </sheetViews>
@@ -10981,7 +10957,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -10992,151 +10968,151 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="B3">
         <v>0.05</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="B4">
         <v>0.05</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -11147,127 +11123,127 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -11278,55 +11254,55 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="B28">
         <v>0.05</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="B29">
         <v>0.05</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11337,79 +11313,79 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="B37">
         <v>15</v>
@@ -11420,91 +11396,91 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="B39">
         <v>0.1</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="B42">
         <v>10</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -11515,55 +11491,55 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="B47">
         <v>25</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="B48">
         <v>13</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="B49">
         <v>0.5</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -11574,79 +11550,79 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="B51">
         <v>20</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="B53">
         <v>20</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="B57">
         <v>30</v>
@@ -11675,7 +11651,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="B1">
         <v>6</v>
@@ -11683,7 +11659,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11691,7 +11667,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11699,7 +11675,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11707,7 +11683,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -11715,7 +11691,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11723,7 +11699,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11731,7 +11707,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -11739,7 +11715,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11747,7 +11723,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -11755,7 +11731,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -11763,7 +11739,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11771,7 +11747,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11779,7 +11755,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="B14">
         <v>19</v>
@@ -11787,7 +11763,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -11795,7 +11771,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -11811,7 +11787,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11819,7 +11795,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11827,7 +11803,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11835,7 +11811,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -11843,7 +11819,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -11851,7 +11827,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -11859,7 +11835,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -11867,7 +11843,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -11875,7 +11851,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11883,7 +11859,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -11891,7 +11867,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11899,7 +11875,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -11907,7 +11883,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -11915,7 +11891,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -11923,7 +11899,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -11931,7 +11907,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -11939,7 +11915,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -11947,7 +11923,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -11955,7 +11931,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -11982,7 +11958,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="B1" s="10">
         <v>42130.69259259259</v>
@@ -11990,7 +11966,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="B2" s="10">
         <v>42130.692731481482</v>
@@ -11998,7 +11974,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="B3" s="10">
         <v>42131.733229166668</v>
@@ -12006,7 +11982,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="B4" s="10">
         <v>42131.73400462963</v>
@@ -12033,7 +12009,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="B1" s="10">
         <v>42130.693518518521</v>
@@ -12041,7 +12017,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="B2" s="10">
         <v>42130.693668981483</v>
@@ -12049,7 +12025,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="B3" s="10">
         <v>42131.735960648148</v>
@@ -12057,7 +12033,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="B4" s="10">
         <v>42131.736712962964</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="1"/>
+    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="912">
   <si>
     <t>Berkeley High</t>
   </si>
@@ -2767,24 +2767,6 @@
   </si>
   <si>
     <t>VEX Controller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berkeley High </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Cerrito </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lighthouse Charter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinole </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ralph Bunche </t>
   </si>
   <si>
     <t>Wallenberg</t>
@@ -4796,8 +4778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4810,7 +4792,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
-        <f>CONCATENATE(C1," ",D1)</f>
+        <f t="shared" ref="A1:A32" si="0">CONCATENATE(C1," ",D1)</f>
         <v>Carlos Sanchez</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4825,7 +4807,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f>CONCATENATE(C2," ",D2)</f>
+        <f t="shared" si="0"/>
         <v>Chase Giannini</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4840,7 +4822,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
-        <f>CONCATENATE(C3," ",D3)</f>
+        <f t="shared" si="0"/>
         <v>John Brkich</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4855,7 +4837,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <f>CONCATENATE(C4," ",D4)</f>
+        <f t="shared" si="0"/>
         <v>Brian Cheng</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4870,7 +4852,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
-        <f>CONCATENATE(C5," ",D5)</f>
+        <f t="shared" si="0"/>
         <v>Juan Castillo</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -4885,7 +4867,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
-        <f>CONCATENATE(C6," ",D6)</f>
+        <f t="shared" si="0"/>
         <v>Sydney McMuldroch</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4900,7 +4882,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
-        <f>CONCATENATE(C7," ",D7)</f>
+        <f t="shared" si="0"/>
         <v>Alejandro Zuniga</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4915,7 +4897,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
-        <f>CONCATENATE(C8," ",D8)</f>
+        <f t="shared" si="0"/>
         <v>Kenny Zhen</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -4930,7 +4912,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
-        <f>CONCATENATE(C9," ",D9)</f>
+        <f t="shared" si="0"/>
         <v>Matthew Naranjo</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -4945,7 +4927,7 @@
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
-        <f>CONCATENATE(C10," ",D10)</f>
+        <f t="shared" si="0"/>
         <v>Arismel Tena</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -4960,7 +4942,7 @@
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
-        <f>CONCATENATE(C11," ",D11)</f>
+        <f t="shared" si="0"/>
         <v>Eduardo Garibay</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4975,7 +4957,7 @@
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
-        <f>CONCATENATE(C12," ",D12)</f>
+        <f t="shared" si="0"/>
         <v>Hermilo Ibarra-Andrade</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -4990,7 +4972,7 @@
     </row>
     <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
-        <f>CONCATENATE(C13," ",D13)</f>
+        <f t="shared" si="0"/>
         <v>Nicholas Entress</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5005,7 +4987,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
-        <f>CONCATENATE(C14," ",D14)</f>
+        <f t="shared" si="0"/>
         <v>Cristian Rodriguez</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5020,7 +5002,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f>CONCATENATE(C15," ",D15)</f>
+        <f t="shared" si="0"/>
         <v>Rosalba Rodriguez</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5035,11 +5017,11 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
-        <f>CONCATENATE(C16," ",D16)</f>
+        <f t="shared" si="0"/>
         <v>Hershal Patel</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>187</v>
@@ -5050,11 +5032,11 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
-        <f>CONCATENATE(C17," ",D17)</f>
+        <f t="shared" si="0"/>
         <v>Rafayel Mkrtchyan</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>318</v>
@@ -5065,11 +5047,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
-        <f>CONCATENATE(C18," ",D18)</f>
+        <f t="shared" si="0"/>
         <v>Tatevik Stepanyan</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>332</v>
@@ -5080,7 +5062,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
-        <f>CONCATENATE(C19," ",D19)</f>
+        <f t="shared" si="0"/>
         <v>Andy Chu</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -5095,7 +5077,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
-        <f>CONCATENATE(C20," ",D20)</f>
+        <f t="shared" si="0"/>
         <v>Anthony Bailey Jr</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -5110,7 +5092,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
-        <f>CONCATENATE(C21," ",D21)</f>
+        <f t="shared" si="0"/>
         <v>Matthew Cline</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -5125,11 +5107,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
-        <f>CONCATENATE(C22," ",D22)</f>
+        <f t="shared" si="0"/>
         <v>Arnold Martinez</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>912</v>
+        <v>805</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>125</v>
@@ -5140,11 +5122,11 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
-        <f>CONCATENATE(C23," ",D23)</f>
+        <f t="shared" si="0"/>
         <v>Baladitya Yellapragada</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>912</v>
+        <v>805</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>243</v>
@@ -5155,11 +5137,11 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
-        <f>CONCATENATE(C24," ",D24)</f>
+        <f t="shared" si="0"/>
         <v>Greta` Huang</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>912</v>
+        <v>805</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>265</v>
@@ -5170,7 +5152,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
-        <f>CONCATENATE(C25," ",D25)</f>
+        <f t="shared" si="0"/>
         <v>Alexander Yu</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -5185,7 +5167,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
-        <f>CONCATENATE(C26," ",D26)</f>
+        <f t="shared" si="0"/>
         <v>Kavya Madhavan</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -5200,7 +5182,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
-        <f>CONCATENATE(C27," ",D27)</f>
+        <f t="shared" si="0"/>
         <v>Pinxiu Gong</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -5215,11 +5197,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
-        <f>CONCATENATE(C28," ",D28)</f>
+        <f t="shared" si="0"/>
         <v>Ian McLaughlin</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>913</v>
+        <v>795</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>116</v>
@@ -5230,11 +5212,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
-        <f>CONCATENATE(C29," ",D29)</f>
+        <f t="shared" si="0"/>
         <v>Samuel Heinz</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>913</v>
+        <v>795</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>167</v>
@@ -5245,11 +5227,11 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
-        <f>CONCATENATE(C30," ",D30)</f>
+        <f t="shared" si="0"/>
         <v>William Luong</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>913</v>
+        <v>795</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>173</v>
@@ -5260,7 +5242,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
-        <f>CONCATENATE(C31," ",D31)</f>
+        <f t="shared" si="0"/>
         <v>Brian Kim</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -5275,7 +5257,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
-        <f>CONCATENATE(C32," ",D32)</f>
+        <f t="shared" si="0"/>
         <v>Debleena Sengupta</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -5290,7 +5272,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
-        <f>CONCATENATE(C33," ",D33)</f>
+        <f t="shared" ref="A33:A64" si="1">CONCATENATE(C33," ",D33)</f>
         <v>Kyungna Kim</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -5305,7 +5287,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
-        <f>CONCATENATE(C34," ",D34)</f>
+        <f t="shared" si="1"/>
         <v>Phillip Downey</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -5320,7 +5302,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
-        <f>CONCATENATE(C35," ",D35)</f>
+        <f t="shared" si="1"/>
         <v>Akira Bai</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5335,7 +5317,7 @@
     </row>
     <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
-        <f>CONCATENATE(C36," ",D36)</f>
+        <f t="shared" si="1"/>
         <v>Vineet Jagadeesan Nair</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -5350,11 +5332,11 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
-        <f>CONCATENATE(C37," ",D37)</f>
+        <f t="shared" si="1"/>
         <v>Crystal Rubalcava</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>914</v>
+        <v>807</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>256</v>
@@ -5365,11 +5347,11 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
-        <f>CONCATENATE(C38," ",D38)</f>
+        <f t="shared" si="1"/>
         <v>Lindsey Hernandez</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>914</v>
+        <v>807</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>297</v>
@@ -5380,11 +5362,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
-        <f>CONCATENATE(C39," ",D39)</f>
+        <f t="shared" si="1"/>
         <v>Mandy Li</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>914</v>
+        <v>807</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>8</v>
@@ -5395,11 +5377,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
-        <f>CONCATENATE(C40," ",D40)</f>
+        <f t="shared" si="1"/>
         <v>Peter Nguyen</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>914</v>
+        <v>807</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>312</v>
@@ -5410,7 +5392,7 @@
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
-        <f>CONCATENATE(C41," ",D41)</f>
+        <f t="shared" si="1"/>
         <v>Jaime Pimentel</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -5425,7 +5407,7 @@
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
-        <f>CONCATENATE(C42," ",D42)</f>
+        <f t="shared" si="1"/>
         <v>Kevin Durand</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -5440,7 +5422,7 @@
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
-        <f>CONCATENATE(C43," ",D43)</f>
+        <f t="shared" si="1"/>
         <v>Wing Chuen Lam</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -5455,7 +5437,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
-        <f>CONCATENATE(C44," ",D44)</f>
+        <f t="shared" si="1"/>
         <v>Kyle Archer</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -5470,7 +5452,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
-        <f>CONCATENATE(C45," ",D45)</f>
+        <f t="shared" si="1"/>
         <v>Mark Tegio</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -5485,7 +5467,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
-        <f>CONCATENATE(C46," ",D46)</f>
+        <f t="shared" si="1"/>
         <v>Mimi Parker</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -5500,7 +5482,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
-        <f>CONCATENATE(C47," ",D47)</f>
+        <f t="shared" si="1"/>
         <v>Kevin Lee</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -5515,7 +5497,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
-        <f>CONCATENATE(C48," ",D48)</f>
+        <f t="shared" si="1"/>
         <v>Rachel Ieda</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5530,7 +5512,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
-        <f>CONCATENATE(C49," ",D49)</f>
+        <f t="shared" si="1"/>
         <v>Sam Harris</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -5545,7 +5527,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
-        <f>CONCATENATE(C50," ",D50)</f>
+        <f t="shared" si="1"/>
         <v>Urvashi Betarbet</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -5560,7 +5542,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
-        <f>CONCATENATE(C51," ",D51)</f>
+        <f t="shared" si="1"/>
         <v>Emily Jensen</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5575,7 +5557,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
-        <f>CONCATENATE(C52," ",D52)</f>
+        <f t="shared" si="1"/>
         <v>Gurdit Chahal</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -5590,7 +5572,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
-        <f>CONCATENATE(C53," ",D53)</f>
+        <f t="shared" si="1"/>
         <v>Jennifer Garcia</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -5605,7 +5587,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
-        <f>CONCATENATE(C54," ",D54)</f>
+        <f t="shared" si="1"/>
         <v>Ben Sheff</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -5620,7 +5602,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
-        <f>CONCATENATE(C55," ",D55)</f>
+        <f t="shared" si="1"/>
         <v>Huu Pham</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -5635,7 +5617,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
-        <f>CONCATENATE(C56," ",D56)</f>
+        <f t="shared" si="1"/>
         <v>James Freret</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -5650,7 +5632,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
-        <f>CONCATENATE(C57," ",D57)</f>
+        <f t="shared" si="1"/>
         <v>Charelston Chua</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -5665,7 +5647,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
-        <f>CONCATENATE(C58," ",D58)</f>
+        <f t="shared" si="1"/>
         <v>Harshali Wadge</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -5680,7 +5662,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
-        <f>CONCATENATE(C59," ",D59)</f>
+        <f t="shared" si="1"/>
         <v>Jesse Paterson</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5695,11 +5677,11 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
-        <f>CONCATENATE(C60," ",D60)</f>
+        <f t="shared" si="1"/>
         <v>Alex Liu</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>915</v>
+        <v>794</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>237</v>
@@ -5710,11 +5692,11 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
-        <f>CONCATENATE(C61," ",D61)</f>
+        <f t="shared" si="1"/>
         <v>Christopher Wong</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>915</v>
+        <v>794</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>89</v>
@@ -5725,11 +5707,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
-        <f>CONCATENATE(C62," ",D62)</f>
+        <f t="shared" si="1"/>
         <v>Micah Lyle</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>915</v>
+        <v>794</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>306</v>
@@ -5740,11 +5722,11 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
-        <f>CONCATENATE(C63," ",D63)</f>
+        <f t="shared" si="1"/>
         <v>Dylan Dove</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>260</v>
@@ -5755,11 +5737,11 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
-        <f>CONCATENATE(C64," ",D64)</f>
+        <f t="shared" si="1"/>
         <v>Ian Eigl</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>116</v>
@@ -5770,11 +5752,11 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
-        <f>CONCATENATE(C65," ",D65)</f>
+        <f t="shared" ref="A65:A75" si="2">CONCATENATE(C65," ",D65)</f>
         <v>Ravneet Madaan</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>320</v>
@@ -5785,11 +5767,11 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
-        <f>CONCATENATE(C66," ",D66)</f>
+        <f t="shared" si="2"/>
         <v>Saman Sabeti</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>325</v>
@@ -5800,7 +5782,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
-        <f>CONCATENATE(C67," ",D67)</f>
+        <f t="shared" si="2"/>
         <v>Aurelia Guy</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5815,7 +5797,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
-        <f>CONCATENATE(C68," ",D68)</f>
+        <f t="shared" si="2"/>
         <v>Hurui Kifle</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -5830,7 +5812,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
-        <f>CONCATENATE(C69," ",D69)</f>
+        <f t="shared" si="2"/>
         <v>Maliena Guy</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5845,7 +5827,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
-        <f>CONCATENATE(C70," ",D70)</f>
+        <f t="shared" si="2"/>
         <v>Sam Patrick</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -5860,7 +5842,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
-        <f>CONCATENATE(C71," ",D71)</f>
+        <f t="shared" si="2"/>
         <v>Clancy Lee</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -5875,7 +5857,7 @@
     </row>
     <row r="72" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
-        <f>CONCATENATE(C72," ",D72)</f>
+        <f t="shared" si="2"/>
         <v>Guangzhao (Philip) Yang</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -5890,7 +5872,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
-        <f>CONCATENATE(C73," ",D73)</f>
+        <f t="shared" si="2"/>
         <v>Lucas Medino</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5905,11 +5887,11 @@
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
-        <f>CONCATENATE(C74," ",D74)</f>
+        <f t="shared" si="2"/>
         <v>Stephen Pereira-Schork</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>328</v>
@@ -5920,11 +5902,11 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
-        <f>CONCATENATE(C75," ",D75)</f>
+        <f t="shared" si="2"/>
         <v>Terence Yang</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>44</v>
@@ -5950,8 +5932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D321"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B315" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5963,7 +5945,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="str">
-        <f>CONCATENATE(C1," ",D1)</f>
+        <f t="shared" ref="A1:A32" si="0">CONCATENATE(C1," ",D1)</f>
         <v>Kevin Lee</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5978,7 +5960,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f>CONCATENATE(C2," ",D2)</f>
+        <f t="shared" si="0"/>
         <v>Brian Lee</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5993,7 +5975,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="str">
-        <f>CONCATENATE(C3," ",D3)</f>
+        <f t="shared" si="0"/>
         <v>Kevin Lee</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -6008,7 +5990,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="str">
-        <f>CONCATENATE(C4," ",D4)</f>
+        <f t="shared" si="0"/>
         <v>Andrew Lee</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -6023,7 +6005,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
-        <f>CONCATENATE(C5," ",D5)</f>
+        <f t="shared" si="0"/>
         <v>Benjamin Lee</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -6038,7 +6020,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
-        <f>CONCATENATE(C6," ",D6)</f>
+        <f t="shared" si="0"/>
         <v>Simon Lee</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -6053,7 +6035,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="str">
-        <f>CONCATENATE(C7," ",D7)</f>
+        <f t="shared" si="0"/>
         <v>Adriana Lazano</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6068,7 +6050,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
-        <f>CONCATENATE(C8," ",D8)</f>
+        <f t="shared" si="0"/>
         <v>Kevin Law</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6083,7 +6065,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
-        <f>CONCATENATE(C9," ",D9)</f>
+        <f t="shared" si="0"/>
         <v>Robert Lavryonova</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6098,7 +6080,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
-        <f>CONCATENATE(C10," ",D10)</f>
+        <f t="shared" si="0"/>
         <v>HaoYang Latt</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6113,7 +6095,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="str">
-        <f>CONCATENATE(C11," ",D11)</f>
+        <f t="shared" si="0"/>
         <v>Levi Lara</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6128,7 +6110,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="str">
-        <f>CONCATENATE(C12," ",D12)</f>
+        <f t="shared" si="0"/>
         <v>Johnny Lander</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6143,7 +6125,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
-        <f>CONCATENATE(C13," ",D13)</f>
+        <f t="shared" si="0"/>
         <v>Hae Landaverde</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -6158,7 +6140,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="str">
-        <f>CONCATENATE(C14," ",D14)</f>
+        <f t="shared" si="0"/>
         <v>Dylan Lam</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6173,7 +6155,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="str">
-        <f>CONCATENATE(C15," ",D15)</f>
+        <f t="shared" si="0"/>
         <v>Kai Lakireddy</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6188,7 +6170,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="str">
-        <f>CONCATENATE(C16," ",D16)</f>
+        <f t="shared" si="0"/>
         <v>Trayvonda Kwasriza</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6203,7 +6185,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="str">
-        <f>CONCATENATE(C17," ",D17)</f>
+        <f t="shared" si="0"/>
         <v>Griffin Kwan</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6218,7 +6200,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
-        <f>CONCATENATE(C18," ",D18)</f>
+        <f t="shared" si="0"/>
         <v>James Kudsk</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6233,7 +6215,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="str">
-        <f>CONCATENATE(C19," ",D19)</f>
+        <f t="shared" si="0"/>
         <v>Simon Finkelstein</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6248,7 +6230,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
-        <f>CONCATENATE(C20," ",D20)</f>
+        <f t="shared" si="0"/>
         <v>James Filoteo</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6263,7 +6245,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="str">
-        <f>CONCATENATE(C21," ",D21)</f>
+        <f t="shared" si="0"/>
         <v>Antonio Fernandez</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6278,7 +6260,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
-        <f>CONCATENATE(C22," ",D22)</f>
+        <f t="shared" si="0"/>
         <v>James Fernandez</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6293,7 +6275,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
-        <f>CONCATENATE(C23," ",D23)</f>
+        <f t="shared" si="0"/>
         <v>Jun Feng</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6308,7 +6290,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
-        <f>CONCATENATE(C24," ",D24)</f>
+        <f t="shared" si="0"/>
         <v>Boris Feinberg</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6323,7 +6305,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
-        <f>CONCATENATE(C25," ",D25)</f>
+        <f t="shared" si="0"/>
         <v>Jose Fedorov</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6338,7 +6320,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="str">
-        <f>CONCATENATE(C26," ",D26)</f>
+        <f t="shared" si="0"/>
         <v>Jesus Espinoza</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6353,7 +6335,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="str">
-        <f>CONCATENATE(C27," ",D27)</f>
+        <f t="shared" si="0"/>
         <v>Wendy Espeleta</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -6368,7 +6350,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="str">
-        <f>CONCATENATE(C28," ",D28)</f>
+        <f t="shared" si="0"/>
         <v>Chenyi Escudero</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6383,7 +6365,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="str">
-        <f>CONCATENATE(C29," ",D29)</f>
+        <f t="shared" si="0"/>
         <v>Alysha Escobar</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6398,7 +6380,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="str">
-        <f>CONCATENATE(C30," ",D30)</f>
+        <f t="shared" si="0"/>
         <v>Carter Erdickoff</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6413,7 +6395,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="str">
-        <f>CONCATENATE(C31," ",D31)</f>
+        <f t="shared" si="0"/>
         <v>Jarelly Embry Louden</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6428,7 +6410,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="str">
-        <f>CONCATENATE(C32," ",D32)</f>
+        <f t="shared" si="0"/>
         <v>Austin-Jilles Eguilos</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -6443,7 +6425,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="str">
-        <f>CONCATENATE(C33," ",D33)</f>
+        <f t="shared" ref="A33:A64" si="1">CONCATENATE(C33," ",D33)</f>
         <v>Corye Duman</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -6458,7 +6440,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="str">
-        <f>CONCATENATE(C34," ",D34)</f>
+        <f t="shared" si="1"/>
         <v>Michael Driscoll</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -6473,7 +6455,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="str">
-        <f>CONCATENATE(C35," ",D35)</f>
+        <f t="shared" si="1"/>
         <v>James Drayton-Yee</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -6488,7 +6470,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="str">
-        <f>CONCATENATE(C36," ",D36)</f>
+        <f t="shared" si="1"/>
         <v>Tenzin Dong</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -6503,7 +6485,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="str">
-        <f>CONCATENATE(C37," ",D37)</f>
+        <f t="shared" si="1"/>
         <v>Christian Doi</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6518,7 +6500,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="str">
-        <f>CONCATENATE(C38," ",D38)</f>
+        <f t="shared" si="1"/>
         <v>Alan Diaz</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -6533,7 +6515,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="str">
-        <f>CONCATENATE(C39," ",D39)</f>
+        <f t="shared" si="1"/>
         <v>Tenzin Del Toro</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -6548,7 +6530,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="str">
-        <f>CONCATENATE(C40," ",D40)</f>
+        <f t="shared" si="1"/>
         <v>Peter DaMoade</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -6563,7 +6545,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="str">
-        <f>CONCATENATE(C41," ",D41)</f>
+        <f t="shared" si="1"/>
         <v>Tazeen Cooper</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -6578,7 +6560,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="str">
-        <f>CONCATENATE(C42," ",D42)</f>
+        <f t="shared" si="1"/>
         <v>Allison Cooper</v>
       </c>
       <c r="B42" s="6" t="s">
@@ -6593,7 +6575,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="str">
-        <f>CONCATENATE(C43," ",D43)</f>
+        <f t="shared" si="1"/>
         <v>Juan Cook</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -6608,7 +6590,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="str">
-        <f>CONCATENATE(C44," ",D44)</f>
+        <f t="shared" si="1"/>
         <v>Sandra Contreras</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -6623,7 +6605,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="str">
-        <f>CONCATENATE(C45," ",D45)</f>
+        <f t="shared" si="1"/>
         <v>Alejandro Condori</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -6638,7 +6620,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="str">
-        <f>CONCATENATE(C46," ",D46)</f>
+        <f t="shared" si="1"/>
         <v>Ehab Cisek</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -6653,7 +6635,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="str">
-        <f>CONCATENATE(C47," ",D47)</f>
+        <f t="shared" si="1"/>
         <v>Dimitri Chuck</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -6668,7 +6650,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="str">
-        <f>CONCATENATE(C48," ",D48)</f>
+        <f t="shared" si="1"/>
         <v>Tanesha Christman</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -6683,7 +6665,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="str">
-        <f>CONCATENATE(C49," ",D49)</f>
+        <f t="shared" si="1"/>
         <v>Alycia Teuscher</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -6698,7 +6680,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="str">
-        <f>CONCATENATE(C50," ",D50)</f>
+        <f t="shared" si="1"/>
         <v>Ricardo Tang</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -6713,7 +6695,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="str">
-        <f>CONCATENATE(C51," ",D51)</f>
+        <f t="shared" si="1"/>
         <v>Harrison Tan</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -6728,7 +6710,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="str">
-        <f>CONCATENATE(C52," ",D52)</f>
+        <f t="shared" si="1"/>
         <v>Gabrielle Tan</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -6743,7 +6725,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="str">
-        <f>CONCATENATE(C53," ",D53)</f>
+        <f t="shared" si="1"/>
         <v>Tiffany Tan</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -6758,7 +6740,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="str">
-        <f>CONCATENATE(C54," ",D54)</f>
+        <f t="shared" si="1"/>
         <v>Georgina Tan</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -6773,7 +6755,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="str">
-        <f>CONCATENATE(C55," ",D55)</f>
+        <f t="shared" si="1"/>
         <v>Jesus Tamayo</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -6788,7 +6770,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="str">
-        <f>CONCATENATE(C56," ",D56)</f>
+        <f t="shared" si="1"/>
         <v>William Sun</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -6803,7 +6785,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="str">
-        <f>CONCATENATE(C57," ",D57)</f>
+        <f t="shared" si="1"/>
         <v>Spencer Subrayan</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -6818,7 +6800,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="str">
-        <f>CONCATENATE(C58," ",D58)</f>
+        <f t="shared" si="1"/>
         <v>Ash Storrs</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -6833,7 +6815,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="str">
-        <f>CONCATENATE(C59," ",D59)</f>
+        <f t="shared" si="1"/>
         <v>Amy Stanfield</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -6848,7 +6830,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="str">
-        <f>CONCATENATE(C60," ",D60)</f>
+        <f t="shared" si="1"/>
         <v>Rigoberto Stacy</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -6863,7 +6845,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="str">
-        <f>CONCATENATE(C61," ",D61)</f>
+        <f t="shared" si="1"/>
         <v>Jasmine Nguyen</v>
       </c>
       <c r="B61" s="6" t="s">
@@ -6878,7 +6860,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="str">
-        <f>CONCATENATE(C62," ",D62)</f>
+        <f t="shared" si="1"/>
         <v>Jaylin Ngo</v>
       </c>
       <c r="B62" s="6" t="s">
@@ -6893,7 +6875,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="str">
-        <f>CONCATENATE(C63," ",D63)</f>
+        <f t="shared" si="1"/>
         <v>Fernando Ng</v>
       </c>
       <c r="B63" s="6" t="s">
@@ -6908,7 +6890,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="str">
-        <f>CONCATENATE(C64," ",D64)</f>
+        <f t="shared" si="1"/>
         <v>Darwin Navarro</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -6923,7 +6905,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="str">
-        <f>CONCATENATE(C65," ",D65)</f>
+        <f t="shared" ref="A65:A96" si="2">CONCATENATE(C65," ",D65)</f>
         <v>Kyle Nations</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -6938,7 +6920,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="str">
-        <f>CONCATENATE(C66," ",D66)</f>
+        <f t="shared" si="2"/>
         <v>Glen Thomas Nagdev</v>
       </c>
       <c r="B66" s="6" t="s">
@@ -6953,7 +6935,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="str">
-        <f>CONCATENATE(C67," ",D67)</f>
+        <f t="shared" si="2"/>
         <v>Oscar Munoz</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -6968,7 +6950,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="str">
-        <f>CONCATENATE(C68," ",D68)</f>
+        <f t="shared" si="2"/>
         <v>Jennifer Mueller</v>
       </c>
       <c r="B68" s="6" t="s">
@@ -6983,7 +6965,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="str">
-        <f>CONCATENATE(C69," ",D69)</f>
+        <f t="shared" si="2"/>
         <v>Lauren Mubachir</v>
       </c>
       <c r="B69" s="6" t="s">
@@ -6998,7 +6980,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="str">
-        <f>CONCATENATE(C70," ",D70)</f>
+        <f t="shared" si="2"/>
         <v>Gustavo Moya</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -7013,7 +6995,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="str">
-        <f>CONCATENATE(C71," ",D71)</f>
+        <f t="shared" si="2"/>
         <v>Henry Morton</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -7028,7 +7010,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="str">
-        <f>CONCATENATE(C72," ",D72)</f>
+        <f t="shared" si="2"/>
         <v>Jocelyn Bao</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -7043,7 +7025,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="str">
-        <f>CONCATENATE(C73," ",D73)</f>
+        <f t="shared" si="2"/>
         <v>Hannalei Banevicius</v>
       </c>
       <c r="B73" s="6" t="s">
@@ -7058,7 +7040,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="str">
-        <f>CONCATENATE(C74," ",D74)</f>
+        <f t="shared" si="2"/>
         <v>Eduardo Balonos</v>
       </c>
       <c r="B74" s="6" t="s">
@@ -7073,7 +7055,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="str">
-        <f>CONCATENATE(C75," ",D75)</f>
+        <f t="shared" si="2"/>
         <v>Hank Badalyan</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -7088,7 +7070,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="str">
-        <f>CONCATENATE(C76," ",D76)</f>
+        <f t="shared" si="2"/>
         <v>Weicheng Baba</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -7103,7 +7085,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="str">
-        <f>CONCATENATE(C77," ",D77)</f>
+        <f t="shared" si="2"/>
         <v>Thomas Avelar-Lopez</v>
       </c>
       <c r="B77" s="6" t="s">
@@ -7118,7 +7100,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="str">
-        <f>CONCATENATE(C78," ",D78)</f>
+        <f t="shared" si="2"/>
         <v>Jonathan Ashraf</v>
       </c>
       <c r="B78" s="6" t="s">
@@ -7133,7 +7115,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="str">
-        <f>CONCATENATE(C79," ",D79)</f>
+        <f t="shared" si="2"/>
         <v>Jessica Arciga</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -7148,7 +7130,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="str">
-        <f>CONCATENATE(C80," ",D80)</f>
+        <f t="shared" si="2"/>
         <v>Deliliah Alonso</v>
       </c>
       <c r="B80" s="6" t="s">
@@ -7163,7 +7145,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="str">
-        <f>CONCATENATE(C81," ",D81)</f>
+        <f t="shared" si="2"/>
         <v>Cesar Alcala</v>
       </c>
       <c r="B81" s="6" t="s">
@@ -7178,7 +7160,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="str">
-        <f>CONCATENATE(C82," ",D82)</f>
+        <f t="shared" si="2"/>
         <v>Vera Aguilar</v>
       </c>
       <c r="B82" s="6" t="s">
@@ -7193,7 +7175,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="str">
-        <f>CONCATENATE(C83," ",D83)</f>
+        <f t="shared" si="2"/>
         <v>Carlos Aguayo</v>
       </c>
       <c r="B83" s="6" t="s">
@@ -7208,7 +7190,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="str">
-        <f>CONCATENATE(C84," ",D84)</f>
+        <f t="shared" si="2"/>
         <v>Anson Jiang</v>
       </c>
       <c r="B84" s="6" t="s">
@@ -7223,7 +7205,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="str">
-        <f>CONCATENATE(C85," ",D85)</f>
+        <f t="shared" si="2"/>
         <v>Claudia Jian</v>
       </c>
       <c r="B85" s="6" t="s">
@@ -7238,7 +7220,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="str">
-        <f>CONCATENATE(C86," ",D86)</f>
+        <f t="shared" si="2"/>
         <v>Justice Jackson</v>
       </c>
       <c r="B86" s="6" t="s">
@@ -7253,7 +7235,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="str">
-        <f>CONCATENATE(C87," ",D87)</f>
+        <f t="shared" si="2"/>
         <v>Simon Iliralium</v>
       </c>
       <c r="B87" s="6" t="s">
@@ -7268,7 +7250,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="str">
-        <f>CONCATENATE(C88," ",D88)</f>
+        <f t="shared" si="2"/>
         <v>Jackie Ibarra</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -7283,7 +7265,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="str">
-        <f>CONCATENATE(C89," ",D89)</f>
+        <f t="shared" si="2"/>
         <v>Jaime Hurt</v>
       </c>
       <c r="B89" s="6" t="s">
@@ -7298,7 +7280,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="str">
-        <f>CONCATENATE(C90," ",D90)</f>
+        <f t="shared" si="2"/>
         <v>Joshua Hurley</v>
       </c>
       <c r="B90" s="6" t="s">
@@ -7313,7 +7295,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="str">
-        <f>CONCATENATE(C91," ",D91)</f>
+        <f t="shared" si="2"/>
         <v>Adrian Hunter</v>
       </c>
       <c r="B91" s="6" t="s">
@@ -7328,7 +7310,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="str">
-        <f>CONCATENATE(C92," ",D92)</f>
+        <f t="shared" si="2"/>
         <v>Deon Hunt</v>
       </c>
       <c r="B92" s="6" t="s">
@@ -7343,7 +7325,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="str">
-        <f>CONCATENATE(C93," ",D93)</f>
+        <f t="shared" si="2"/>
         <v>Ayanna Hubahib</v>
       </c>
       <c r="B93" s="6" t="s">
@@ -7358,7 +7340,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="str">
-        <f>CONCATENATE(C94," ",D94)</f>
+        <f t="shared" si="2"/>
         <v>Gabriel Huang</v>
       </c>
       <c r="B94" s="6" t="s">
@@ -7373,7 +7355,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="str">
-        <f>CONCATENATE(C95," ",D95)</f>
+        <f t="shared" si="2"/>
         <v>Hector Hu</v>
       </c>
       <c r="B95" s="6" t="s">
@@ -7388,7 +7370,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="str">
-        <f>CONCATENATE(C96," ",D96)</f>
+        <f t="shared" si="2"/>
         <v>Victor Hsu</v>
       </c>
       <c r="B96" s="6" t="s">
@@ -7403,7 +7385,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="str">
-        <f>CONCATENATE(C97," ",D97)</f>
+        <f t="shared" ref="A97:A128" si="3">CONCATENATE(C97," ",D97)</f>
         <v>Opal Hilario</v>
       </c>
       <c r="B97" s="6" t="s">
@@ -7418,7 +7400,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="str">
-        <f>CONCATENATE(C98," ",D98)</f>
+        <f t="shared" si="3"/>
         <v>Erika Herrera-Ross</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -7433,7 +7415,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="str">
-        <f>CONCATENATE(C99," ",D99)</f>
+        <f t="shared" si="3"/>
         <v>Johnny Hernandez</v>
       </c>
       <c r="B99" s="6" t="s">
@@ -7448,7 +7430,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="str">
-        <f>CONCATENATE(C100," ",D100)</f>
+        <f t="shared" si="3"/>
         <v>Abby Hernandez</v>
       </c>
       <c r="B100" s="6" t="s">
@@ -7463,7 +7445,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="str">
-        <f>CONCATENATE(C101," ",D101)</f>
+        <f t="shared" si="3"/>
         <v>Thomas Hernandez</v>
       </c>
       <c r="B101" s="6" t="s">
@@ -7478,7 +7460,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="str">
-        <f>CONCATENATE(C102," ",D102)</f>
+        <f t="shared" si="3"/>
         <v>Anna Henthorn-Iwane</v>
       </c>
       <c r="B102" s="6" t="s">
@@ -7493,7 +7475,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="str">
-        <f>CONCATENATE(C103," ",D103)</f>
+        <f t="shared" si="3"/>
         <v>Billy Henderson</v>
       </c>
       <c r="B103" s="6" t="s">
@@ -7508,7 +7490,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="str">
-        <f>CONCATENATE(C104," ",D104)</f>
+        <f t="shared" si="3"/>
         <v>Nicholas Heard</v>
       </c>
       <c r="B104" s="6" t="s">
@@ -7523,7 +7505,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="str">
-        <f>CONCATENATE(C105," ",D105)</f>
+        <f t="shared" si="3"/>
         <v>Zoe Kidder</v>
       </c>
       <c r="B105" s="6" t="s">
@@ -7538,7 +7520,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="str">
-        <f>CONCATENATE(C106," ",D106)</f>
+        <f t="shared" si="3"/>
         <v>Julian Khadka</v>
       </c>
       <c r="B106" s="6" t="s">
@@ -7553,7 +7535,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="str">
-        <f>CONCATENATE(C107," ",D107)</f>
+        <f t="shared" si="3"/>
         <v>Evan Keohan</v>
       </c>
       <c r="B107" s="6" t="s">
@@ -7568,7 +7550,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="str">
-        <f>CONCATENATE(C108," ",D108)</f>
+        <f t="shared" si="3"/>
         <v>Michelle Kelly</v>
       </c>
       <c r="B108" s="6" t="s">
@@ -7583,7 +7565,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="str">
-        <f>CONCATENATE(C109," ",D109)</f>
+        <f t="shared" si="3"/>
         <v>Jasper Kebade</v>
       </c>
       <c r="B109" s="6" t="s">
@@ -7598,7 +7580,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="str">
-        <f>CONCATENATE(C110," ",D110)</f>
+        <f t="shared" si="3"/>
         <v>Emilio Karnik</v>
       </c>
       <c r="B110" s="6" t="s">
@@ -7613,7 +7595,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="str">
-        <f>CONCATENATE(C111," ",D111)</f>
+        <f t="shared" si="3"/>
         <v>Cody Jue</v>
       </c>
       <c r="B111" s="6" t="s">
@@ -7628,7 +7610,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="str">
-        <f>CONCATENATE(C112," ",D112)</f>
+        <f t="shared" si="3"/>
         <v>Vivian Johnstone</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -7643,7 +7625,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="str">
-        <f>CONCATENATE(C113," ",D113)</f>
+        <f t="shared" si="3"/>
         <v>Kevin Johnson</v>
       </c>
       <c r="B113" s="6" t="s">
@@ -7658,7 +7640,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="str">
-        <f>CONCATENATE(C114," ",D114)</f>
+        <f t="shared" si="3"/>
         <v>Galmandahk Jimenez</v>
       </c>
       <c r="B114" s="6" t="s">
@@ -7673,7 +7655,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="str">
-        <f>CONCATENATE(C115," ",D115)</f>
+        <f t="shared" si="3"/>
         <v>Nick Jimenez</v>
       </c>
       <c r="B115" s="6" t="s">
@@ -7688,7 +7670,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="str">
-        <f>CONCATENATE(C116," ",D116)</f>
+        <f t="shared" si="3"/>
         <v>Branden Chow</v>
       </c>
       <c r="B116" s="6" t="s">
@@ -7703,7 +7685,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="str">
-        <f>CONCATENATE(C117," ",D117)</f>
+        <f t="shared" si="3"/>
         <v>Charlie Cherry</v>
       </c>
       <c r="B117" s="6" t="s">
@@ -7718,7 +7700,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="str">
-        <f>CONCATENATE(C118," ",D118)</f>
+        <f t="shared" si="3"/>
         <v>Wilbur Cherg</v>
       </c>
       <c r="B118" s="6" t="s">
@@ -7733,7 +7715,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="str">
-        <f>CONCATENATE(C119," ",D119)</f>
+        <f t="shared" si="3"/>
         <v>Peter Chen</v>
       </c>
       <c r="B119" s="6" t="s">
@@ -7748,7 +7730,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="str">
-        <f>CONCATENATE(C120," ",D120)</f>
+        <f t="shared" si="3"/>
         <v>Scott Chen</v>
       </c>
       <c r="B120" s="6" t="s">
@@ -7763,7 +7745,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="str">
-        <f>CONCATENATE(C121," ",D121)</f>
+        <f t="shared" si="3"/>
         <v>Ana Caton</v>
       </c>
       <c r="B121" s="6" t="s">
@@ -7778,7 +7760,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="str">
-        <f>CONCATENATE(C122," ",D122)</f>
+        <f t="shared" si="3"/>
         <v>Andy (Jian Ting) He</v>
       </c>
       <c r="B122" s="6" t="s">
@@ -7793,7 +7775,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="str">
-        <f>CONCATENATE(C123," ",D123)</f>
+        <f t="shared" si="3"/>
         <v>Justin He</v>
       </c>
       <c r="B123" s="6" t="s">
@@ -7808,7 +7790,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="str">
-        <f>CONCATENATE(C124," ",D124)</f>
+        <f t="shared" si="3"/>
         <v>Irina Haruyama</v>
       </c>
       <c r="B124" s="6" t="s">
@@ -7823,7 +7805,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="str">
-        <f>CONCATENATE(C125," ",D125)</f>
+        <f t="shared" si="3"/>
         <v>Madelynn Harper</v>
       </c>
       <c r="B125" s="6" t="s">
@@ -7838,7 +7820,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="str">
-        <f>CONCATENATE(C126," ",D126)</f>
+        <f t="shared" si="3"/>
         <v>Cheryll Guitvan</v>
       </c>
       <c r="B126" s="6" t="s">
@@ -7853,7 +7835,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="str">
-        <f>CONCATENATE(C127," ",D127)</f>
+        <f t="shared" si="3"/>
         <v>Oscar Gonzalez-Perez</v>
       </c>
       <c r="B127" s="6" t="s">
@@ -7868,7 +7850,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="str">
-        <f>CONCATENATE(C128," ",D128)</f>
+        <f t="shared" si="3"/>
         <v>Angelina Gonzalez</v>
       </c>
       <c r="B128" s="6" t="s">
@@ -7883,7 +7865,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="str">
-        <f>CONCATENATE(C129," ",D129)</f>
+        <f t="shared" ref="A129:A160" si="4">CONCATENATE(C129," ",D129)</f>
         <v>Mohammad Gonzalez</v>
       </c>
       <c r="B129" s="6" t="s">
@@ -7898,7 +7880,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="str">
-        <f>CONCATENATE(C130," ",D130)</f>
+        <f t="shared" si="4"/>
         <v>Alexander Gomez</v>
       </c>
       <c r="B130" s="6" t="s">
@@ -7913,7 +7895,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="str">
-        <f>CONCATENATE(C131," ",D131)</f>
+        <f t="shared" si="4"/>
         <v>Jeremy Gomez</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -7928,7 +7910,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="str">
-        <f>CONCATENATE(C132," ",D132)</f>
+        <f t="shared" si="4"/>
         <v>Seif Goess</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -7943,7 +7925,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="str">
-        <f>CONCATENATE(C133," ",D133)</f>
+        <f t="shared" si="4"/>
         <v>Giovanni Ghiglieri</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -7958,7 +7940,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="str">
-        <f>CONCATENATE(C134," ",D134)</f>
+        <f t="shared" si="4"/>
         <v>Enzo Gellman</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -7973,7 +7955,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="str">
-        <f>CONCATENATE(C135," ",D135)</f>
+        <f t="shared" si="4"/>
         <v>Jason Gardner</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -7988,7 +7970,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="str">
-        <f>CONCATENATE(C136," ",D136)</f>
+        <f t="shared" si="4"/>
         <v>Jorge Galeana</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -8003,7 +7985,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="str">
-        <f>CONCATENATE(C137," ",D137)</f>
+        <f t="shared" si="4"/>
         <v>Griffin Gaim</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -8018,7 +8000,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="str">
-        <f>CONCATENATE(C138," ",D138)</f>
+        <f t="shared" si="4"/>
         <v>Carter Fong</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -8033,7 +8015,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="str">
-        <f>CONCATENATE(C139," ",D139)</f>
+        <f t="shared" si="4"/>
         <v>Giovanni Sanchez</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -8048,7 +8030,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="str">
-        <f>CONCATENATE(C140," ",D140)</f>
+        <f t="shared" si="4"/>
         <v>Adan Sanchez</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -8063,7 +8045,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="str">
-        <f>CONCATENATE(C141," ",D141)</f>
+        <f t="shared" si="4"/>
         <v>Brissa Ruiz</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -8078,7 +8060,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="str">
-        <f>CONCATENATE(C142," ",D142)</f>
+        <f t="shared" si="4"/>
         <v>Reginae Rue</v>
       </c>
       <c r="B142" s="6" t="s">
@@ -8093,7 +8075,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="str">
-        <f>CONCATENATE(C143," ",D143)</f>
+        <f t="shared" si="4"/>
         <v>Brandon Rubi</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -8108,7 +8090,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="str">
-        <f>CONCATENATE(C144," ",D144)</f>
+        <f t="shared" si="4"/>
         <v>Stephanie Rose</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -8123,7 +8105,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="str">
-        <f>CONCATENATE(C145," ",D145)</f>
+        <f t="shared" si="4"/>
         <v>Robert Rosales</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -8138,7 +8120,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="str">
-        <f>CONCATENATE(C146," ",D146)</f>
+        <f t="shared" si="4"/>
         <v>Maria Rodriguez Silva</v>
       </c>
       <c r="B146" s="6" t="s">
@@ -8153,7 +8135,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="str">
-        <f>CONCATENATE(C147," ",D147)</f>
+        <f t="shared" si="4"/>
         <v>Julia Robertson</v>
       </c>
       <c r="B147" s="6" t="s">
@@ -8168,7 +8150,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="str">
-        <f>CONCATENATE(C148," ",D148)</f>
+        <f t="shared" si="4"/>
         <v>Paul Robbins</v>
       </c>
       <c r="B148" s="6" t="s">
@@ -8183,7 +8165,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="str">
-        <f>CONCATENATE(C149," ",D149)</f>
+        <f t="shared" si="4"/>
         <v>Manuel Riley</v>
       </c>
       <c r="B149" s="6" t="s">
@@ -8198,7 +8180,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="str">
-        <f>CONCATENATE(C150," ",D150)</f>
+        <f t="shared" si="4"/>
         <v>Austin Reed</v>
       </c>
       <c r="B150" s="6" t="s">
@@ -8213,7 +8195,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="str">
-        <f>CONCATENATE(C151," ",D151)</f>
+        <f t="shared" si="4"/>
         <v>Reginald Ranman</v>
       </c>
       <c r="B151" s="6" t="s">
@@ -8228,7 +8210,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="str">
-        <f>CONCATENATE(C152," ",D152)</f>
+        <f t="shared" si="4"/>
         <v>Jose Ramos</v>
       </c>
       <c r="B152" s="9" t="s">
@@ -8243,7 +8225,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="str">
-        <f>CONCATENATE(C153," ",D153)</f>
+        <f t="shared" si="4"/>
         <v>Bryan Yang</v>
       </c>
       <c r="B153" s="6" t="s">
@@ -8258,7 +8240,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="str">
-        <f>CONCATENATE(C154," ",D154)</f>
+        <f t="shared" si="4"/>
         <v>Vytautas Xu</v>
       </c>
       <c r="B154" s="6" t="s">
@@ -8273,7 +8255,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="str">
-        <f>CONCATENATE(C155," ",D155)</f>
+        <f t="shared" si="4"/>
         <v>Luka Xie</v>
       </c>
       <c r="B155" s="6" t="s">
@@ -8288,7 +8270,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="str">
-        <f>CONCATENATE(C156," ",D156)</f>
+        <f t="shared" si="4"/>
         <v>Maite Wu</v>
       </c>
       <c r="B156" s="6" t="s">
@@ -8303,7 +8285,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="str">
-        <f>CONCATENATE(C157," ",D157)</f>
+        <f t="shared" si="4"/>
         <v>Lena Wu</v>
       </c>
       <c r="B157" s="6" t="s">
@@ -8318,7 +8300,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="str">
-        <f>CONCATENATE(C158," ",D158)</f>
+        <f t="shared" si="4"/>
         <v>Henry Wu</v>
       </c>
       <c r="B158" s="6" t="s">
@@ -8333,7 +8315,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="str">
-        <f>CONCATENATE(C159," ",D159)</f>
+        <f t="shared" si="4"/>
         <v>Sara Woods</v>
       </c>
       <c r="B159" s="6" t="s">
@@ -8348,7 +8330,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="str">
-        <f>CONCATENATE(C160," ",D160)</f>
+        <f t="shared" si="4"/>
         <v>Michaelangelo Wood</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -8363,7 +8345,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="str">
-        <f>CONCATENATE(C161," ",D161)</f>
+        <f t="shared" ref="A161:A168" si="5">CONCATENATE(C161," ",D161)</f>
         <v>Andrea Wong</v>
       </c>
       <c r="B161" s="6" t="s">
@@ -8378,7 +8360,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="str">
-        <f>CONCATENATE(C162," ",D162)</f>
+        <f t="shared" si="5"/>
         <v>Elias Wong</v>
       </c>
       <c r="B162" s="6" t="s">
@@ -8393,7 +8375,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="str">
-        <f>CONCATENATE(C163," ",D163)</f>
+        <f t="shared" si="5"/>
         <v>Michael Wong</v>
       </c>
       <c r="B163" s="6" t="s">
@@ -8408,7 +8390,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="str">
-        <f>CONCATENATE(C164," ",D164)</f>
+        <f t="shared" si="5"/>
         <v>Elson Wong</v>
       </c>
       <c r="B164" s="6" t="s">
@@ -8423,7 +8405,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="str">
-        <f>CONCATENATE(C165," ",D165)</f>
+        <f t="shared" si="5"/>
         <v>Jake Wisherop</v>
       </c>
       <c r="B165" s="6" t="s">
@@ -8438,7 +8420,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="str">
-        <f>CONCATENATE(C166," ",D166)</f>
+        <f t="shared" si="5"/>
         <v>Michaelangelo Wilson</v>
       </c>
       <c r="B166" s="6" t="s">
@@ -8453,7 +8435,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="str">
-        <f>CONCATENATE(C167," ",D167)</f>
+        <f t="shared" si="5"/>
         <v>Camilia Williams</v>
       </c>
       <c r="B167" s="6" t="s">
@@ -8468,7 +8450,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="str">
-        <f>CONCATENATE(C168," ",D168)</f>
+        <f t="shared" si="5"/>
         <v>Philip White</v>
       </c>
       <c r="B168" s="6" t="s">
@@ -8492,7 +8474,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="str">
-        <f>CONCATENATE(C170," ",D170)</f>
+        <f t="shared" ref="A170:A201" si="6">CONCATENATE(C170," ",D170)</f>
         <v>John Carlos Yang</v>
       </c>
       <c r="B170" s="6" t="s">
@@ -8507,7 +8489,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="str">
-        <f>CONCATENATE(C171," ",D171)</f>
+        <f t="shared" si="6"/>
         <v>Emily Castellanos</v>
       </c>
       <c r="B171" s="6" t="s">
@@ -8522,7 +8504,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="str">
-        <f>CONCATENATE(C172," ",D172)</f>
+        <f t="shared" si="6"/>
         <v>Joshu Carrillo</v>
       </c>
       <c r="B172" s="6" t="s">
@@ -8537,7 +8519,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="str">
-        <f>CONCATENATE(C173," ",D173)</f>
+        <f t="shared" si="6"/>
         <v>Jasmine Calva</v>
       </c>
       <c r="B173" s="6" t="s">
@@ -8552,7 +8534,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="str">
-        <f>CONCATENATE(C174," ",D174)</f>
+        <f t="shared" si="6"/>
         <v>Allen Cacho</v>
       </c>
       <c r="B174" s="6" t="s">
@@ -8567,7 +8549,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="str">
-        <f>CONCATENATE(C175," ",D175)</f>
+        <f t="shared" si="6"/>
         <v>Taylor Burns</v>
       </c>
       <c r="B175" s="6" t="s">
@@ -8582,7 +8564,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="str">
-        <f>CONCATENATE(C176," ",D176)</f>
+        <f t="shared" si="6"/>
         <v>Pedro Budker</v>
       </c>
       <c r="B176" s="6" t="s">
@@ -8597,7 +8579,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="str">
-        <f>CONCATENATE(C177," ",D177)</f>
+        <f t="shared" si="6"/>
         <v>James Bruce</v>
       </c>
       <c r="B177" s="6" t="s">
@@ -8612,7 +8594,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="str">
-        <f>CONCATENATE(C178," ",D178)</f>
+        <f t="shared" si="6"/>
         <v>Bryce Brown</v>
       </c>
       <c r="B178" s="6" t="s">
@@ -8627,7 +8609,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="str">
-        <f>CONCATENATE(C179," ",D179)</f>
+        <f t="shared" si="6"/>
         <v>Jennifer Bonilla</v>
       </c>
       <c r="B179" s="6" t="s">
@@ -8642,7 +8624,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="str">
-        <f>CONCATENATE(C180," ",D180)</f>
+        <f t="shared" si="6"/>
         <v>Kobe Bolanos</v>
       </c>
       <c r="B180" s="6" t="s">
@@ -8657,7 +8639,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="str">
-        <f>CONCATENATE(C181," ",D181)</f>
+        <f t="shared" si="6"/>
         <v>Chris Blendstrup</v>
       </c>
       <c r="B181" s="6" t="s">
@@ -8672,7 +8654,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="str">
-        <f>CONCATENATE(C182," ",D182)</f>
+        <f t="shared" si="6"/>
         <v>Karina Bishop</v>
       </c>
       <c r="B182" s="6" t="s">
@@ -8687,7 +8669,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="str">
-        <f>CONCATENATE(C183," ",D183)</f>
+        <f t="shared" si="6"/>
         <v>Reejan Beverly</v>
       </c>
       <c r="B183" s="6" t="s">
@@ -8702,7 +8684,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="str">
-        <f>CONCATENATE(C184," ",D184)</f>
+        <f t="shared" si="6"/>
         <v>Alan Becerra</v>
       </c>
       <c r="B184" s="6" t="s">
@@ -8717,7 +8699,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="str">
-        <f>CONCATENATE(C185," ",D185)</f>
+        <f t="shared" si="6"/>
         <v>Huiyun Battas</v>
       </c>
       <c r="B185" s="6" t="s">
@@ -8732,7 +8714,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="str">
-        <f>CONCATENATE(C186," ",D186)</f>
+        <f t="shared" si="6"/>
         <v>Noah Bassak</v>
       </c>
       <c r="B186" s="6" t="s">
@@ -8747,7 +8729,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="str">
-        <f>CONCATENATE(C187," ",D187)</f>
+        <f t="shared" si="6"/>
         <v>Ian Bartlett</v>
       </c>
       <c r="B187" s="6" t="s">
@@ -8762,7 +8744,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="str">
-        <f>CONCATENATE(C188," ",D188)</f>
+        <f t="shared" si="6"/>
         <v>Andrew Wenzler</v>
       </c>
       <c r="B188" s="6" t="s">
@@ -8777,7 +8759,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="str">
-        <f>CONCATENATE(C189," ",D189)</f>
+        <f t="shared" si="6"/>
         <v>Conor Wang</v>
       </c>
       <c r="B189" s="6" t="s">
@@ -8792,7 +8774,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="str">
-        <f>CONCATENATE(C190," ",D190)</f>
+        <f t="shared" si="6"/>
         <v>Jesse Wang</v>
       </c>
       <c r="B190" s="6" t="s">
@@ -8807,7 +8789,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="str">
-        <f>CONCATENATE(C191," ",D191)</f>
+        <f t="shared" si="6"/>
         <v>Maggie Wan</v>
       </c>
       <c r="B191" s="6" t="s">
@@ -8822,7 +8804,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="str">
-        <f>CONCATENATE(C192," ",D192)</f>
+        <f t="shared" si="6"/>
         <v>Charles Walston</v>
       </c>
       <c r="B192" s="6" t="s">
@@ -8837,7 +8819,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="str">
-        <f>CONCATENATE(C193," ",D193)</f>
+        <f t="shared" si="6"/>
         <v>Roisin Wai</v>
       </c>
       <c r="B193" s="6" t="s">
@@ -8852,7 +8834,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="str">
-        <f>CONCATENATE(C194," ",D194)</f>
+        <f t="shared" si="6"/>
         <v>Marisa Vojvoda</v>
       </c>
       <c r="B194" s="6" t="s">
@@ -8867,7 +8849,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="str">
-        <f>CONCATENATE(C195," ",D195)</f>
+        <f t="shared" si="6"/>
         <v>Nicholas VanHeuit</v>
       </c>
       <c r="B195" s="6" t="s">
@@ -8882,7 +8864,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="str">
-        <f>CONCATENATE(C196," ",D196)</f>
+        <f t="shared" si="6"/>
         <v>Aubrey-rose Valva</v>
       </c>
       <c r="B196" s="6" t="s">
@@ -8897,7 +8879,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="str">
-        <f>CONCATENATE(C197," ",D197)</f>
+        <f t="shared" si="6"/>
         <v>William Valdivia</v>
       </c>
       <c r="B197" s="6" t="s">
@@ -8912,7 +8894,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="str">
-        <f>CONCATENATE(C198," ",D198)</f>
+        <f t="shared" si="6"/>
         <v>Ethan Unurbaatar</v>
       </c>
       <c r="B198" s="6" t="s">
@@ -8927,7 +8909,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="str">
-        <f>CONCATENATE(C199," ",D199)</f>
+        <f t="shared" si="6"/>
         <v>Jenny Tse</v>
       </c>
       <c r="B199" s="6" t="s">
@@ -8942,7 +8924,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="str">
-        <f>CONCATENATE(C200," ",D200)</f>
+        <f t="shared" si="6"/>
         <v>Elana Truong</v>
       </c>
       <c r="B200" s="6" t="s">
@@ -8957,7 +8939,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="str">
-        <f>CONCATENATE(C201," ",D201)</f>
+        <f t="shared" si="6"/>
         <v>Jeff Triadi</v>
       </c>
       <c r="B201" s="6" t="s">
@@ -8972,7 +8954,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="str">
-        <f>CONCATENATE(C202," ",D202)</f>
+        <f t="shared" ref="A202:A233" si="7">CONCATENATE(C202," ",D202)</f>
         <v>Shuxin Tran</v>
       </c>
       <c r="B202" s="6" t="s">
@@ -8987,7 +8969,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="str">
-        <f>CONCATENATE(C203," ",D203)</f>
+        <f t="shared" si="7"/>
         <v>Tony Tran</v>
       </c>
       <c r="B203" s="6" t="s">
@@ -9002,7 +8984,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="str">
-        <f>CONCATENATE(C204," ",D204)</f>
+        <f t="shared" si="7"/>
         <v>Angelina Tostenson</v>
       </c>
       <c r="B204" s="6" t="s">
@@ -9017,7 +8999,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="str">
-        <f>CONCATENATE(C205," ",D205)</f>
+        <f t="shared" si="7"/>
         <v>Osualdo Tom</v>
       </c>
       <c r="B205" s="6" t="s">
@@ -9032,7 +9014,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="str">
-        <f>CONCATENATE(C206," ",D206)</f>
+        <f t="shared" si="7"/>
         <v>Cieara Zhou</v>
       </c>
       <c r="B206" s="6" t="s">
@@ -9047,7 +9029,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="str">
-        <f>CONCATENATE(C207," ",D207)</f>
+        <f t="shared" si="7"/>
         <v>Aron Zhang</v>
       </c>
       <c r="B207" s="6" t="s">
@@ -9062,7 +9044,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="str">
-        <f>CONCATENATE(C208," ",D208)</f>
+        <f t="shared" si="7"/>
         <v>Lennox Zhang</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -9077,7 +9059,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="str">
-        <f>CONCATENATE(C209," ",D209)</f>
+        <f t="shared" si="7"/>
         <v>William Zhang</v>
       </c>
       <c r="B209" s="6" t="s">
@@ -9092,7 +9074,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="str">
-        <f>CONCATENATE(C210," ",D210)</f>
+        <f t="shared" si="7"/>
         <v>Frank Zhang</v>
       </c>
       <c r="B210" s="6" t="s">
@@ -9107,7 +9089,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="str">
-        <f>CONCATENATE(C211," ",D211)</f>
+        <f t="shared" si="7"/>
         <v>Robert Zevallos</v>
       </c>
       <c r="B211" s="6" t="s">
@@ -9122,7 +9104,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="str">
-        <f>CONCATENATE(C212," ",D212)</f>
+        <f t="shared" si="7"/>
         <v>Fritzgerald Zenner</v>
       </c>
       <c r="B212" s="6" t="s">
@@ -9137,7 +9119,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="str">
-        <f>CONCATENATE(C213," ",D213)</f>
+        <f t="shared" si="7"/>
         <v>Nate Zeng</v>
       </c>
       <c r="B213" s="6" t="s">
@@ -9152,7 +9134,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="str">
-        <f>CONCATENATE(C214," ",D214)</f>
+        <f t="shared" si="7"/>
         <v>Abel Zarza</v>
       </c>
       <c r="B214" s="6" t="s">
@@ -9167,7 +9149,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="str">
-        <f>CONCATENATE(C215," ",D215)</f>
+        <f t="shared" si="7"/>
         <v>Juan Yu</v>
       </c>
       <c r="B215" s="6" t="s">
@@ -9182,7 +9164,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="str">
-        <f>CONCATENATE(C216," ",D216)</f>
+        <f t="shared" si="7"/>
         <v>Emily Yu</v>
       </c>
       <c r="B216" s="6" t="s">
@@ -9197,7 +9179,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="str">
-        <f>CONCATENATE(C217," ",D217)</f>
+        <f t="shared" si="7"/>
         <v>Kenny Yu</v>
       </c>
       <c r="B217" s="6" t="s">
@@ -9212,7 +9194,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="str">
-        <f>CONCATENATE(C218," ",D218)</f>
+        <f t="shared" si="7"/>
         <v>Mimi Yip</v>
       </c>
       <c r="B218" s="6" t="s">
@@ -9227,7 +9209,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="str">
-        <f>CONCATENATE(C219," ",D219)</f>
+        <f t="shared" si="7"/>
         <v>Emanuel Yi</v>
       </c>
       <c r="B219" s="6" t="s">
@@ -9242,7 +9224,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="str">
-        <f>CONCATENATE(C220," ",D220)</f>
+        <f t="shared" si="7"/>
         <v>Gene Zlatev</v>
       </c>
       <c r="B220" s="6" t="s">
@@ -9257,7 +9239,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="str">
-        <f>CONCATENATE(C221," ",D221)</f>
+        <f t="shared" si="7"/>
         <v>Bobbi Zinoman</v>
       </c>
       <c r="B221" s="6" t="s">
@@ -9272,7 +9254,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="str">
-        <f>CONCATENATE(C222," ",D222)</f>
+        <f t="shared" si="7"/>
         <v>Griffen Zhu</v>
       </c>
       <c r="B222" s="6" t="s">
@@ -9287,7 +9269,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="str">
-        <f>CONCATENATE(C223," ",D223)</f>
+        <f t="shared" si="7"/>
         <v>Connie Zhou</v>
       </c>
       <c r="B223" s="6" t="s">
@@ -9302,7 +9284,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="str">
-        <f>CONCATENATE(C224," ",D224)</f>
+        <f t="shared" si="7"/>
         <v>Joshua Zhou</v>
       </c>
       <c r="B224" s="6" t="s">
@@ -9317,7 +9299,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="str">
-        <f>CONCATENATE(C225," ",D225)</f>
+        <f t="shared" si="7"/>
         <v>Carissa Zhou</v>
       </c>
       <c r="B225" s="6" t="s">
@@ -9332,7 +9314,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="str">
-        <f>CONCATENATE(C226," ",D226)</f>
+        <f t="shared" si="7"/>
         <v>Jorge Martinez</v>
       </c>
       <c r="B226" s="6" t="s">
@@ -9347,7 +9329,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="str">
-        <f>CONCATENATE(C227," ",D227)</f>
+        <f t="shared" si="7"/>
         <v>Admiral Martinee</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -9362,7 +9344,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="str">
-        <f>CONCATENATE(C228," ",D228)</f>
+        <f t="shared" si="7"/>
         <v>Adam Martin</v>
       </c>
       <c r="B228" s="6" t="s">
@@ -9377,7 +9359,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="str">
-        <f>CONCATENATE(C229," ",D229)</f>
+        <f t="shared" si="7"/>
         <v>Rilhiyah Mart</v>
       </c>
       <c r="B229" s="6" t="s">
@@ -9392,7 +9374,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="str">
-        <f>CONCATENATE(C230," ",D230)</f>
+        <f t="shared" si="7"/>
         <v>Skylar Marrama</v>
       </c>
       <c r="B230" s="6" t="s">
@@ -9407,7 +9389,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="str">
-        <f>CONCATENATE(C231," ",D231)</f>
+        <f t="shared" si="7"/>
         <v>Charlie Manalo</v>
       </c>
       <c r="B231" s="6" t="s">
@@ -9422,7 +9404,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="str">
-        <f>CONCATENATE(C232," ",D232)</f>
+        <f t="shared" si="7"/>
         <v>Daniel Maddison</v>
       </c>
       <c r="B232" s="6" t="s">
@@ -9437,7 +9419,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="str">
-        <f>CONCATENATE(C233," ",D233)</f>
+        <f t="shared" si="7"/>
         <v>Kayley Luu</v>
       </c>
       <c r="B233" s="6" t="s">
@@ -9452,7 +9434,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="str">
-        <f>CONCATENATE(C234," ",D234)</f>
+        <f t="shared" ref="A234:A265" si="8">CONCATENATE(C234," ",D234)</f>
         <v>Laura Luna</v>
       </c>
       <c r="B234" s="6" t="s">
@@ -9467,7 +9449,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="str">
-        <f>CONCATENATE(C235," ",D235)</f>
+        <f t="shared" si="8"/>
         <v>Kandace Lui</v>
       </c>
       <c r="B235" s="6" t="s">
@@ -9482,7 +9464,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="str">
-        <f>CONCATENATE(C236," ",D236)</f>
+        <f t="shared" si="8"/>
         <v>Nuo Lou</v>
       </c>
       <c r="B236" s="6" t="s">
@@ -9497,7 +9479,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="str">
-        <f>CONCATENATE(C237," ",D237)</f>
+        <f t="shared" si="8"/>
         <v>Walter Lopez</v>
       </c>
       <c r="B237" s="6" t="s">
@@ -9512,7 +9494,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="str">
-        <f>CONCATENATE(C238," ",D238)</f>
+        <f t="shared" si="8"/>
         <v>Karoline Morgan</v>
       </c>
       <c r="B238" s="6" t="s">
@@ -9527,7 +9509,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="str">
-        <f>CONCATENATE(C239," ",D239)</f>
+        <f t="shared" si="8"/>
         <v>Ketzia Moreno</v>
       </c>
       <c r="B239" s="6" t="s">
@@ -9542,7 +9524,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="str">
-        <f>CONCATENATE(C240," ",D240)</f>
+        <f t="shared" si="8"/>
         <v>Aelafe Moore</v>
       </c>
       <c r="B240" s="6" t="s">
@@ -9557,7 +9539,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="str">
-        <f>CONCATENATE(C241," ",D241)</f>
+        <f t="shared" si="8"/>
         <v>Janet Montevirgin</v>
       </c>
       <c r="B241" s="6" t="s">
@@ -9572,7 +9554,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="str">
-        <f>CONCATENATE(C242," ",D242)</f>
+        <f t="shared" si="8"/>
         <v>Kenyon Mogilewski</v>
       </c>
       <c r="B242" s="6" t="s">
@@ -9587,7 +9569,7 @@
     </row>
     <row r="243" spans="1:4" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="str">
-        <f>CONCATENATE(C243," ",D243)</f>
+        <f t="shared" si="8"/>
         <v>Wangsen (Stanley) Mitchell</v>
       </c>
       <c r="B243" s="6" t="s">
@@ -9602,7 +9584,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="str">
-        <f>CONCATENATE(C244," ",D244)</f>
+        <f t="shared" si="8"/>
         <v>Patrick Minsky</v>
       </c>
       <c r="B244" s="6" t="s">
@@ -9617,7 +9599,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="str">
-        <f>CONCATENATE(C245," ",D245)</f>
+        <f t="shared" si="8"/>
         <v>Thane Mills</v>
       </c>
       <c r="B245" s="6" t="s">
@@ -9632,7 +9614,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="str">
-        <f>CONCATENATE(C246," ",D246)</f>
+        <f t="shared" si="8"/>
         <v>Ryan Micael</v>
       </c>
       <c r="B246" s="6" t="s">
@@ -9647,7 +9629,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="str">
-        <f>CONCATENATE(C247," ",D247)</f>
+        <f t="shared" si="8"/>
         <v>Ethan Merzenich</v>
       </c>
       <c r="B247" s="6" t="s">
@@ -9662,7 +9644,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="str">
-        <f>CONCATENATE(C248," ",D248)</f>
+        <f t="shared" si="8"/>
         <v>Hana Merino</v>
       </c>
       <c r="B248" s="6" t="s">
@@ -9677,7 +9659,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="str">
-        <f>CONCATENATE(C249," ",D249)</f>
+        <f t="shared" si="8"/>
         <v>Michelle Mendes</v>
       </c>
       <c r="B249" s="6" t="s">
@@ -9692,7 +9674,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="str">
-        <f>CONCATENATE(C250," ",D250)</f>
+        <f t="shared" si="8"/>
         <v>Christian Mejia</v>
       </c>
       <c r="B250" s="6" t="s">
@@ -9707,7 +9689,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="str">
-        <f>CONCATENATE(C251," ",D251)</f>
+        <f t="shared" si="8"/>
         <v>Jonathan Mei</v>
       </c>
       <c r="B251" s="6" t="s">
@@ -9722,7 +9704,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="str">
-        <f>CONCATENATE(C252," ",D252)</f>
+        <f t="shared" si="8"/>
         <v>Cristiana McNary</v>
       </c>
       <c r="B252" s="6" t="s">
@@ -9737,7 +9719,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="str">
-        <f>CONCATENATE(C253," ",D253)</f>
+        <f t="shared" si="8"/>
         <v>Tammy McLoughlin</v>
       </c>
       <c r="B253" s="6" t="s">
@@ -9752,7 +9734,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="str">
-        <f>CONCATENATE(C254," ",D254)</f>
+        <f t="shared" si="8"/>
         <v>Amit McDonald</v>
       </c>
       <c r="B254" s="6" t="s">
@@ -9767,7 +9749,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="str">
-        <f>CONCATENATE(C255," ",D255)</f>
+        <f t="shared" si="8"/>
         <v>Kailash McCaulley</v>
       </c>
       <c r="B255" s="6" t="s">
@@ -9782,7 +9764,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="str">
-        <f>CONCATENATE(C256," ",D256)</f>
+        <f t="shared" si="8"/>
         <v>Winnie Maxwell</v>
       </c>
       <c r="B256" s="6" t="s">
@@ -9797,7 +9779,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="str">
-        <f>CONCATENATE(C257," ",D257)</f>
+        <f t="shared" si="8"/>
         <v>Gaby Martinez</v>
       </c>
       <c r="B257" s="6" t="s">
@@ -9812,7 +9794,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="str">
-        <f>CONCATENATE(C258," ",D258)</f>
+        <f t="shared" si="8"/>
         <v>Samuel Martinez</v>
       </c>
       <c r="B258" s="6" t="s">
@@ -9827,7 +9809,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="str">
-        <f>CONCATENATE(C259," ",D259)</f>
+        <f t="shared" si="8"/>
         <v>Samuel Soephan</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -9842,7 +9824,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="str">
-        <f>CONCATENATE(C260," ",D260)</f>
+        <f t="shared" si="8"/>
         <v>Tom Smith</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -9857,7 +9839,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="str">
-        <f>CONCATENATE(C261," ",D261)</f>
+        <f t="shared" si="8"/>
         <v>Jake Smith</v>
       </c>
       <c r="B261" s="6" t="s">
@@ -9872,7 +9854,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="str">
-        <f>CONCATENATE(C262," ",D262)</f>
+        <f t="shared" si="8"/>
         <v>Joseph Situ</v>
       </c>
       <c r="B262" s="6" t="s">
@@ -9887,7 +9869,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="str">
-        <f>CONCATENATE(C263," ",D263)</f>
+        <f t="shared" si="8"/>
         <v>Jayshaun Singleton</v>
       </c>
       <c r="B263" s="6" t="s">
@@ -9902,7 +9884,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="str">
-        <f>CONCATENATE(C264," ",D264)</f>
+        <f t="shared" si="8"/>
         <v>Branden Singh</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -9917,7 +9899,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="str">
-        <f>CONCATENATE(C265," ",D265)</f>
+        <f t="shared" si="8"/>
         <v>Elizabeth Singh</v>
       </c>
       <c r="B265" s="6" t="s">
@@ -9932,7 +9914,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="str">
-        <f>CONCATENATE(C266," ",D266)</f>
+        <f t="shared" ref="A266:A297" si="9">CONCATENATE(C266," ",D266)</f>
         <v>Lamont Simmons</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -9947,7 +9929,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="str">
-        <f>CONCATENATE(C267," ",D267)</f>
+        <f t="shared" si="9"/>
         <v>Irvin Silverman</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -9962,7 +9944,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="str">
-        <f>CONCATENATE(C268," ",D268)</f>
+        <f t="shared" si="9"/>
         <v>Billy Shutt</v>
       </c>
       <c r="B268" s="6" t="s">
@@ -9977,7 +9959,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="str">
-        <f>CONCATENATE(C269," ",D269)</f>
+        <f t="shared" si="9"/>
         <v>Lewis Shirozi</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -9992,7 +9974,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="str">
-        <f>CONCATENATE(C270," ",D270)</f>
+        <f t="shared" si="9"/>
         <v>Gilberto Shi</v>
       </c>
       <c r="B270" s="6" t="s">
@@ -10007,7 +9989,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="str">
-        <f>CONCATENATE(C271," ",D271)</f>
+        <f t="shared" si="9"/>
         <v>Leila Shalf</v>
       </c>
       <c r="B271" s="6" t="s">
@@ -10022,7 +10004,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="str">
-        <f>CONCATENATE(C272," ",D272)</f>
+        <f t="shared" si="9"/>
         <v>Andrea Servin</v>
       </c>
       <c r="B272" s="6" t="s">
@@ -10037,7 +10019,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="str">
-        <f>CONCATENATE(C273," ",D273)</f>
+        <f t="shared" si="9"/>
         <v>Raymond Schooling</v>
       </c>
       <c r="B273" s="6" t="s">
@@ -10052,7 +10034,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="str">
-        <f>CONCATENATE(C274," ",D274)</f>
+        <f t="shared" si="9"/>
         <v>Tony Schniedergers</v>
       </c>
       <c r="B274" s="6" t="s">
@@ -10067,7 +10049,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="str">
-        <f>CONCATENATE(C275," ",D275)</f>
+        <f t="shared" si="9"/>
         <v>Macie Schneidinger</v>
       </c>
       <c r="B275" s="6" t="s">
@@ -10082,7 +10064,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="str">
-        <f>CONCATENATE(C276," ",D276)</f>
+        <f t="shared" si="9"/>
         <v>Jair Saucedo</v>
       </c>
       <c r="B276" s="6" t="s">
@@ -10097,7 +10079,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="str">
-        <f>CONCATENATE(C277," ",D277)</f>
+        <f t="shared" si="9"/>
         <v>Tristan Santana</v>
       </c>
       <c r="B277" s="6" t="s">
@@ -10112,7 +10094,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="str">
-        <f>CONCATENATE(C278," ",D278)</f>
+        <f t="shared" si="9"/>
         <v>Gavin Orla-Bukowski</v>
       </c>
       <c r="B278" s="6" t="s">
@@ -10127,7 +10109,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="str">
-        <f>CONCATENATE(C279," ",D279)</f>
+        <f t="shared" si="9"/>
         <v>Minnie Ong</v>
       </c>
       <c r="B279" s="6" t="s">
@@ -10142,7 +10124,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="str">
-        <f>CONCATENATE(C280," ",D280)</f>
+        <f t="shared" si="9"/>
         <v>Andy Olson</v>
       </c>
       <c r="B280" s="6" t="s">
@@ -10157,7 +10139,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="str">
-        <f>CONCATENATE(C281," ",D281)</f>
+        <f t="shared" si="9"/>
         <v>Quiante Olosiman</v>
       </c>
       <c r="B281" s="6" t="s">
@@ -10172,11 +10154,11 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="str">
-        <f>CONCATENATE(C282," ",D282)</f>
+        <f t="shared" si="9"/>
         <v>Raymond Oddone</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>443</v>
@@ -10187,11 +10169,11 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="str">
-        <f>CONCATENATE(C283," ",D283)</f>
+        <f t="shared" si="9"/>
         <v>Alex Norbu</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>237</v>
@@ -10202,11 +10184,11 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="str">
-        <f>CONCATENATE(C284," ",D284)</f>
+        <f t="shared" si="9"/>
         <v>Carlos Nieves</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>247</v>
@@ -10217,11 +10199,11 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="str">
-        <f>CONCATENATE(C285," ",D285)</f>
+        <f t="shared" si="9"/>
         <v>David Nguyen</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>205</v>
@@ -10232,11 +10214,11 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="str">
-        <f>CONCATENATE(C286," ",D286)</f>
+        <f t="shared" si="9"/>
         <v>JingJun Nguyen</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>396</v>
@@ -10247,11 +10229,11 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="str">
-        <f>CONCATENATE(C287," ",D287)</f>
+        <f t="shared" si="9"/>
         <v>Joshua Nguyen</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>34</v>
@@ -10262,11 +10244,11 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="str">
-        <f>CONCATENATE(C288," ",D288)</f>
+        <f t="shared" si="9"/>
         <v>Kai Nguyen</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>447</v>
@@ -10277,11 +10259,11 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="str">
-        <f>CONCATENATE(C289," ",D289)</f>
+        <f t="shared" si="9"/>
         <v>Sydney Nguyen</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>330</v>
@@ -10292,7 +10274,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="str">
-        <f>CONCATENATE(C290," ",D290)</f>
+        <f t="shared" si="9"/>
         <v>Agustin Lopez</v>
       </c>
       <c r="B290" s="6" t="s">
@@ -10307,7 +10289,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="str">
-        <f>CONCATENATE(C291," ",D291)</f>
+        <f t="shared" si="9"/>
         <v>Luis Lopez</v>
       </c>
       <c r="B291" s="6" t="s">
@@ -10322,7 +10304,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="str">
-        <f>CONCATENATE(C292," ",D292)</f>
+        <f t="shared" si="9"/>
         <v>Huabin Lodoe</v>
       </c>
       <c r="B292" s="6" t="s">
@@ -10337,7 +10319,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="str">
-        <f>CONCATENATE(C293," ",D293)</f>
+        <f t="shared" si="9"/>
         <v>Hien Liu</v>
       </c>
       <c r="B293" s="6" t="s">
@@ -10352,7 +10334,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="str">
-        <f>CONCATENATE(C294," ",D294)</f>
+        <f t="shared" si="9"/>
         <v>Donovan Lira</v>
       </c>
       <c r="B294" s="6" t="s">
@@ -10367,7 +10349,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="str">
-        <f>CONCATENATE(C295," ",D295)</f>
+        <f t="shared" si="9"/>
         <v>Alex Lintao</v>
       </c>
       <c r="B295" s="6" t="s">
@@ -10382,7 +10364,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="str">
-        <f>CONCATENATE(C296," ",D296)</f>
+        <f t="shared" si="9"/>
         <v>Jiani Ligutan</v>
       </c>
       <c r="B296" s="6" t="s">
@@ -10397,7 +10379,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="str">
-        <f>CONCATENATE(C297," ",D297)</f>
+        <f t="shared" si="9"/>
         <v>Michael Liang</v>
       </c>
       <c r="B297" s="6" t="s">
@@ -10412,7 +10394,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="str">
-        <f>CONCATENATE(C298," ",D298)</f>
+        <f t="shared" ref="A298:A316" si="10">CONCATENATE(C298," ",D298)</f>
         <v>Jeanie Li</v>
       </c>
       <c r="B298" s="6" t="s">
@@ -10427,7 +10409,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="str">
-        <f>CONCATENATE(C299," ",D299)</f>
+        <f t="shared" si="10"/>
         <v>Carvell Levi</v>
       </c>
       <c r="B299" s="6" t="s">
@@ -10442,7 +10424,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="str">
-        <f>CONCATENATE(C300," ",D300)</f>
+        <f t="shared" si="10"/>
         <v>Calvin Leung</v>
       </c>
       <c r="B300" s="6" t="s">
@@ -10457,7 +10439,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="str">
-        <f>CONCATENATE(C301," ",D301)</f>
+        <f t="shared" si="10"/>
         <v>Kai Quale</v>
       </c>
       <c r="B301" s="6" t="s">
@@ -10472,7 +10454,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="str">
-        <f>CONCATENATE(C302," ",D302)</f>
+        <f t="shared" si="10"/>
         <v>Maya Qiu</v>
       </c>
       <c r="B302" s="6" t="s">
@@ -10487,7 +10469,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="str">
-        <f>CONCATENATE(C303," ",D303)</f>
+        <f t="shared" si="10"/>
         <v>Alex Priesto</v>
       </c>
       <c r="B303" s="6" t="s">
@@ -10502,7 +10484,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="str">
-        <f>CONCATENATE(C304," ",D304)</f>
+        <f t="shared" si="10"/>
         <v>Cole Prendergast</v>
       </c>
       <c r="B304" s="6" t="s">
@@ -10517,7 +10499,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="str">
-        <f>CONCATENATE(C305," ",D305)</f>
+        <f t="shared" si="10"/>
         <v>Junior Pratt</v>
       </c>
       <c r="B305" s="6" t="s">
@@ -10532,7 +10514,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="str">
-        <f>CONCATENATE(C306," ",D306)</f>
+        <f t="shared" si="10"/>
         <v>Simranjit Poveda</v>
       </c>
       <c r="B306" s="6" t="s">
@@ -10547,7 +10529,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="str">
-        <f>CONCATENATE(C307," ",D307)</f>
+        <f t="shared" si="10"/>
         <v>Daniela Portillo</v>
       </c>
       <c r="B307" s="6" t="s">
@@ -10562,7 +10544,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="str">
-        <f>CONCATENATE(C308," ",D308)</f>
+        <f t="shared" si="10"/>
         <v>Athorva Pietropooli</v>
       </c>
       <c r="B308" s="6" t="s">
@@ -10577,7 +10559,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="str">
-        <f>CONCATENATE(C309," ",D309)</f>
+        <f t="shared" si="10"/>
         <v>Kelsey Pierce</v>
       </c>
       <c r="B309" s="6" t="s">
@@ -10592,7 +10574,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="str">
-        <f>CONCATENATE(C310," ",D310)</f>
+        <f t="shared" si="10"/>
         <v>William Piccillo</v>
       </c>
       <c r="B310" s="6" t="s">
@@ -10607,7 +10589,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="str">
-        <f>CONCATENATE(C311," ",D311)</f>
+        <f t="shared" si="10"/>
         <v>Sara Phung</v>
       </c>
       <c r="B311" s="6" t="s">
@@ -10622,7 +10604,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="str">
-        <f>CONCATENATE(C312," ",D312)</f>
+        <f t="shared" si="10"/>
         <v>Angelina Phoumivong</v>
       </c>
       <c r="B312" s="6" t="s">
@@ -10637,7 +10619,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="str">
-        <f>CONCATENATE(C313," ",D313)</f>
+        <f t="shared" si="10"/>
         <v>Christian Pereda</v>
       </c>
       <c r="B313" s="6" t="s">
@@ -10652,7 +10634,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="str">
-        <f>CONCATENATE(C314," ",D314)</f>
+        <f t="shared" si="10"/>
         <v>Gabriel Peng</v>
       </c>
       <c r="B314" s="6" t="s">
@@ -10667,7 +10649,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="str">
-        <f>CONCATENATE(C315," ",D315)</f>
+        <f t="shared" si="10"/>
         <v>Sarbjot Pedersen</v>
       </c>
       <c r="B315" s="6" t="s">
@@ -10682,7 +10664,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="str">
-        <f>CONCATENATE(C316," ",D316)</f>
+        <f t="shared" si="10"/>
         <v>Tiffany Pareja</v>
       </c>
       <c r="B316" s="6" t="s">
@@ -10727,8 +10709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10819,7 +10801,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="B11">
         <v>250</v>
@@ -10975,7 +10957,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10987,7 +10969,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10999,7 +10981,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11011,7 +10993,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11023,7 +11005,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11035,7 +11017,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11047,7 +11029,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11059,7 +11041,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11071,7 +11053,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11083,7 +11065,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11095,7 +11077,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11107,7 +11089,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11130,7 +11112,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11142,7 +11124,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11154,7 +11136,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11166,7 +11148,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11178,7 +11160,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11190,7 +11172,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11202,7 +11184,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11214,7 +11196,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11226,7 +11208,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11238,7 +11220,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11261,7 +11243,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11273,7 +11255,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11285,7 +11267,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11297,7 +11279,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11320,7 +11302,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11332,7 +11314,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11344,7 +11326,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11356,7 +11338,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11368,7 +11350,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11380,7 +11362,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11403,7 +11385,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11415,7 +11397,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11427,7 +11409,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11439,7 +11421,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11451,7 +11433,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11463,7 +11445,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11475,7 +11457,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11498,7 +11480,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11510,7 +11492,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11522,7 +11504,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11534,7 +11516,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11557,7 +11539,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11569,7 +11551,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11581,7 +11563,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11593,7 +11575,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11605,7 +11587,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11617,7 +11599,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="3"/>
+    <workbookView xWindow="2844" yWindow="228" windowWidth="23784" windowHeight="11088" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="915">
   <si>
     <t>Berkeley High</t>
   </si>
@@ -2766,10 +2766,19 @@
     <t>Claw Hammer</t>
   </si>
   <si>
-    <t>VEX Controller</t>
-  </si>
-  <si>
     <t>Wallenberg</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has checked out 1 of Clamp</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has returned 1 of Clamp</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has purchased 2 of Limit Switch</t>
+  </si>
+  <si>
+    <t>Kevin Johnson has returned 2 of Limit Switch</t>
   </si>
 </sst>
 </file>
@@ -3145,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4779,7 +4788,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="A76" sqref="A76:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5891,7 +5900,7 @@
         <v>Stephen Pereira-Schork</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>328</v>
@@ -5906,7 +5915,7 @@
         <v>Terence Yang</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>44</v>
@@ -5933,7 +5942,7 @@
   <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+      <selection activeCell="A317" sqref="A317:B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10158,7 +10167,7 @@
         <v>Raymond Oddone</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>443</v>
@@ -10173,7 +10182,7 @@
         <v>Alex Norbu</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>237</v>
@@ -10188,7 +10197,7 @@
         <v>Carlos Nieves</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>247</v>
@@ -10203,7 +10212,7 @@
         <v>David Nguyen</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>205</v>
@@ -10218,7 +10227,7 @@
         <v>JingJun Nguyen</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>396</v>
@@ -10233,7 +10242,7 @@
         <v>Joshua Nguyen</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>34</v>
@@ -10248,7 +10257,7 @@
         <v>Kai Nguyen</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>447</v>
@@ -10263,7 +10272,7 @@
         <v>Sydney Nguyen</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>330</v>
@@ -10709,8 +10718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10772,7 +10781,7 @@
         <v>341</v>
       </c>
       <c r="B7">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -10926,10 +10935,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10957,7 +10966,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C36" ca="1" si="0">RANDBETWEEN(1,100)</f>
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10969,7 +10978,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10981,7 +10990,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -10993,7 +11002,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11005,7 +11014,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11017,7 +11026,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11029,7 +11038,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11041,7 +11050,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11053,7 +11062,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11065,7 +11074,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11077,7 +11086,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11089,7 +11098,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11112,7 +11121,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11124,7 +11133,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11136,7 +11145,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11148,7 +11157,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11160,7 +11169,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11172,7 +11181,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11184,7 +11193,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11196,7 +11205,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11208,7 +11217,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11220,7 +11229,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11243,7 +11252,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11255,7 +11264,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11267,7 +11276,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11279,7 +11288,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11302,7 +11311,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11314,7 +11323,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11326,7 +11335,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11338,7 +11347,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11350,7 +11359,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11362,7 +11371,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11385,7 +11394,7 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:C56" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11397,7 +11406,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11409,7 +11418,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11421,7 +11430,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11433,7 +11442,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11445,7 +11454,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11457,7 +11466,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11468,7 +11477,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11480,7 +11489,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11492,7 +11501,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11504,7 +11513,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11516,7 +11525,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11539,7 +11548,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11551,7 +11560,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11563,7 +11572,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11575,7 +11584,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11587,7 +11596,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11599,18 +11608,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
-        <v>910</v>
-      </c>
-      <c r="B57">
-        <v>30</v>
-      </c>
-      <c r="C57">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -11622,8 +11620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11926,10 +11924,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11970,6 +11968,22 @@
         <v>42131.73400462963</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>911</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42131.9612037037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>912</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42131.96130787037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11977,10 +11991,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12021,6 +12035,46 @@
         <v>42131.736712962964</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>913</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42131.961840277778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42131.961909722224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>914</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42131.962152777778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>913</v>
+      </c>
+      <c r="B8" s="10">
+        <v>42131.962291666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B9" s="10">
+        <v>42131.962407407409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
